--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sibaram\git\einstein-code-version-2-pe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akul Bhutani\git\einstein-code-version-2-pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Modules" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
   <si>
     <t>Module_Name</t>
   </si>
@@ -94,9 +94,6 @@
     <t>SuperAdmin</t>
   </si>
   <si>
-    <t>MnA</t>
-  </si>
-  <si>
     <t>Admin</t>
   </si>
   <si>
@@ -137,6 +134,33 @@
   </si>
   <si>
     <t>ToggleTc003_1_CreatePreconditionData</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>TWtc001_1_CreateCRMUser</t>
+  </si>
+  <si>
+    <t>TWtc001_2_Prerequisite</t>
+  </si>
+  <si>
+    <t>TWtc001_3_AddListView</t>
+  </si>
+  <si>
+    <t>TWtc002_1_CreatePreconditionData</t>
+  </si>
+  <si>
+    <t>TWtc003_1_AddWatchlistField</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>navatariptesting+91877@gmail.com</t>
+  </si>
+  <si>
+    <t>User99341</t>
   </si>
 </sst>
 </file>
@@ -314,7 +338,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -348,6 +372,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -355,7 +380,358 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3"/>
   </cellStyles>
-  <dxfs count="52">
+  <dxfs count="85">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1270,7 +1646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -1300,7 +1676,7 @@
     </row>
     <row r="3" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>8</v>
@@ -1308,30 +1684,30 @@
     </row>
     <row r="4" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2:I3">
-    <cfRule type="cellIs" dxfId="51" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="6" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I3">
-    <cfRule type="cellIs" dxfId="50" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="7" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="49" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="48" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1348,10 +1724,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1382,11 +1758,9 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="8">
-        <v>1</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B2" s="8"/>
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1399,11 +1773,9 @@
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="8">
-        <v>1</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B3" s="8"/>
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
@@ -1414,13 +1786,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="8">
-        <v>1</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B4" s="8"/>
       <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
@@ -1431,13 +1801,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B5" s="8"/>
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1448,145 +1816,393 @@
         <v>10</v>
       </c>
     </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="80" priority="88" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="89" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="90" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="containsText" dxfId="77" priority="91" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="76" priority="92" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="75" priority="93" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="containsText" dxfId="74" priority="94" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="73" priority="95" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="72" priority="96" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="cellIs" dxfId="71" priority="79" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="80" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="81" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="containsText" dxfId="68" priority="82" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="67" priority="83" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="66" priority="84" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="containsText" dxfId="65" priority="85" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="64" priority="86" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="63" priority="87" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="62" priority="70" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="71" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="72" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="containsText" dxfId="59" priority="73" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="58" priority="74" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="57" priority="75" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="containsText" dxfId="56" priority="76" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="55" priority="77" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="54" priority="78" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="53" priority="61" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="62" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="63" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="containsText" dxfId="50" priority="55" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="56" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="57" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="containsText" dxfId="47" priority="58" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="59" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="60" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="containsText" dxfId="44" priority="40" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="43" priority="41" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="42" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="containsText" dxfId="41" priority="43" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="44" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="39" priority="45" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="containsText" dxfId="38" priority="34" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="35" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="36" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="containsText" dxfId="35" priority="37" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="38" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="39" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="32" priority="28" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="32" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="33" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="26" priority="22" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="23" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="24" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="23" priority="25" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="26" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="27" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="containsText" dxfId="20" priority="16" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="21" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" dxfId="47" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="44" priority="37" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="38" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="39" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="41" priority="40" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="42" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="38" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="35" priority="28" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="29" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="30" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="32" priority="31" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="33" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="29" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="26" priority="19" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="20" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="21" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C5">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C10">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E10">
       <formula1>"High,Low"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1605,7 +2221,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1652,45 +2268,51 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
         <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>28</v>
-      </c>
-      <c r="I3" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akul Bhutani\git\einstein-code-version-2-pe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sibaram\git\einstein-code-version-2-pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
   <si>
     <t>Module_Name</t>
   </si>
@@ -161,6 +161,12 @@
   </si>
   <si>
     <t>User99341</t>
+  </si>
+  <si>
+    <t>ToggleTc005_VerifyTheToggleButtonAndFunctionalityOfToggleButtonOnInstitutionPageRecord</t>
+  </si>
+  <si>
+    <t>ToggleTc006_CreateNewCustomSDG</t>
   </si>
 </sst>
 </file>
@@ -380,7 +386,403 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3"/>
   </cellStyles>
-  <dxfs count="85">
+  <dxfs count="121">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1692,22 +2094,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2:I3">
-    <cfRule type="cellIs" dxfId="84" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="6" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I3">
-    <cfRule type="cellIs" dxfId="83" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="7" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="82" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="81" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1724,10 +2126,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1890,319 +2292,419 @@
         <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="8">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="80" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="106" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="107" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="108" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="77" priority="91" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="113" priority="109" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="92" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="112" priority="110" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="93" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="111" priority="111" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="74" priority="94" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="110" priority="112" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="95" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="109" priority="113" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="96" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="108" priority="114" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="71" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="97" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="98" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="99" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="68" priority="82" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="104" priority="100" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="83" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="103" priority="101" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="84" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="102" priority="102" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="65" priority="85" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="101" priority="103" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="86" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="100" priority="104" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="87" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="99" priority="105" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="62" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="88" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="89" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="90" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="59" priority="73" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="95" priority="91" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="74" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="94" priority="92" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="75" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="93" priority="93" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="56" priority="76" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="92" priority="94" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="77" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="91" priority="95" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="78" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="90" priority="96" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="53" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="79" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="80" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="81" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="containsText" dxfId="50" priority="55" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="86" priority="73" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="56" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="85" priority="74" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="57" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="84" priority="75" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="containsText" dxfId="47" priority="58" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="83" priority="76" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="59" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="82" priority="77" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="60" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="81" priority="78" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="44" priority="40" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="80" priority="58" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="41" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="79" priority="59" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="42" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="78" priority="60" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="41" priority="43" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="77" priority="61" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="44" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="76" priority="62" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="45" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="75" priority="63" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="38" priority="34" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="74" priority="52" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="35" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="73" priority="53" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="36" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="72" priority="54" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="35" priority="37" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="71" priority="55" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="38" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="70" priority="56" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="39" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="69" priority="57" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="32" priority="28" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="68" priority="46" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="67" priority="47" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="66" priority="48" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="65" priority="49" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="32" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="64" priority="50" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="33" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="63" priority="51" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="26" priority="22" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="62" priority="40" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="23" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="61" priority="41" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="24" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="60" priority="42" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="23" priority="25" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="59" priority="43" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="26" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="58" priority="44" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="27" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="57" priority="45" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="20" priority="16" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="56" priority="34" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="55" priority="35" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="54" priority="36" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="53" priority="37" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="52" priority="38" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="21" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="51" priority="39" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="31" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="32" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="33" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="28" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="29" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="30" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="25" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="26" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="27" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="22" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="23" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="24" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="19" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="20" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="21" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="cellIs" dxfId="35" priority="16" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="17" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="18" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="containsText" dxfId="29" priority="10" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="11" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="12" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="containsText" dxfId="23" priority="13" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="14" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="15" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C10">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C12">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E12">
       <formula1>"High,Low"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sibaram\git\einstein-code-version-2-pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView activeTab="1" tabRatio="500" windowHeight="8190" windowWidth="16380" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Modules" sheetId="1" r:id="rId1"/>
-    <sheet name="TestCases" sheetId="10" r:id="rId2"/>
-    <sheet name="Users" sheetId="3" r:id="rId3"/>
+    <sheet name="Modules" r:id="rId1" sheetId="1"/>
+    <sheet name="TestCases" r:id="rId2" sheetId="10"/>
+    <sheet name="Users" r:id="rId3" sheetId="3"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="50">
   <si>
     <t>Module_Name</t>
   </si>
@@ -163,16 +163,29 @@
     <t>User99341</t>
   </si>
   <si>
-    <t>ToggleTc005_VerifyTheToggleButtonAndFunctionalityOfToggleButtonOnInstitutionPageRecord</t>
-  </si>
-  <si>
     <t>ToggleTc006_CreateNewCustomSDG</t>
+  </si>
+  <si>
+    <t>ToggleTc004_VerifyTheToggleButtonAndFunctionalityOfToggleButtonOnInstitutionPageRecord</t>
+  </si>
+  <si>
+    <t>ToggleTc005_VerifyTheRetainAndDefaultSelectionOfToggleButton</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail: The following asserts failed:
+	Able to Enter Value : Custom SDG to label : SDG Name (Toggle.java:639)	Screenshot Name: ToggleTc006_CreateNewCustomSDG2020_12_17_06_53_48.png	 did not expect to find [true] but found [false],
+	Able to Enter Value : Custom SDG to label : SDG Tag (Toggle.java:639)	Screenshot Name: ToggleTc006_CreateNewCustomSDG2020_12_17_06_53_50.png	 did not expect to find [true] but found [false],
+	Able to Enter Value : navpeII__Pipeline__c to label : sObjectName (Toggle.java:639)	Screenshot Name: ToggleTc006_CreateNewCustomSDG2020_12_17_06_53_53.png	 did not expect to find [true] but found [false]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -339,54 +352,54 @@
     </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyBorder="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyBorder="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="3" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="6" fillId="3" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
     <cellStyle name="Hyperlink 2" xfId="2"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="3"/>
   </cellStyles>
-  <dxfs count="121">
+  <dxfs count="112">
     <dxf>
       <font>
         <b/>
@@ -460,6 +473,33 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -559,6 +599,78 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -586,6 +698,141 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -730,6 +977,294 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -757,6 +1292,78 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -784,6 +1391,78 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -811,6 +1490,78 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -840,843 +1591,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFABAB"/>
         </patternFill>
       </fill>
@@ -1703,7 +1617,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1788,10 +1702,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1826,7 +1740,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1861,7 +1775,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1955,21 +1869,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1986,7 +1900,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2038,29 +1952,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="H1:J4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="8.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="8.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="1025" width="8.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="7" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="10" max="1025" customWidth="true" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="8:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="1" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2068,7 +1982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="2" spans="8:9" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2076,7 +1990,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="3" spans="8:9" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H3" s="2" t="s">
         <v>30</v>
       </c>
@@ -2084,7 +1998,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="4" spans="8:9" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H4" s="2" t="s">
         <v>31</v>
       </c>
@@ -2094,54 +2008,54 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2:I3">
-    <cfRule type="cellIs" dxfId="120" priority="6" operator="equal">
+    <cfRule dxfId="111" operator="equal" priority="6" type="cellIs">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I3">
-    <cfRule type="cellIs" dxfId="119" priority="7" operator="equal">
+    <cfRule dxfId="110" operator="equal" priority="7" type="cellIs">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="118" priority="1" operator="equal">
+    <cfRule dxfId="109" operator="equal" priority="1" type="cellIs">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="117" priority="2" operator="equal">
+    <cfRule dxfId="108" operator="equal" priority="2" type="cellIs">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2:I4">
+    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="I2:I4" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="87.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="18" r="1" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2158,7 +2072,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="2" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
@@ -2173,7 +2087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="3" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>38</v>
       </c>
@@ -2188,7 +2102,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="4" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>39</v>
       </c>
@@ -2203,7 +2117,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="5" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>40</v>
       </c>
@@ -2218,7 +2132,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="6" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>41</v>
       </c>
@@ -2233,7 +2147,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="7" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>32</v>
       </c>
@@ -2250,7 +2164,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="8" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>33</v>
       </c>
@@ -2267,7 +2181,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="9" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>34</v>
       </c>
@@ -2284,7 +2198,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="10" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>35</v>
       </c>
@@ -2301,9 +2215,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="11" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11" s="8">
         <v>1</v>
@@ -2318,9 +2232,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="12" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B12" s="8">
         <v>1</v>
@@ -2332,405 +2246,455 @@
         <v>9</v>
       </c>
       <c r="E12" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="13" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="8">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="116" priority="106" operator="equal">
+    <cfRule dxfId="107" operator="equal" priority="115" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="107" operator="equal">
+    <cfRule dxfId="106" operator="equal" priority="116" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="108" operator="equal">
+    <cfRule dxfId="105" operator="equal" priority="117" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="113" priority="109" operator="containsText" text="Skip:">
+    <cfRule dxfId="104" operator="containsText" priority="118" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="110" operator="containsText" text="Fail">
+    <cfRule dxfId="103" operator="containsText" priority="119" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="111" operator="containsText" text="Pass">
+    <cfRule dxfId="102" operator="containsText" priority="120" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="110" priority="112" operator="containsText" text="Skip:">
+    <cfRule dxfId="101" operator="containsText" priority="121" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="113" operator="containsText" text="Fail">
+    <cfRule dxfId="100" operator="containsText" priority="122" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="114" operator="containsText" text="Pass">
+    <cfRule dxfId="99" operator="containsText" priority="123" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="107" priority="97" operator="equal">
+    <cfRule dxfId="98" operator="equal" priority="106" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="98" operator="equal">
+    <cfRule dxfId="97" operator="equal" priority="107" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="99" operator="equal">
+    <cfRule dxfId="96" operator="equal" priority="108" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="104" priority="100" operator="containsText" text="Skip:">
+    <cfRule dxfId="95" operator="containsText" priority="109" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="101" operator="containsText" text="Fail">
+    <cfRule dxfId="94" operator="containsText" priority="110" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="102" operator="containsText" text="Pass">
+    <cfRule dxfId="93" operator="containsText" priority="111" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="101" priority="103" operator="containsText" text="Skip:">
+    <cfRule dxfId="92" operator="containsText" priority="112" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="104" operator="containsText" text="Fail">
+    <cfRule dxfId="91" operator="containsText" priority="113" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="105" operator="containsText" text="Pass">
+    <cfRule dxfId="90" operator="containsText" priority="114" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="98" priority="88" operator="equal">
+    <cfRule dxfId="89" operator="equal" priority="97" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="89" operator="equal">
+    <cfRule dxfId="88" operator="equal" priority="98" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="90" operator="equal">
+    <cfRule dxfId="87" operator="equal" priority="99" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="95" priority="91" operator="containsText" text="Skip:">
+    <cfRule dxfId="86" operator="containsText" priority="100" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="92" operator="containsText" text="Fail">
+    <cfRule dxfId="85" operator="containsText" priority="101" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="93" operator="containsText" text="Pass">
+    <cfRule dxfId="84" operator="containsText" priority="102" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="92" priority="94" operator="containsText" text="Skip:">
+    <cfRule dxfId="83" operator="containsText" priority="103" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="95" operator="containsText" text="Fail">
+    <cfRule dxfId="82" operator="containsText" priority="104" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="96" operator="containsText" text="Pass">
+    <cfRule dxfId="81" operator="containsText" priority="105" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="89" priority="79" operator="equal">
+    <cfRule dxfId="80" operator="equal" priority="88" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="80" operator="equal">
+    <cfRule dxfId="79" operator="equal" priority="89" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="81" operator="equal">
+    <cfRule dxfId="78" operator="equal" priority="90" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="containsText" dxfId="86" priority="73" operator="containsText" text="Skip:">
+    <cfRule dxfId="77" operator="containsText" priority="82" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="74" operator="containsText" text="Fail">
+    <cfRule dxfId="76" operator="containsText" priority="83" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="75" operator="containsText" text="Pass">
+    <cfRule dxfId="75" operator="containsText" priority="84" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="containsText" dxfId="83" priority="76" operator="containsText" text="Skip:">
+    <cfRule dxfId="74" operator="containsText" priority="85" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="77" operator="containsText" text="Fail">
+    <cfRule dxfId="73" operator="containsText" priority="86" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="78" operator="containsText" text="Pass">
+    <cfRule dxfId="72" operator="containsText" priority="87" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="80" priority="58" operator="containsText" text="Skip:">
+    <cfRule dxfId="71" operator="containsText" priority="67" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="59" operator="containsText" text="Fail">
+    <cfRule dxfId="70" operator="containsText" priority="68" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="60" operator="containsText" text="Pass">
+    <cfRule dxfId="69" operator="containsText" priority="69" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="77" priority="61" operator="containsText" text="Skip:">
+    <cfRule dxfId="68" operator="containsText" priority="70" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="62" operator="containsText" text="Fail">
+    <cfRule dxfId="67" operator="containsText" priority="71" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="63" operator="containsText" text="Pass">
+    <cfRule dxfId="66" operator="containsText" priority="72" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="74" priority="52" operator="containsText" text="Skip:">
+    <cfRule dxfId="65" operator="containsText" priority="61" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="53" operator="containsText" text="Fail">
+    <cfRule dxfId="64" operator="containsText" priority="62" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="54" operator="containsText" text="Pass">
+    <cfRule dxfId="63" operator="containsText" priority="63" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="71" priority="55" operator="containsText" text="Skip:">
+    <cfRule dxfId="62" operator="containsText" priority="64" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="56" operator="containsText" text="Fail">
+    <cfRule dxfId="61" operator="containsText" priority="65" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="57" operator="containsText" text="Pass">
+    <cfRule dxfId="60" operator="containsText" priority="66" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="68" priority="46" operator="containsText" text="Skip:">
+    <cfRule dxfId="59" operator="containsText" priority="55" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="47" operator="containsText" text="Fail">
+    <cfRule dxfId="58" operator="containsText" priority="56" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="48" operator="containsText" text="Pass">
+    <cfRule dxfId="57" operator="containsText" priority="57" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="65" priority="49" operator="containsText" text="Skip:">
+    <cfRule dxfId="56" operator="containsText" priority="58" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="50" operator="containsText" text="Fail">
+    <cfRule dxfId="55" operator="containsText" priority="59" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="51" operator="containsText" text="Pass">
+    <cfRule dxfId="54" operator="containsText" priority="60" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="62" priority="40" operator="containsText" text="Skip:">
+    <cfRule dxfId="53" operator="containsText" priority="49" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="41" operator="containsText" text="Fail">
+    <cfRule dxfId="52" operator="containsText" priority="50" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="42" operator="containsText" text="Pass">
+    <cfRule dxfId="51" operator="containsText" priority="51" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="59" priority="43" operator="containsText" text="Skip:">
+    <cfRule dxfId="50" operator="containsText" priority="52" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="44" operator="containsText" text="Fail">
+    <cfRule dxfId="49" operator="containsText" priority="53" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="45" operator="containsText" text="Pass">
+    <cfRule dxfId="48" operator="containsText" priority="54" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="56" priority="34" operator="containsText" text="Skip:">
+    <cfRule dxfId="47" operator="containsText" priority="43" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="35" operator="containsText" text="Fail">
+    <cfRule dxfId="46" operator="containsText" priority="44" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="36" operator="containsText" text="Pass">
+    <cfRule dxfId="45" operator="containsText" priority="45" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="53" priority="37" operator="containsText" text="Skip:">
+    <cfRule dxfId="44" operator="containsText" priority="46" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="38" operator="containsText" text="Fail">
+    <cfRule dxfId="43" operator="containsText" priority="47" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="39" operator="containsText" text="Pass">
+    <cfRule dxfId="42" operator="containsText" priority="48" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" dxfId="50" priority="31" operator="equal">
+    <cfRule dxfId="41" operator="equal" priority="40" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="32" operator="equal">
+    <cfRule dxfId="40" operator="equal" priority="41" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="33" operator="equal">
+    <cfRule dxfId="39" operator="equal" priority="42" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="47" priority="28" operator="equal">
+    <cfRule dxfId="38" operator="equal" priority="37" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="29" operator="equal">
+    <cfRule dxfId="37" operator="equal" priority="38" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="30" operator="equal">
+    <cfRule dxfId="36" operator="equal" priority="39" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="44" priority="25" operator="equal">
+    <cfRule dxfId="35" operator="equal" priority="34" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="26" operator="equal">
+    <cfRule dxfId="34" operator="equal" priority="35" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="27" operator="equal">
+    <cfRule dxfId="33" operator="equal" priority="36" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="41" priority="22" operator="equal">
+    <cfRule dxfId="32" operator="equal" priority="31" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="23" operator="equal">
+    <cfRule dxfId="31" operator="equal" priority="32" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="24" operator="equal">
+    <cfRule dxfId="30" operator="equal" priority="33" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="38" priority="19" operator="equal">
+    <cfRule dxfId="29" operator="equal" priority="28" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="20" operator="equal">
+    <cfRule dxfId="28" operator="equal" priority="29" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="21" operator="equal">
+    <cfRule dxfId="27" operator="equal" priority="30" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="35" priority="16" operator="equal">
+    <cfRule dxfId="26" operator="equal" priority="25" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="17" operator="equal">
+    <cfRule dxfId="25" operator="equal" priority="26" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="18" operator="equal">
+    <cfRule dxfId="24" operator="equal" priority="27" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="containsText" dxfId="29" priority="10" operator="containsText" text="Skip:">
+    <cfRule dxfId="23" operator="containsText" priority="19" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="11" operator="containsText" text="Fail">
+    <cfRule dxfId="22" operator="containsText" priority="20" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="12" operator="containsText" text="Pass">
+    <cfRule dxfId="21" operator="containsText" priority="21" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="containsText" dxfId="23" priority="13" operator="containsText" text="Skip:">
+    <cfRule dxfId="20" operator="containsText" priority="22" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="14" operator="containsText" text="Fail">
+    <cfRule dxfId="19" operator="containsText" priority="23" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="15" operator="containsText" text="Pass">
+    <cfRule dxfId="18" operator="containsText" priority="24" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
+    <cfRule dxfId="17" operator="equal" priority="16" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
+    <cfRule dxfId="16" operator="equal" priority="17" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
+    <cfRule dxfId="15" operator="equal" priority="18" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Skip:">
+    <cfRule dxfId="14" operator="containsText" priority="10" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="Fail">
+    <cfRule dxfId="13" operator="containsText" priority="11" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Pass">
+    <cfRule dxfId="12" operator="containsText" priority="12" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Skip:">
+    <cfRule dxfId="11" operator="containsText" priority="13" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Fail">
+    <cfRule dxfId="10" operator="containsText" priority="14" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Pass">
+    <cfRule dxfId="9" operator="containsText" priority="15" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D12)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule dxfId="8" operator="equal" priority="7" type="cellIs">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule dxfId="7" operator="equal" priority="8" type="cellIs">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule dxfId="6" operator="equal" priority="9" type="cellIs">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule dxfId="5" operator="containsText" priority="1" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D13)))</formula>
+    </cfRule>
+    <cfRule dxfId="4" operator="containsText" priority="2" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D13)))</formula>
+    </cfRule>
+    <cfRule dxfId="3" operator="containsText" priority="3" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule dxfId="2" operator="containsText" priority="4" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D13)))</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="containsText" priority="5" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D13)))</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="containsText" priority="6" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C12">
+    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="C2:C13" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E12">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="E2:E13" type="list">
       <formula1>"High,Low"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
+    <dataValidation showDropDown="1" showErrorMessage="1" showInputMessage="1" sqref="C1">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="D3" pane="bottomLeft" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="19" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="37.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="1025" width="19" customWidth="1" collapsed="1"/>
+    <col min="1" max="4" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="37.42578125" collapsed="true"/>
+    <col min="6" max="1025" customWidth="true" width="19.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2813,9 +2777,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="E3"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sibaram\git\einstein-code-version-2-pe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akul Bhutani\git\einstein-code-version-2-pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="8190" windowWidth="16380" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Modules" r:id="rId1" sheetId="1"/>
-    <sheet name="TestCases" r:id="rId2" sheetId="10"/>
-    <sheet name="Users" r:id="rId3" sheetId="3"/>
+    <sheet name="Modules" sheetId="1" r:id="rId1"/>
+    <sheet name="TestCases" sheetId="10" r:id="rId2"/>
+    <sheet name="Users" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="55">
   <si>
     <t>Module_Name</t>
   </si>
@@ -170,22 +170,36 @@
   </si>
   <si>
     <t>ToggleTc005_VerifyTheRetainAndDefaultSelectionOfToggleButton</t>
-  </si>
-  <si>
-    <t>Pass</t>
   </si>
   <si>
     <t>Fail: The following asserts failed:
 	Able to Enter Value : Custom SDG to label : SDG Name (Toggle.java:639)	Screenshot Name: ToggleTc006_CreateNewCustomSDG2020_12_17_06_53_48.png	 did not expect to find [true] but found [false],
 	Able to Enter Value : Custom SDG to label : SDG Tag (Toggle.java:639)	Screenshot Name: ToggleTc006_CreateNewCustomSDG2020_12_17_06_53_50.png	 did not expect to find [true] but found [false],
 	Able to Enter Value : navpeII__Pipeline__c to label : sObjectName (Toggle.java:639)	Screenshot Name: ToggleTc006_CreateNewCustomSDG2020_12_17_06_53_53.png	 did not expect to find [true] but found [false]</t>
+  </si>
+  <si>
+    <t>TWtc005_AddUnderEvalContactAndVerifyImpact</t>
+  </si>
+  <si>
+    <t>TWtc006_AddWatchlistContactAndVerifyImpact</t>
+  </si>
+  <si>
+    <t>TWtc007_AddUnderEvalContactAndVerifyImpact</t>
+  </si>
+  <si>
+    <t>TWtc008_AddMultipleWatchlistContactAndVerifyImpact</t>
+  </si>
+  <si>
+    <t>TWtc009_AddMultipleWatchlistContactAndVerifyImpact</t>
+  </si>
+  <si>
+    <t>TWtc010_RemoveContactFromWatchlistContactAndVerifyImpact</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -352,54 +366,54 @@
     </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyBorder="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyBorder="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="3" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="6" fillId="3" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="2"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3"/>
   </cellStyles>
-  <dxfs count="112">
+  <dxfs count="133">
     <dxf>
       <font>
         <b/>
@@ -437,6 +451,60 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -473,6 +541,186 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -1617,7 +1865,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1702,10 +1950,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1740,7 +1988,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1775,7 +2023,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1869,21 +2117,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1900,7 +2148,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1952,29 +2200,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="H1:J4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="8.5703125" collapsed="true"/>
-    <col min="10" max="1025" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="1" max="7" width="8.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="8.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="1025" width="8.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15.75" r="1" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="8:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1982,7 +2230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row ht="15.75" r="2" spans="8:9" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1990,7 +2238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row ht="15.75" r="3" spans="8:9" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H3" s="2" t="s">
         <v>30</v>
       </c>
@@ -1998,7 +2246,7 @@
         <v>8</v>
       </c>
     </row>
-    <row ht="15.75" r="4" spans="8:9" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H4" s="2" t="s">
         <v>31</v>
       </c>
@@ -2008,54 +2256,54 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2:I3">
-    <cfRule dxfId="111" operator="equal" priority="6" type="cellIs">
+    <cfRule type="cellIs" dxfId="132" priority="6" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I3">
-    <cfRule dxfId="110" operator="equal" priority="7" type="cellIs">
+    <cfRule type="cellIs" dxfId="131" priority="7" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule dxfId="109" operator="equal" priority="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="130" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule dxfId="108" operator="equal" priority="2" type="cellIs">
+    <cfRule type="cellIs" dxfId="129" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="I2:I4" type="list">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2:I4">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="87.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" width="87.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="18" r="1" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2072,7 +2320,7 @@
         <v>7</v>
       </c>
     </row>
-    <row ht="15.75" r="2" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
@@ -2087,7 +2335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row ht="15.75" r="3" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>38</v>
       </c>
@@ -2102,7 +2350,7 @@
         <v>10</v>
       </c>
     </row>
-    <row ht="15.75" r="4" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>39</v>
       </c>
@@ -2117,7 +2365,7 @@
         <v>10</v>
       </c>
     </row>
-    <row ht="15.75" r="5" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>40</v>
       </c>
@@ -2132,7 +2380,7 @@
         <v>10</v>
       </c>
     </row>
-    <row ht="15.75" r="6" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>41</v>
       </c>
@@ -2147,13 +2395,11 @@
         <v>10</v>
       </c>
     </row>
-    <row ht="15.75" r="7" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="8">
-        <v>1</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B7" s="8"/>
       <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
@@ -2164,13 +2410,11 @@
         <v>10</v>
       </c>
     </row>
-    <row ht="15.75" r="8" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="8">
-        <v>1</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B8" s="8"/>
       <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
@@ -2181,13 +2425,11 @@
         <v>10</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="9" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="8">
-        <v>1</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B9" s="8"/>
       <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
@@ -2198,13 +2440,11 @@
         <v>10</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="10" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="8">
-        <v>1</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B10" s="8"/>
       <c r="C10" s="3" t="s">
         <v>8</v>
       </c>
@@ -2215,13 +2455,11 @@
         <v>10</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="11" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="8">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B11" s="8"/>
       <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
@@ -2232,13 +2470,11 @@
         <v>10</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="12" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="8">
-        <v>1</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B12" s="8"/>
       <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
@@ -2249,452 +2485,587 @@
         <v>10</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="13" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B13" s="8">
         <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>10</v>
       </c>
     </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="8">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="8">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="8">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="8">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="8">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="8">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="E7">
-    <cfRule dxfId="107" operator="equal" priority="115" type="cellIs">
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="128" priority="124" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule dxfId="106" operator="equal" priority="116" type="cellIs">
+    <cfRule type="cellIs" dxfId="127" priority="125" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule dxfId="105" operator="equal" priority="117" type="cellIs">
+    <cfRule type="cellIs" dxfId="126" priority="126" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule dxfId="104" operator="containsText" priority="118" text="Skip:" type="containsText">
+  <conditionalFormatting sqref="D13">
+    <cfRule type="containsText" dxfId="125" priority="127" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="124" priority="128" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="123" priority="129" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="containsText" dxfId="122" priority="130" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="121" priority="131" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="120" priority="132" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="cellIs" dxfId="119" priority="115" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="116" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="117" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="containsText" dxfId="116" priority="118" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="115" priority="119" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="114" priority="120" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="containsText" dxfId="113" priority="121" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="112" priority="122" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="111" priority="123" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="cellIs" dxfId="110" priority="106" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="107" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="108" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="containsText" dxfId="107" priority="109" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="106" priority="110" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="105" priority="111" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="containsText" dxfId="104" priority="112" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="103" priority="113" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="102" priority="114" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="101" priority="97" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="98" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="99" priority="99" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="containsText" dxfId="98" priority="91" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="97" priority="92" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="96" priority="93" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="containsText" dxfId="95" priority="94" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="94" priority="95" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="93" priority="96" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="containsText" dxfId="92" priority="76" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="91" priority="77" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="90" priority="78" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="containsText" dxfId="89" priority="79" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="88" priority="80" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="87" priority="81" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="containsText" dxfId="86" priority="70" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="85" priority="71" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="84" priority="72" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="containsText" dxfId="83" priority="73" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="82" priority="74" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="81" priority="75" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="80" priority="64" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="79" priority="65" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="78" priority="66" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="77" priority="67" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="76" priority="68" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="75" priority="69" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="74" priority="58" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="73" priority="59" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="72" priority="60" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="71" priority="61" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="70" priority="62" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="69" priority="63" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="containsText" dxfId="68" priority="52" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="67" priority="53" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="66" priority="54" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="containsText" dxfId="65" priority="55" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="64" priority="56" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="63" priority="57" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="cellIs" dxfId="62" priority="49" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="50" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="51" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="59" priority="46" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="47" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="48" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="cellIs" dxfId="56" priority="43" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="44" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="45" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="53" priority="40" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="41" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="42" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="50" priority="37" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="38" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="39" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="cellIs" dxfId="47" priority="34" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="35" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="36" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="containsText" dxfId="44" priority="28" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="43" priority="29" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="30" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="containsText" dxfId="41" priority="31" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="32" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="39" priority="33" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="cellIs" dxfId="38" priority="25" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="26" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="27" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="containsText" dxfId="35" priority="19" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="20" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="21" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="containsText" dxfId="32" priority="22" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="23" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="24" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="cellIs" dxfId="29" priority="16" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="17" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="18" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="containsText" dxfId="26" priority="10" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="11" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="12" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="containsText" dxfId="23" priority="13" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="14" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="15" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:D12">
+    <cfRule type="containsText" dxfId="20" priority="4" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
     </cfRule>
-    <cfRule dxfId="103" operator="containsText" priority="119" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
     </cfRule>
-    <cfRule dxfId="102" operator="containsText" priority="120" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="18" priority="6" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule dxfId="101" operator="containsText" priority="121" text="Skip:" type="containsText">
+  <conditionalFormatting sqref="D7:D12">
+    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
     </cfRule>
-    <cfRule dxfId="100" operator="containsText" priority="122" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="13" priority="8" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
     </cfRule>
-    <cfRule dxfId="99" operator="containsText" priority="123" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule dxfId="98" operator="equal" priority="106" type="cellIs">
+  <conditionalFormatting sqref="E7:E12">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule dxfId="97" operator="equal" priority="107" type="cellIs">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule dxfId="96" operator="equal" priority="108" type="cellIs">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule dxfId="95" operator="containsText" priority="109" text="Skip:" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
-    </cfRule>
-    <cfRule dxfId="94" operator="containsText" priority="110" text="Fail" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
-    </cfRule>
-    <cfRule dxfId="93" operator="containsText" priority="111" text="Pass" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule dxfId="92" operator="containsText" priority="112" text="Skip:" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
-    </cfRule>
-    <cfRule dxfId="91" operator="containsText" priority="113" text="Fail" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
-    </cfRule>
-    <cfRule dxfId="90" operator="containsText" priority="114" text="Pass" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule dxfId="89" operator="equal" priority="97" type="cellIs">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule dxfId="88" operator="equal" priority="98" type="cellIs">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule dxfId="87" operator="equal" priority="99" type="cellIs">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule dxfId="86" operator="containsText" priority="100" text="Skip:" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D9)))</formula>
-    </cfRule>
-    <cfRule dxfId="85" operator="containsText" priority="101" text="Fail" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("Fail",D9)))</formula>
-    </cfRule>
-    <cfRule dxfId="84" operator="containsText" priority="102" text="Pass" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("Pass",D9)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule dxfId="83" operator="containsText" priority="103" text="Skip:" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D9)))</formula>
-    </cfRule>
-    <cfRule dxfId="82" operator="containsText" priority="104" text="Fail" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("Fail",D9)))</formula>
-    </cfRule>
-    <cfRule dxfId="81" operator="containsText" priority="105" text="Pass" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("Pass",D9)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule dxfId="80" operator="equal" priority="88" type="cellIs">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule dxfId="79" operator="equal" priority="89" type="cellIs">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule dxfId="78" operator="equal" priority="90" type="cellIs">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule dxfId="77" operator="containsText" priority="82" text="Skip:" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D10)))</formula>
-    </cfRule>
-    <cfRule dxfId="76" operator="containsText" priority="83" text="Fail" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("Fail",D10)))</formula>
-    </cfRule>
-    <cfRule dxfId="75" operator="containsText" priority="84" text="Pass" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("Pass",D10)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule dxfId="74" operator="containsText" priority="85" text="Skip:" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D10)))</formula>
-    </cfRule>
-    <cfRule dxfId="73" operator="containsText" priority="86" text="Fail" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("Fail",D10)))</formula>
-    </cfRule>
-    <cfRule dxfId="72" operator="containsText" priority="87" text="Pass" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("Pass",D10)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2">
-    <cfRule dxfId="71" operator="containsText" priority="67" text="Skip:" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
-    </cfRule>
-    <cfRule dxfId="70" operator="containsText" priority="68" text="Fail" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
-    </cfRule>
-    <cfRule dxfId="69" operator="containsText" priority="69" text="Pass" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2">
-    <cfRule dxfId="68" operator="containsText" priority="70" text="Skip:" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
-    </cfRule>
-    <cfRule dxfId="67" operator="containsText" priority="71" text="Fail" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
-    </cfRule>
-    <cfRule dxfId="66" operator="containsText" priority="72" text="Pass" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule dxfId="65" operator="containsText" priority="61" text="Skip:" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
-    </cfRule>
-    <cfRule dxfId="64" operator="containsText" priority="62" text="Fail" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
-    </cfRule>
-    <cfRule dxfId="63" operator="containsText" priority="63" text="Pass" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule dxfId="62" operator="containsText" priority="64" text="Skip:" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
-    </cfRule>
-    <cfRule dxfId="61" operator="containsText" priority="65" text="Fail" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
-    </cfRule>
-    <cfRule dxfId="60" operator="containsText" priority="66" text="Pass" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule dxfId="59" operator="containsText" priority="55" text="Skip:" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
-    </cfRule>
-    <cfRule dxfId="58" operator="containsText" priority="56" text="Fail" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
-    </cfRule>
-    <cfRule dxfId="57" operator="containsText" priority="57" text="Pass" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule dxfId="56" operator="containsText" priority="58" text="Skip:" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
-    </cfRule>
-    <cfRule dxfId="55" operator="containsText" priority="59" text="Fail" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
-    </cfRule>
-    <cfRule dxfId="54" operator="containsText" priority="60" text="Pass" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule dxfId="53" operator="containsText" priority="49" text="Skip:" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
-    </cfRule>
-    <cfRule dxfId="52" operator="containsText" priority="50" text="Fail" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
-    </cfRule>
-    <cfRule dxfId="51" operator="containsText" priority="51" text="Pass" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule dxfId="50" operator="containsText" priority="52" text="Skip:" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
-    </cfRule>
-    <cfRule dxfId="49" operator="containsText" priority="53" text="Fail" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
-    </cfRule>
-    <cfRule dxfId="48" operator="containsText" priority="54" text="Pass" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule dxfId="47" operator="containsText" priority="43" text="Skip:" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
-    </cfRule>
-    <cfRule dxfId="46" operator="containsText" priority="44" text="Fail" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
-    </cfRule>
-    <cfRule dxfId="45" operator="containsText" priority="45" text="Pass" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule dxfId="44" operator="containsText" priority="46" text="Skip:" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
-    </cfRule>
-    <cfRule dxfId="43" operator="containsText" priority="47" text="Fail" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
-    </cfRule>
-    <cfRule dxfId="42" operator="containsText" priority="48" text="Pass" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
-    <cfRule dxfId="41" operator="equal" priority="40" type="cellIs">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule dxfId="40" operator="equal" priority="41" type="cellIs">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule dxfId="39" operator="equal" priority="42" type="cellIs">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule dxfId="38" operator="equal" priority="37" type="cellIs">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule dxfId="37" operator="equal" priority="38" type="cellIs">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule dxfId="36" operator="equal" priority="39" type="cellIs">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule dxfId="35" operator="equal" priority="34" type="cellIs">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule dxfId="34" operator="equal" priority="35" type="cellIs">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule dxfId="33" operator="equal" priority="36" type="cellIs">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule dxfId="32" operator="equal" priority="31" type="cellIs">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule dxfId="31" operator="equal" priority="32" type="cellIs">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule dxfId="30" operator="equal" priority="33" type="cellIs">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule dxfId="29" operator="equal" priority="28" type="cellIs">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule dxfId="28" operator="equal" priority="29" type="cellIs">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule dxfId="27" operator="equal" priority="30" type="cellIs">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
-    <cfRule dxfId="26" operator="equal" priority="25" type="cellIs">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule dxfId="25" operator="equal" priority="26" type="cellIs">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule dxfId="24" operator="equal" priority="27" type="cellIs">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule dxfId="23" operator="containsText" priority="19" text="Skip:" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D11)))</formula>
-    </cfRule>
-    <cfRule dxfId="22" operator="containsText" priority="20" text="Fail" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("Fail",D11)))</formula>
-    </cfRule>
-    <cfRule dxfId="21" operator="containsText" priority="21" text="Pass" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("Pass",D11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule dxfId="20" operator="containsText" priority="22" text="Skip:" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D11)))</formula>
-    </cfRule>
-    <cfRule dxfId="19" operator="containsText" priority="23" text="Fail" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("Fail",D11)))</formula>
-    </cfRule>
-    <cfRule dxfId="18" operator="containsText" priority="24" text="Pass" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("Pass",D11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule dxfId="17" operator="equal" priority="16" type="cellIs">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule dxfId="16" operator="equal" priority="17" type="cellIs">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule dxfId="15" operator="equal" priority="18" type="cellIs">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule dxfId="14" operator="containsText" priority="10" text="Skip:" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D12)))</formula>
-    </cfRule>
-    <cfRule dxfId="13" operator="containsText" priority="11" text="Fail" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("Fail",D12)))</formula>
-    </cfRule>
-    <cfRule dxfId="12" operator="containsText" priority="12" text="Pass" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("Pass",D12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule dxfId="11" operator="containsText" priority="13" text="Skip:" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D12)))</formula>
-    </cfRule>
-    <cfRule dxfId="10" operator="containsText" priority="14" text="Fail" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("Fail",D12)))</formula>
-    </cfRule>
-    <cfRule dxfId="9" operator="containsText" priority="15" text="Pass" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("Pass",D12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule dxfId="8" operator="equal" priority="7" type="cellIs">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule dxfId="7" operator="equal" priority="8" type="cellIs">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule dxfId="6" operator="equal" priority="9" type="cellIs">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule dxfId="5" operator="containsText" priority="1" text="Skip:" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D13)))</formula>
-    </cfRule>
-    <cfRule dxfId="4" operator="containsText" priority="2" text="Fail" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("Fail",D13)))</formula>
-    </cfRule>
-    <cfRule dxfId="3" operator="containsText" priority="3" text="Pass" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("Pass",D13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule dxfId="2" operator="containsText" priority="4" text="Skip:" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D13)))</formula>
-    </cfRule>
-    <cfRule dxfId="1" operator="containsText" priority="5" text="Fail" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("Fail",D13)))</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="containsText" priority="6" text="Pass" type="containsText">
-      <formula>NOT(ISERROR(SEARCH("Pass",D13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="C2:C13" type="list">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C19">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="E2:E13" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E19">
       <formula1>"High,Low"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation showDropDown="1" showErrorMessage="1" showInputMessage="1" sqref="C1">
+    <dataValidation showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="D3" pane="bottomLeft" sqref="D3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="37.42578125" collapsed="true"/>
-    <col min="6" max="1025" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="1" max="4" width="19" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="37.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="1025" width="19" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2777,9 +3148,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="E3"/>
+    <hyperlink ref="E3" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sibaram\git\einstein-code-version-2-pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="8190" windowWidth="16380" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Modules" r:id="rId1" sheetId="1"/>
-    <sheet name="TestCases" r:id="rId2" sheetId="10"/>
-    <sheet name="Users" r:id="rId3" sheetId="3"/>
+    <sheet name="Modules" sheetId="1" r:id="rId1"/>
+    <sheet name="TestCases" sheetId="10" r:id="rId2"/>
+    <sheet name="Users" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="51">
   <si>
     <t>Module_Name</t>
   </si>
@@ -172,20 +172,21 @@
     <t>ToggleTc005_VerifyTheRetainAndDefaultSelectionOfToggleButton</t>
   </si>
   <si>
-    <t>Pass</t>
+    <t>ToggleTc007_VerifyToAddNewToggleButtonWithMaxAndSpecialCharacter</t>
+  </si>
+  <si>
+    <t>ToggleTc008_CreateNewToggleButtonAsADefaultButton</t>
   </si>
   <si>
     <t>Fail: The following asserts failed:
-	Able to Enter Value : Custom SDG to label : SDG Name (Toggle.java:639)	Screenshot Name: ToggleTc006_CreateNewCustomSDG2020_12_17_06_53_48.png	 did not expect to find [true] but found [false],
-	Able to Enter Value : Custom SDG to label : SDG Tag (Toggle.java:639)	Screenshot Name: ToggleTc006_CreateNewCustomSDG2020_12_17_06_53_50.png	 did not expect to find [true] but found [false],
-	Able to Enter Value : navpeII__Pipeline__c to label : sObjectName (Toggle.java:639)	Screenshot Name: ToggleTc006_CreateNewCustomSDG2020_12_17_06_53_53.png	 did not expect to find [true] but found [false]</t>
+	After Save Active Deals with All Stages !@#$%^&amp;*() @#$%^&amp;*Deals:Custom SDG should be selected  (Toggle.java:871)	Screenshot Name: ToggleTc008_CreateNewToggleButtonAsADefaultButton2020_12_21_03_48_12.png	 did not expect to find [true] but found [false],
+	After Save Active Deals with All Stages !@#$%^&amp;*() @#$%^&amp;*Deals:Custom SDG should be selected  (Toggle.java:900)	Screenshot Name: ToggleTc008_CreateNewToggleButtonAsADefaultButton2020_12_21_03_48_47.png	 did not expect to find [true] but found [false]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -352,54 +353,54 @@
     </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyBorder="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyBorder="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="3" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="6" fillId="3" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="2"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3"/>
   </cellStyles>
-  <dxfs count="112">
+  <dxfs count="130">
     <dxf>
       <font>
         <b/>
@@ -698,6 +699,78 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -725,6 +798,78 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -833,6 +978,60 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1617,7 +1816,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1702,10 +1901,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1740,7 +1939,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1775,7 +1974,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1869,21 +2068,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1900,7 +2099,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1952,29 +2151,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="H1:J4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="8.5703125" collapsed="true"/>
-    <col min="10" max="1025" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="1" max="7" width="8.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="8.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="1025" width="8.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15.75" r="1" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="8:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1982,7 +2181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row ht="15.75" r="2" spans="8:9" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1990,7 +2189,7 @@
         <v>8</v>
       </c>
     </row>
-    <row ht="15.75" r="3" spans="8:9" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H3" s="2" t="s">
         <v>30</v>
       </c>
@@ -1998,7 +2197,7 @@
         <v>8</v>
       </c>
     </row>
-    <row ht="15.75" r="4" spans="8:9" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H4" s="2" t="s">
         <v>31</v>
       </c>
@@ -2008,54 +2207,54 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2:I3">
-    <cfRule dxfId="111" operator="equal" priority="6" type="cellIs">
+    <cfRule type="cellIs" dxfId="129" priority="6" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I3">
-    <cfRule dxfId="110" operator="equal" priority="7" type="cellIs">
+    <cfRule type="cellIs" dxfId="128" priority="7" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule dxfId="109" operator="equal" priority="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="127" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule dxfId="108" operator="equal" priority="2" type="cellIs">
+    <cfRule type="cellIs" dxfId="126" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="I2:I4" type="list">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2:I4">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="87.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" width="87.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="18" r="1" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2072,7 +2271,7 @@
         <v>7</v>
       </c>
     </row>
-    <row ht="15.75" r="2" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
@@ -2087,7 +2286,7 @@
         <v>10</v>
       </c>
     </row>
-    <row ht="15.75" r="3" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>38</v>
       </c>
@@ -2102,7 +2301,7 @@
         <v>10</v>
       </c>
     </row>
-    <row ht="15.75" r="4" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>39</v>
       </c>
@@ -2117,7 +2316,7 @@
         <v>10</v>
       </c>
     </row>
-    <row ht="15.75" r="5" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>40</v>
       </c>
@@ -2132,7 +2331,7 @@
         <v>10</v>
       </c>
     </row>
-    <row ht="15.75" r="6" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>41</v>
       </c>
@@ -2147,7 +2346,7 @@
         <v>10</v>
       </c>
     </row>
-    <row ht="15.75" r="7" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>32</v>
       </c>
@@ -2164,7 +2363,7 @@
         <v>10</v>
       </c>
     </row>
-    <row ht="15.75" r="8" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>33</v>
       </c>
@@ -2181,7 +2380,7 @@
         <v>10</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="9" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>34</v>
       </c>
@@ -2198,7 +2397,7 @@
         <v>10</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="10" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>35</v>
       </c>
@@ -2215,7 +2414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="11" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>46</v>
       </c>
@@ -2232,7 +2431,7 @@
         <v>10</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="12" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>47</v>
       </c>
@@ -2249,7 +2448,7 @@
         <v>10</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="13" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>45</v>
       </c>
@@ -2257,444 +2456,544 @@
         <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="8">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="B15" s="8">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E7">
-    <cfRule dxfId="107" operator="equal" priority="115" type="cellIs">
+    <cfRule type="cellIs" dxfId="125" priority="133" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule dxfId="106" operator="equal" priority="116" type="cellIs">
+    <cfRule type="cellIs" dxfId="124" priority="134" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule dxfId="105" operator="equal" priority="117" type="cellIs">
+    <cfRule type="cellIs" dxfId="123" priority="135" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule dxfId="104" operator="containsText" priority="118" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="122" priority="136" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
     </cfRule>
-    <cfRule dxfId="103" operator="containsText" priority="119" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="121" priority="137" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
     </cfRule>
-    <cfRule dxfId="102" operator="containsText" priority="120" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="120" priority="138" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule dxfId="101" operator="containsText" priority="121" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="119" priority="139" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
     </cfRule>
-    <cfRule dxfId="100" operator="containsText" priority="122" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="118" priority="140" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
     </cfRule>
-    <cfRule dxfId="99" operator="containsText" priority="123" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="117" priority="141" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule dxfId="98" operator="equal" priority="106" type="cellIs">
+    <cfRule type="cellIs" dxfId="116" priority="124" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule dxfId="97" operator="equal" priority="107" type="cellIs">
+    <cfRule type="cellIs" dxfId="115" priority="125" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule dxfId="96" operator="equal" priority="108" type="cellIs">
+    <cfRule type="cellIs" dxfId="114" priority="126" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule dxfId="95" operator="containsText" priority="109" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="113" priority="127" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
     </cfRule>
-    <cfRule dxfId="94" operator="containsText" priority="110" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="112" priority="128" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
     </cfRule>
-    <cfRule dxfId="93" operator="containsText" priority="111" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="111" priority="129" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule dxfId="92" operator="containsText" priority="112" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="110" priority="130" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
     </cfRule>
-    <cfRule dxfId="91" operator="containsText" priority="113" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="109" priority="131" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
     </cfRule>
-    <cfRule dxfId="90" operator="containsText" priority="114" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="108" priority="132" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule dxfId="89" operator="equal" priority="97" type="cellIs">
+    <cfRule type="cellIs" dxfId="107" priority="115" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule dxfId="88" operator="equal" priority="98" type="cellIs">
+    <cfRule type="cellIs" dxfId="106" priority="116" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule dxfId="87" operator="equal" priority="99" type="cellIs">
+    <cfRule type="cellIs" dxfId="105" priority="117" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule dxfId="86" operator="containsText" priority="100" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="104" priority="118" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D9)))</formula>
     </cfRule>
-    <cfRule dxfId="85" operator="containsText" priority="101" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="103" priority="119" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D9)))</formula>
     </cfRule>
-    <cfRule dxfId="84" operator="containsText" priority="102" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="102" priority="120" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule dxfId="83" operator="containsText" priority="103" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="101" priority="121" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D9)))</formula>
     </cfRule>
-    <cfRule dxfId="82" operator="containsText" priority="104" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="100" priority="122" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D9)))</formula>
     </cfRule>
-    <cfRule dxfId="81" operator="containsText" priority="105" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="99" priority="123" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule dxfId="80" operator="equal" priority="88" type="cellIs">
+    <cfRule type="cellIs" dxfId="98" priority="106" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule dxfId="79" operator="equal" priority="89" type="cellIs">
+    <cfRule type="cellIs" dxfId="97" priority="107" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule dxfId="78" operator="equal" priority="90" type="cellIs">
+    <cfRule type="cellIs" dxfId="96" priority="108" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule dxfId="77" operator="containsText" priority="82" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="95" priority="100" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D10)))</formula>
     </cfRule>
-    <cfRule dxfId="76" operator="containsText" priority="83" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="94" priority="101" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D10)))</formula>
     </cfRule>
-    <cfRule dxfId="75" operator="containsText" priority="84" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="93" priority="102" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule dxfId="74" operator="containsText" priority="85" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="92" priority="103" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D10)))</formula>
     </cfRule>
-    <cfRule dxfId="73" operator="containsText" priority="86" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="91" priority="104" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D10)))</formula>
     </cfRule>
-    <cfRule dxfId="72" operator="containsText" priority="87" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="90" priority="105" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule dxfId="71" operator="containsText" priority="67" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="89" priority="85" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
     </cfRule>
-    <cfRule dxfId="70" operator="containsText" priority="68" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="88" priority="86" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
     </cfRule>
-    <cfRule dxfId="69" operator="containsText" priority="69" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="87" priority="87" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule dxfId="68" operator="containsText" priority="70" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="86" priority="88" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
     </cfRule>
-    <cfRule dxfId="67" operator="containsText" priority="71" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="85" priority="89" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
     </cfRule>
-    <cfRule dxfId="66" operator="containsText" priority="72" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="84" priority="90" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule dxfId="65" operator="containsText" priority="61" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="83" priority="79" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
     </cfRule>
-    <cfRule dxfId="64" operator="containsText" priority="62" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="82" priority="80" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
     </cfRule>
-    <cfRule dxfId="63" operator="containsText" priority="63" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="81" priority="81" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule dxfId="62" operator="containsText" priority="64" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="80" priority="82" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
     </cfRule>
-    <cfRule dxfId="61" operator="containsText" priority="65" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="79" priority="83" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
     </cfRule>
-    <cfRule dxfId="60" operator="containsText" priority="66" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="78" priority="84" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule dxfId="59" operator="containsText" priority="55" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="77" priority="73" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
     </cfRule>
-    <cfRule dxfId="58" operator="containsText" priority="56" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="76" priority="74" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
     </cfRule>
-    <cfRule dxfId="57" operator="containsText" priority="57" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="75" priority="75" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule dxfId="56" operator="containsText" priority="58" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="74" priority="76" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
     </cfRule>
-    <cfRule dxfId="55" operator="containsText" priority="59" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="73" priority="77" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
     </cfRule>
-    <cfRule dxfId="54" operator="containsText" priority="60" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="72" priority="78" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule dxfId="53" operator="containsText" priority="49" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="71" priority="67" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
     </cfRule>
-    <cfRule dxfId="52" operator="containsText" priority="50" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="70" priority="68" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
     </cfRule>
-    <cfRule dxfId="51" operator="containsText" priority="51" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="69" priority="69" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule dxfId="50" operator="containsText" priority="52" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="68" priority="70" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
     </cfRule>
-    <cfRule dxfId="49" operator="containsText" priority="53" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="67" priority="71" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
     </cfRule>
-    <cfRule dxfId="48" operator="containsText" priority="54" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="66" priority="72" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule dxfId="47" operator="containsText" priority="43" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="65" priority="61" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
     </cfRule>
-    <cfRule dxfId="46" operator="containsText" priority="44" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="64" priority="62" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
     </cfRule>
-    <cfRule dxfId="45" operator="containsText" priority="45" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="63" priority="63" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule dxfId="44" operator="containsText" priority="46" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="62" priority="64" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
     </cfRule>
-    <cfRule dxfId="43" operator="containsText" priority="47" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="61" priority="65" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
     </cfRule>
-    <cfRule dxfId="42" operator="containsText" priority="48" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="60" priority="66" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule dxfId="41" operator="equal" priority="40" type="cellIs">
+    <cfRule type="cellIs" dxfId="59" priority="58" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule dxfId="40" operator="equal" priority="41" type="cellIs">
+    <cfRule type="cellIs" dxfId="58" priority="59" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule dxfId="39" operator="equal" priority="42" type="cellIs">
+    <cfRule type="cellIs" dxfId="57" priority="60" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule dxfId="38" operator="equal" priority="37" type="cellIs">
+    <cfRule type="cellIs" dxfId="56" priority="55" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule dxfId="37" operator="equal" priority="38" type="cellIs">
+    <cfRule type="cellIs" dxfId="55" priority="56" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule dxfId="36" operator="equal" priority="39" type="cellIs">
+    <cfRule type="cellIs" dxfId="54" priority="57" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule dxfId="35" operator="equal" priority="34" type="cellIs">
+    <cfRule type="cellIs" dxfId="53" priority="52" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule dxfId="34" operator="equal" priority="35" type="cellIs">
+    <cfRule type="cellIs" dxfId="52" priority="53" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule dxfId="33" operator="equal" priority="36" type="cellIs">
+    <cfRule type="cellIs" dxfId="51" priority="54" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule dxfId="32" operator="equal" priority="31" type="cellIs">
+    <cfRule type="cellIs" dxfId="50" priority="49" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule dxfId="31" operator="equal" priority="32" type="cellIs">
+    <cfRule type="cellIs" dxfId="49" priority="50" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule dxfId="30" operator="equal" priority="33" type="cellIs">
+    <cfRule type="cellIs" dxfId="48" priority="51" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule dxfId="29" operator="equal" priority="28" type="cellIs">
+    <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule dxfId="28" operator="equal" priority="29" type="cellIs">
+    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule dxfId="27" operator="equal" priority="30" type="cellIs">
+    <cfRule type="cellIs" dxfId="45" priority="48" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule dxfId="26" operator="equal" priority="25" type="cellIs">
+    <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule dxfId="25" operator="equal" priority="26" type="cellIs">
+    <cfRule type="cellIs" dxfId="43" priority="44" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule dxfId="24" operator="equal" priority="27" type="cellIs">
+    <cfRule type="cellIs" dxfId="42" priority="45" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule dxfId="23" operator="containsText" priority="19" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="41" priority="37" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D11)))</formula>
     </cfRule>
-    <cfRule dxfId="22" operator="containsText" priority="20" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="40" priority="38" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D11)))</formula>
     </cfRule>
-    <cfRule dxfId="21" operator="containsText" priority="21" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="39" priority="39" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule dxfId="20" operator="containsText" priority="22" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="38" priority="40" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D11)))</formula>
     </cfRule>
-    <cfRule dxfId="19" operator="containsText" priority="23" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="37" priority="41" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D11)))</formula>
     </cfRule>
-    <cfRule dxfId="18" operator="containsText" priority="24" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="36" priority="42" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule dxfId="17" operator="equal" priority="16" type="cellIs">
+    <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule dxfId="16" operator="equal" priority="17" type="cellIs">
+    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule dxfId="15" operator="equal" priority="18" type="cellIs">
+    <cfRule type="cellIs" dxfId="33" priority="36" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule dxfId="14" operator="containsText" priority="10" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="32" priority="28" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D12)))</formula>
     </cfRule>
-    <cfRule dxfId="13" operator="containsText" priority="11" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D12)))</formula>
     </cfRule>
-    <cfRule dxfId="12" operator="containsText" priority="12" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule dxfId="11" operator="containsText" priority="13" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D12)))</formula>
     </cfRule>
-    <cfRule dxfId="10" operator="containsText" priority="14" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="28" priority="32" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D12)))</formula>
     </cfRule>
-    <cfRule dxfId="9" operator="containsText" priority="15" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="27" priority="33" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule dxfId="8" operator="equal" priority="7" type="cellIs">
+    <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule dxfId="7" operator="equal" priority="8" type="cellIs">
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule dxfId="6" operator="equal" priority="9" type="cellIs">
+    <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule dxfId="5" operator="containsText" priority="1" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D13)))</formula>
     </cfRule>
-    <cfRule dxfId="4" operator="containsText" priority="2" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="22" priority="20" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D13)))</formula>
     </cfRule>
-    <cfRule dxfId="3" operator="containsText" priority="3" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule dxfId="2" operator="containsText" priority="4" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D13)))</formula>
     </cfRule>
-    <cfRule dxfId="1" operator="containsText" priority="5" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D13)))</formula>
     </cfRule>
-    <cfRule dxfId="0" operator="containsText" priority="6" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="18" priority="24" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D13)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="14" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="C2:C13" type="list">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C15">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="E2:E13" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E15">
       <formula1>"High,Low"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation showDropDown="1" showErrorMessage="1" showInputMessage="1" sqref="C1">
+    <dataValidation showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="D3" pane="bottomLeft" sqref="D3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="37.42578125" collapsed="true"/>
-    <col min="6" max="1025" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="1" max="4" width="19" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="37.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="1025" width="19" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2777,9 +3076,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="E3"/>
+    <hyperlink ref="E3" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sibaram\git\einstein-code-version-2-pe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Navatar_Projects\einstein-code-version-2-pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B825DC83-0209-478E-B65A-B755973E0C62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Modules" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="55">
   <si>
     <t>Module_Name</t>
   </si>
@@ -181,12 +182,26 @@
     <t>Fail: The following asserts failed:
 	After Save Active Deals with All Stages !@#$%^&amp;*() @#$%^&amp;*Deals:Custom SDG should be selected  (Toggle.java:871)	Screenshot Name: ToggleTc008_CreateNewToggleButtonAsADefaultButton2020_12_21_03_48_12.png	 did not expect to find [true] but found [false],
 	After Save Active Deals with All Stages !@#$%^&amp;*() @#$%^&amp;*Deals:Custom SDG should be selected  (Toggle.java:900)	Screenshot Name: ToggleTc008_CreateNewToggleButtonAsADefaultButton2020_12_21_03_48_47.png	 did not expect to find [true] but found [false]</t>
+  </si>
+  <si>
+    <t>FSTc002_verifyDefaultFieldSet</t>
+  </si>
+  <si>
+    <t>FSTc003_createFieldSet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fail: Element not found: Linghting Pop-Up Close Icon
+Reason: Expected condition failed: waiting for visibility of Proxy element for: DefaultElementLocator 'By.xpath: //a[text()='Close']' (tried for 10 second(s) with 500 milliseconds interval)
+Cause: </t>
+  </si>
+  <si>
+    <t>FSTc004_CreatePreconditionData</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -358,7 +373,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -393,14 +408,413 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="2"/>
+    <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
-  <dxfs count="130">
+  <dxfs count="166">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2158,7 +2572,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2207,27 +2621,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2:I3">
-    <cfRule type="cellIs" dxfId="129" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="6" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I3">
-    <cfRule type="cellIs" dxfId="128" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="7" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="127" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="126" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2:I4">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2:I4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2238,11 +2652,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2499,272 +2913,449 @@
         <v>10</v>
       </c>
     </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="125" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="169" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="170" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="171" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="122" priority="136" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="158" priority="172" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="137" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="157" priority="173" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="138" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="156" priority="174" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="119" priority="139" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="155" priority="175" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="140" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="154" priority="176" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="141" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="153" priority="177" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="116" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="160" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="161" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="162" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="113" priority="127" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="149" priority="163" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="128" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="148" priority="164" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="129" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="147" priority="165" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="110" priority="130" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="146" priority="166" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="131" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="145" priority="167" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="132" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="144" priority="168" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="107" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="151" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="152" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="153" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="104" priority="118" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="140" priority="154" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="119" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="139" priority="155" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="120" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="138" priority="156" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="101" priority="121" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="137" priority="157" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="122" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="136" priority="158" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="123" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="135" priority="159" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="98" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="142" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="143" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="144" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="containsText" dxfId="95" priority="100" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="131" priority="136" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="101" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="130" priority="137" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="102" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="129" priority="138" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="containsText" dxfId="92" priority="103" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="128" priority="139" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="104" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="127" priority="140" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="105" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="126" priority="141" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="89" priority="85" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="125" priority="121" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="86" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="124" priority="122" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="87" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="123" priority="123" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="86" priority="88" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="122" priority="124" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="89" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="121" priority="125" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="90" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="120" priority="126" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="83" priority="79" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="119" priority="115" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="80" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="118" priority="116" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="81" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="117" priority="117" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="80" priority="82" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="116" priority="118" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="83" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="115" priority="119" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="84" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="114" priority="120" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="113" priority="109" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="112" priority="110" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="111" priority="111" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="110" priority="112" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="109" priority="113" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="108" priority="114" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="107" priority="103" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="106" priority="104" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="105" priority="105" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="104" priority="106" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="103" priority="107" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="102" priority="108" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="containsText" dxfId="101" priority="97" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="100" priority="98" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="99" priority="99" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="containsText" dxfId="98" priority="100" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="97" priority="101" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="96" priority="102" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="cellIs" dxfId="95" priority="94" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="95" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="96" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="92" priority="91" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="92" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="93" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="cellIs" dxfId="89" priority="88" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="89" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="90" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="86" priority="85" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="86" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="87" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="83" priority="82" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="83" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="84" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="cellIs" dxfId="80" priority="79" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="80" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="81" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
     <cfRule type="containsText" dxfId="77" priority="73" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D11)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="76" priority="74" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D11)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="75" priority="75" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+      <formula>NOT(ISERROR(SEARCH("Pass",D11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
     <cfRule type="containsText" dxfId="74" priority="76" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D11)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="73" priority="77" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D11)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="72" priority="78" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="71" priority="67" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="68" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="69" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="68" priority="70" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="71" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="72" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="65" priority="61" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="62" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="63" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="62" priority="64" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="65" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="66" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" dxfId="59" priority="58" operator="equal">
+      <formula>NOT(ISERROR(SEARCH("Pass",D11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="71" priority="70" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="71" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="72" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="56" priority="55" operator="equal">
+  <conditionalFormatting sqref="D12">
+    <cfRule type="containsText" dxfId="68" priority="64" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="67" priority="65" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="66" priority="66" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="containsText" dxfId="65" priority="67" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="64" priority="68" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="63" priority="69" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="62" priority="61" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="62" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="63" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="D13">
+    <cfRule type="containsText" dxfId="59" priority="55" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="58" priority="56" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="57" priority="57" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="containsText" dxfId="56" priority="58" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="55" priority="59" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="54" priority="60" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
     <cfRule type="cellIs" dxfId="53" priority="52" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -2775,29 +3366,29 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="50" priority="49" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="50" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="51" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="48" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
+  <conditionalFormatting sqref="D14">
+    <cfRule type="containsText" dxfId="50" priority="46" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="47" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="48" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="containsText" dxfId="47" priority="49" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="50" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="51" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
     <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -2808,128 +3399,29 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
+  <conditionalFormatting sqref="D15">
     <cfRule type="containsText" dxfId="41" priority="37" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D11)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D15)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="40" priority="38" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D11)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D15)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="39" priority="39" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
+      <formula>NOT(ISERROR(SEARCH("Pass",D15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
     <cfRule type="containsText" dxfId="38" priority="40" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D11)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D15)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="37" priority="41" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D11)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D15)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="36" priority="42" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="36" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="containsText" dxfId="32" priority="28" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="32" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="33" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="20" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="24" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="14" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
+      <formula>NOT(ISERROR(SEARCH("Pass",D15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:E18">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -2940,38 +3432,38 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
+  <conditionalFormatting sqref="D16:D18">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D15)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D16)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D15)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D16)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
+      <formula>NOT(ISERROR(SEARCH("Pass",D16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D18">
     <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D15)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D16)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D15)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D16)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D15)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Pass",D16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C15">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C18" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E18" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"High,Low"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
+    <dataValidation showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2981,7 +3473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMK3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3076,7 +3568,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Navatar_Projects\einstein-code-version-2-pe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sibaram\git\einstein-code-version-2-pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B825DC83-0209-478E-B65A-B755973E0C62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Modules" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="55">
   <si>
     <t>Module_Name</t>
   </si>
@@ -179,29 +178,25 @@
     <t>ToggleTc008_CreateNewToggleButtonAsADefaultButton</t>
   </si>
   <si>
-    <t>Fail: The following asserts failed:
-	After Save Active Deals with All Stages !@#$%^&amp;*() @#$%^&amp;*Deals:Custom SDG should be selected  (Toggle.java:871)	Screenshot Name: ToggleTc008_CreateNewToggleButtonAsADefaultButton2020_12_21_03_48_12.png	 did not expect to find [true] but found [false],
-	After Save Active Deals with All Stages !@#$%^&amp;*() @#$%^&amp;*Deals:Custom SDG should be selected  (Toggle.java:900)	Screenshot Name: ToggleTc008_CreateNewToggleButtonAsADefaultButton2020_12_21_03_48_47.png	 did not expect to find [true] but found [false]</t>
-  </si>
-  <si>
     <t>FSTc002_verifyDefaultFieldSet</t>
   </si>
   <si>
     <t>FSTc003_createFieldSet</t>
   </si>
   <si>
-    <t xml:space="preserve">Fail: Element not found: Linghting Pop-Up Close Icon
-Reason: Expected condition failed: waiting for visibility of Proxy element for: DefaultElementLocator 'By.xpath: //a[text()='Close']' (tried for 10 second(s) with 500 milliseconds interval)
-Cause: </t>
-  </si>
-  <si>
     <t>FSTc004_CreatePreconditionData</t>
+  </si>
+  <si>
+    <t>ToggleTc009_VerifyTheToggleButtonAndFunctionalityOfToggleButtonOnDealPageRecord</t>
+  </si>
+  <si>
+    <t>ToggleTc010_VerifyTheRetainAndDefaultSelectionOfToggleButton</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -250,7 +245,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -267,6 +262,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -373,7 +374,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -411,14 +412,125 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2" xfId="3"/>
   </cellStyles>
-  <dxfs count="166">
+  <dxfs count="178">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -519,78 +631,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -686,6 +726,105 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2572,7 +2711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2621,27 +2760,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2:I3">
-    <cfRule type="cellIs" dxfId="165" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="6" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I3">
-    <cfRule type="cellIs" dxfId="164" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="7" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="163" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="162" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2:I4" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2:I4">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2652,11 +2791,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2686,7 +2825,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="8"/>
@@ -2761,7 +2900,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B7" s="8">
@@ -2907,7 +3046,7 @@
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>10</v>
@@ -2915,10 +3054,12 @@
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="8">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D16" t="s">
@@ -2930,10 +3071,12 @@
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="8">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D17" t="s">
@@ -2944,526 +3087,534 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>54</v>
+      <c r="A18" s="15" t="s">
+        <v>50</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="E18" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="161" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="187" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="188" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="189" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="158" priority="172" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="170" priority="190" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="173" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="169" priority="191" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="174" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="168" priority="192" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="155" priority="175" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="167" priority="193" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="176" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="166" priority="194" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="177" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="165" priority="195" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="152" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="178" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="179" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="180" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="149" priority="163" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="161" priority="181" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="164" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="160" priority="182" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="165" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="159" priority="183" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="146" priority="166" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="158" priority="184" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="145" priority="167" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="157" priority="185" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="168" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="156" priority="186" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="143" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="169" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="170" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="171" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="140" priority="154" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="152" priority="172" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="139" priority="155" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="151" priority="173" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="156" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="150" priority="174" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="137" priority="157" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="149" priority="175" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="158" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="148" priority="176" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="159" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="147" priority="177" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="134" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="160" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="161" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="162" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="containsText" dxfId="131" priority="136" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="143" priority="154" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="137" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="142" priority="155" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="138" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="141" priority="156" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="containsText" dxfId="128" priority="139" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="140" priority="157" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="140" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="139" priority="158" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="141" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="138" priority="159" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="125" priority="121" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="137" priority="139" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="122" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="136" priority="140" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="123" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="135" priority="141" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="122" priority="124" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="134" priority="142" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="125" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="133" priority="143" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="126" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="132" priority="144" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="119" priority="115" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="131" priority="133" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="116" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="130" priority="134" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="117" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="129" priority="135" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="116" priority="118" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="128" priority="136" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="119" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="127" priority="137" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="120" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="126" priority="138" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="113" priority="109" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="125" priority="127" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="110" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="124" priority="128" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="111" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="123" priority="129" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="110" priority="112" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="122" priority="130" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="113" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="121" priority="131" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="114" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="120" priority="132" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="107" priority="103" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="119" priority="121" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="104" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="118" priority="122" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="105" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="117" priority="123" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="104" priority="106" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="116" priority="124" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="107" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="115" priority="125" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="108" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="114" priority="126" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="101" priority="97" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="113" priority="115" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="98" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="112" priority="116" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="99" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="111" priority="117" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="98" priority="100" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="110" priority="118" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="101" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="109" priority="119" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="102" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="108" priority="120" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" dxfId="95" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="112" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="113" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="114" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="92" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="109" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="110" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="111" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="89" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="106" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="107" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="108" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="86" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="103" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="104" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="105" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="83" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="100" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="101" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="102" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="80" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="97" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="98" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="99" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="containsText" dxfId="77" priority="73" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="89" priority="91" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="74" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="88" priority="92" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="75" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="87" priority="93" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="containsText" dxfId="74" priority="76" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="86" priority="94" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="77" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="85" priority="95" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="78" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="84" priority="96" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="71" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="88" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="89" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="90" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsText" dxfId="68" priority="64" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="80" priority="82" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="65" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="79" priority="83" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="66" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="78" priority="84" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsText" dxfId="65" priority="67" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="77" priority="85" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="68" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="76" priority="86" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="69" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="75" priority="87" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="62" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="79" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="80" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="81" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="containsText" dxfId="59" priority="55" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="71" priority="73" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="56" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="70" priority="74" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="57" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="69" priority="75" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="containsText" dxfId="56" priority="58" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="68" priority="76" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="59" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="67" priority="77" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="60" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="66" priority="78" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="53" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="70" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="71" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="72" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="containsText" dxfId="50" priority="46" operator="containsText" text="Skip:">
+  <conditionalFormatting sqref="D14:D20">
+    <cfRule type="containsText" dxfId="62" priority="64" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="47" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="61" priority="65" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="48" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="60" priority="66" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D14)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="containsText" dxfId="47" priority="49" operator="containsText" text="Skip:">
+  <conditionalFormatting sqref="D14:D20">
+    <cfRule type="containsText" dxfId="59" priority="67" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="50" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="58" priority="68" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="51" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="57" priority="69" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="61" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="62" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="63" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="containsText" dxfId="41" priority="37" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="38" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="39" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="containsText" dxfId="38" priority="40" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="41" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="42" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16:E18">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+  <conditionalFormatting sqref="E18:E20">
+    <cfRule type="cellIs" dxfId="47" priority="25" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="26" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="27" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16:D18">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16:D18">
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D16)))</formula>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="38" priority="16" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="17" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="18" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="8" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="9" operator="equal">
+      <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C18" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C20">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E18" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E20">
       <formula1>"High,Low"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3473,7 +3624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3568,7 +3719,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sibaram\git\einstein-code-version-2-pe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akul Bhutani\git\einstein-code-version-2-pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="63">
   <si>
     <t>Module_Name</t>
   </si>
@@ -191,6 +191,30 @@
   </si>
   <si>
     <t>ToggleTc010_VerifyTheRetainAndDefaultSelectionOfToggleButton</t>
+  </si>
+  <si>
+    <t>TWtc004_AddWatchlistContactAndVerifyImpact</t>
+  </si>
+  <si>
+    <t>TWtc005_AddUnderEvalContactAndVerifyImpact</t>
+  </si>
+  <si>
+    <t>TWtc006_AddWatchlistContactAndVerifyImpact</t>
+  </si>
+  <si>
+    <t>TWtc007_AddUnderEvalContactAndVerifyImpact</t>
+  </si>
+  <si>
+    <t>TWtc008_AddMultipleWatchlistContactAndVerifyImpact</t>
+  </si>
+  <si>
+    <t>TWtc009_AddMultipleWatchlistContactAndVerifyImpact</t>
+  </si>
+  <si>
+    <t>TWtc010_RemoveContactFromWatchlistContactAndVerifyImpact</t>
+  </si>
+  <si>
+    <t>TWtc011_RemoveContactFromWatchlistContactAndVerifyImpact</t>
   </si>
 </sst>
 </file>
@@ -422,7 +446,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3"/>
   </cellStyles>
-  <dxfs count="178">
+  <dxfs count="169">
     <dxf>
       <font>
         <b/>
@@ -496,6 +520,33 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -568,6 +619,141 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -604,6 +790,42 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -631,6 +853,78 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -730,6 +1024,33 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -856,6 +1177,114 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -928,6 +1357,366 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -1252,6 +2041,61 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFABAB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA9D18E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFABAB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA9D18E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1419,952 +2263,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFABAB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA9D18E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFABAB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA9D18E"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2760,22 +2658,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2:I3">
-    <cfRule type="cellIs" dxfId="177" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="6" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I3">
-    <cfRule type="cellIs" dxfId="176" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="7" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="175" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="174" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2792,10 +2690,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:D20"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2900,12 +2798,10 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="8">
-        <v>1</v>
-      </c>
+      <c r="A7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="8"/>
       <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
@@ -2918,11 +2814,9 @@
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="8">
-        <v>1</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B8" s="8"/>
       <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
@@ -2933,13 +2827,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="8">
-        <v>1</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B9" s="8"/>
       <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
@@ -2950,13 +2842,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="8">
-        <v>1</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B10" s="8"/>
       <c r="C10" s="3" t="s">
         <v>8</v>
       </c>
@@ -2967,13 +2857,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="8">
-        <v>1</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="B11" s="8"/>
       <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
@@ -2984,13 +2872,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="8">
-        <v>1</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B12" s="8"/>
       <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
@@ -3001,13 +2887,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="8">
-        <v>1</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B13" s="8"/>
       <c r="C13" s="3" t="s">
         <v>8</v>
       </c>
@@ -3018,15 +2902,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="8">
-        <v>1</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="B14" s="8"/>
       <c r="C14" s="3" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
@@ -3035,9 +2917,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>49</v>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="B15" s="8">
         <v>1</v>
@@ -3052,9 +2934,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B16" s="8">
         <v>1</v>
@@ -3071,7 +2953,7 @@
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="B17" s="8">
         <v>1</v>
@@ -3087,11 +2969,13 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="14" t="s">
+      <c r="A18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="8">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D18" t="s">
@@ -3103,10 +2987,12 @@
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="8">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D19" t="s">
@@ -3118,10 +3004,12 @@
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="8">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D20" t="s">
@@ -3131,491 +3019,687 @@
         <v>10</v>
       </c>
     </row>
+    <row r="21" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="8">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="8">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="8">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="8">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="8">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="cellIs" dxfId="146" priority="205" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="206" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="207" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="containsText" dxfId="143" priority="208" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="142" priority="209" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="141" priority="210" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="containsText" dxfId="140" priority="211" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="139" priority="212" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="138" priority="213" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="137" priority="196" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="197" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="135" priority="198" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="containsText" dxfId="134" priority="199" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="133" priority="200" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="132" priority="201" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="containsText" dxfId="131" priority="202" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="130" priority="203" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="129" priority="204" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="cellIs" dxfId="128" priority="187" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="127" priority="188" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="189" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="containsText" dxfId="125" priority="190" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="124" priority="191" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="123" priority="192" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="containsText" dxfId="122" priority="193" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="121" priority="194" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="120" priority="195" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="cellIs" dxfId="119" priority="178" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="179" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="180" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="containsText" dxfId="116" priority="172" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="115" priority="173" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="114" priority="174" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="containsText" dxfId="113" priority="175" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="112" priority="176" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="111" priority="177" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="containsText" dxfId="110" priority="157" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="109" priority="158" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="108" priority="159" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="containsText" dxfId="107" priority="160" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="106" priority="161" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="105" priority="162" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="containsText" dxfId="104" priority="151" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="103" priority="152" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="102" priority="153" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="containsText" dxfId="101" priority="154" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="100" priority="155" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="99" priority="156" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="98" priority="145" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="97" priority="146" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="96" priority="147" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="95" priority="148" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="94" priority="149" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="93" priority="150" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="92" priority="139" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="91" priority="140" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="90" priority="141" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="89" priority="142" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="88" priority="143" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="87" priority="144" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="containsText" dxfId="86" priority="133" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="85" priority="134" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="84" priority="135" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="containsText" dxfId="83" priority="136" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="82" priority="137" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="81" priority="138" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="cellIs" dxfId="80" priority="130" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="131" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="132" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="77" priority="127" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="128" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="129" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="cellIs" dxfId="74" priority="124" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="125" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="126" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="71" priority="121" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="122" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="123" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="68" priority="118" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="119" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="120" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="cellIs" dxfId="65" priority="115" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="116" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="117" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="containsText" dxfId="62" priority="109" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="61" priority="110" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="60" priority="111" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="containsText" dxfId="59" priority="112" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="58" priority="113" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="57" priority="114" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="56" priority="106" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="107" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="108" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="containsText" dxfId="53" priority="100" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="101" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="51" priority="102" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="containsText" dxfId="50" priority="103" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="104" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="105" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="cellIs" dxfId="47" priority="97" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="98" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="99" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="containsText" dxfId="44" priority="91" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="43" priority="92" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="93" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="containsText" dxfId="41" priority="94" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="95" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="39" priority="96" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="cellIs" dxfId="38" priority="88" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="89" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="90" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:D28">
+    <cfRule type="containsText" dxfId="35" priority="82" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="83" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="84" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:D28">
+    <cfRule type="containsText" dxfId="32" priority="85" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="86" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="87" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="cellIs" dxfId="29" priority="79" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="80" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="81" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26:E28">
+    <cfRule type="cellIs" dxfId="26" priority="43" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="44" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="45" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="cellIs" dxfId="23" priority="34" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="35" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="36" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="cellIs" dxfId="20" priority="25" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="26" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="27" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8:E14">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="containsText" dxfId="11" priority="16" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="18" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="173" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="170" priority="190" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="169" priority="191" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="192" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="167" priority="193" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="194" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="195" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="164" priority="178" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="179" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="180" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="161" priority="181" operator="containsText" text="Skip:">
+  <conditionalFormatting sqref="D8:D14">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="182" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="183" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="158" priority="184" operator="containsText" text="Skip:">
+  <conditionalFormatting sqref="D8:D14">
+    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="185" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="1" priority="8" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="186" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="0" priority="9" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="155" priority="169" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="170" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="171" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="152" priority="172" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="151" priority="173" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="174" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D9)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="149" priority="175" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="176" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="177" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D9)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="146" priority="160" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="161" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="162" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="containsText" dxfId="143" priority="154" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="155" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="156" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D10)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="containsText" dxfId="140" priority="157" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="139" priority="158" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="159" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D10)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="137" priority="139" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="140" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="141" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="134" priority="142" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="143" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="144" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="131" priority="133" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="134" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="135" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="128" priority="136" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="137" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="138" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="125" priority="127" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="128" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="129" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="122" priority="130" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="131" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="132" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="119" priority="121" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="122" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="123" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="116" priority="124" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="125" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="126" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="113" priority="115" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="116" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="117" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="110" priority="118" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="119" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="120" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" dxfId="107" priority="112" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="113" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="114" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="104" priority="109" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="110" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="111" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="101" priority="106" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="107" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="108" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="98" priority="103" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="104" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="105" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="95" priority="100" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="101" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="102" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="92" priority="97" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="98" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="99" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="containsText" dxfId="89" priority="91" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="92" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="93" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="containsText" dxfId="86" priority="94" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="95" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="96" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="83" priority="88" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="89" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="90" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="containsText" dxfId="80" priority="82" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="83" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="84" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="containsText" dxfId="77" priority="85" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="86" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="87" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="74" priority="79" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="80" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="81" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="containsText" dxfId="71" priority="73" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="74" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="75" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="containsText" dxfId="68" priority="76" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="77" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="78" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="65" priority="70" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="71" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="72" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D20">
-    <cfRule type="containsText" dxfId="62" priority="64" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="65" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="66" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D20">
-    <cfRule type="containsText" dxfId="59" priority="67" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="68" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="69" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="56" priority="61" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="62" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="63" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18:E20">
-    <cfRule type="cellIs" dxfId="47" priority="25" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="26" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="27" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="38" priority="16" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="17" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="18" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="8" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="9" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C20">
+    <dataValidation showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C28">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E28">
       <formula1>"High,Low"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
-      <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>

--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akul Bhutani\git\einstein-code-version-2-pe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sibaram\git\einstein-code-version-2-pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="65">
   <si>
     <t>Module_Name</t>
   </si>
@@ -215,6 +215,12 @@
   </si>
   <si>
     <t>TWtc011_RemoveContactFromWatchlistContactAndVerifyImpact</t>
+  </si>
+  <si>
+    <t>ToggleTc011_VerifyToAddNewToggleButtonWithMaxAndSpecialCharacter</t>
+  </si>
+  <si>
+    <t>ToggleTc012_CreateNewToggleButtonAsADefaultButton</t>
   </si>
 </sst>
 </file>
@@ -448,6 +454,60 @@
   </cellStyles>
   <dxfs count="169">
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -520,6 +580,150 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -2065,204 +2269,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFA9D18E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2658,22 +2664,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2:I3">
-    <cfRule type="cellIs" dxfId="150" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="6" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I3">
-    <cfRule type="cellIs" dxfId="149" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="7" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="148" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="147" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2690,10 +2696,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3105,11 +3111,11 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="15" t="s">
-        <v>50</v>
+      <c r="A26" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="B26" s="8"/>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D26" t="s">
@@ -3121,10 +3127,10 @@
     </row>
     <row r="27" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B27" s="8"/>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D27" t="s">
@@ -3135,8 +3141,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
-        <v>52</v>
+      <c r="A28" s="15" t="s">
+        <v>50</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="14" t="s">
@@ -3149,544 +3155,607 @@
         <v>10</v>
       </c>
     </row>
+    <row r="29" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="146" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="214" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="215" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="216" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="containsText" dxfId="143" priority="208" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="161" priority="217" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="209" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="160" priority="218" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="210" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="159" priority="219" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="containsText" dxfId="140" priority="211" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="158" priority="220" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="139" priority="212" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="157" priority="221" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="213" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="156" priority="222" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="137" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="205" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="206" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="207" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="containsText" dxfId="134" priority="199" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="152" priority="208" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="200" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="151" priority="209" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="201" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="150" priority="210" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="containsText" dxfId="131" priority="202" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="149" priority="211" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="203" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="148" priority="212" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="204" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="147" priority="213" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="128" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="196" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="197" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="198" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsText" dxfId="125" priority="190" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="143" priority="199" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="191" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="142" priority="200" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="192" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="141" priority="201" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsText" dxfId="122" priority="193" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="140" priority="202" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="194" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="139" priority="203" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="195" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="138" priority="204" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="119" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="187" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="188" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="189" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="containsText" dxfId="116" priority="172" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="134" priority="181" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="173" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="133" priority="182" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="174" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="132" priority="183" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="containsText" dxfId="113" priority="175" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="131" priority="184" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="176" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="130" priority="185" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="177" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="129" priority="186" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="110" priority="157" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="128" priority="166" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="158" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="127" priority="167" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="159" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="126" priority="168" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="107" priority="160" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="125" priority="169" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="161" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="124" priority="170" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="162" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="123" priority="171" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="104" priority="151" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="122" priority="160" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="152" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="121" priority="161" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="153" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="120" priority="162" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="101" priority="154" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="119" priority="163" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="155" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="118" priority="164" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="156" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="117" priority="165" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="98" priority="145" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="116" priority="154" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="146" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="115" priority="155" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="147" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="114" priority="156" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="95" priority="148" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="113" priority="157" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="149" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="112" priority="158" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="150" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="111" priority="159" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="92" priority="139" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="110" priority="148" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="140" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="109" priority="149" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="141" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="108" priority="150" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="89" priority="142" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="107" priority="151" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="143" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="106" priority="152" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="144" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="105" priority="153" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="86" priority="133" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="104" priority="142" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="134" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="103" priority="143" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="135" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="102" priority="144" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="83" priority="136" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="101" priority="145" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="137" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="100" priority="146" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="138" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="99" priority="147" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" dxfId="80" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="139" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="140" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="141" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="77" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="136" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="137" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="138" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="74" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="133" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="134" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="135" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="71" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="130" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="131" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="132" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="68" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="127" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="128" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="129" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="65" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="124" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="125" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="126" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="containsText" dxfId="62" priority="109" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="80" priority="118" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="110" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="79" priority="119" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="111" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="78" priority="120" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="containsText" dxfId="59" priority="112" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="77" priority="121" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="113" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="76" priority="122" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="114" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="75" priority="123" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="56" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="115" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="116" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="117" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="containsText" dxfId="53" priority="100" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="71" priority="109" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="101" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="70" priority="110" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="102" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="69" priority="111" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="containsText" dxfId="50" priority="103" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="68" priority="112" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="104" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="67" priority="113" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="105" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="66" priority="114" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="47" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="106" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="107" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="108" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="containsText" dxfId="44" priority="91" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="62" priority="100" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="92" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="61" priority="101" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="93" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="60" priority="102" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="containsText" dxfId="41" priority="94" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="59" priority="103" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="95" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="58" priority="104" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="96" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="57" priority="105" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="38" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="97" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="98" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="99" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22:D28">
-    <cfRule type="containsText" dxfId="35" priority="82" operator="containsText" text="Skip:">
+  <conditionalFormatting sqref="D22:D25 D28:D30">
+    <cfRule type="containsText" dxfId="53" priority="91" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="83" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="52" priority="92" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="84" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="51" priority="93" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D22)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22:D28">
-    <cfRule type="containsText" dxfId="32" priority="85" operator="containsText" text="Skip:">
+  <conditionalFormatting sqref="D22:D25 D28:D30">
+    <cfRule type="containsText" dxfId="50" priority="94" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="86" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="49" priority="95" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="87" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="48" priority="96" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="29" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="88" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="89" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="90" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26:E28">
-    <cfRule type="cellIs" dxfId="26" priority="43" operator="equal">
+  <conditionalFormatting sqref="E28:E30">
+    <cfRule type="cellIs" dxfId="44" priority="52" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="53" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="54" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="23" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="45" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="20" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="34" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="35" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="36" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:E14">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="10" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="11" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="12" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="32" priority="22" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="31" priority="23" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="30" priority="24" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="11" priority="16" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="29" priority="25" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="28" priority="26" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="18" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="19" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="20" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="21" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D14">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="23" priority="13" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="22" priority="14" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="21" priority="15" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D14">
-    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="20" priority="16" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="8" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="9" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:D27">
+    <cfRule type="containsText" dxfId="17" priority="4" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="6" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:D27">
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26:E27">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
@@ -3694,11 +3763,11 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C28">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C30">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E30">
       <formula1>"High,Low"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sibaram\git\einstein-code-version-2-pe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Navatar_Projects\einstein-code-version-2-pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CA5350-807A-4C85-9CFC-86EA8FA314D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Modules" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="67">
   <si>
     <t>Module_Name</t>
   </si>
@@ -34,9 +35,6 @@
     <t>Execute</t>
   </si>
   <si>
-    <t>SmokeTestCases</t>
-  </si>
-  <si>
     <t>Test Cases</t>
   </si>
   <si>
@@ -221,12 +219,21 @@
   </si>
   <si>
     <t>ToggleTc012_CreateNewToggleButtonAsADefaultButton</t>
+  </si>
+  <si>
+    <t>FSTc005_addAdvanceFieldSetLayoutOnContactAndDealPage</t>
+  </si>
+  <si>
+    <t>FSTc006_verifyAdvanceFieldSetLayoutOnContactAndDealPage</t>
+  </si>
+  <si>
+    <t>FieldSet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -448,11 +455,11 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="2"/>
+    <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
-  <dxfs count="169">
+  <dxfs count="178">
     <dxf>
       <fill>
         <patternFill>
@@ -481,6 +488,78 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -576,6 +655,33 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2615,11 +2721,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2640,51 +2746,51 @@
     </row>
     <row r="2" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H2" s="2" t="s">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2:I3">
-    <cfRule type="cellIs" dxfId="168" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="6" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I3">
-    <cfRule type="cellIs" dxfId="167" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="7" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="166" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="165" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2:I4">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2:I4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2695,11 +2801,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2713,1061 +2819,1157 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
         <v>8</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
         <v>8</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
         <v>8</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
         <v>8</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
         <v>8</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" s="8">
         <v>1</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
         <v>8</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" s="8">
         <v>1</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
         <v>8</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" s="8">
         <v>1</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
         <v>8</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" s="8">
         <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
         <v>8</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19" s="8">
         <v>1</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
         <v>8</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B20" s="8">
         <v>1</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
         <v>8</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" s="8">
         <v>1</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
         <v>8</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" s="8">
         <v>1</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23" s="8">
         <v>1</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
         <v>8</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B24" s="8">
         <v>1</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
         <v>8</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B25" s="8">
         <v>1</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
         <v>8</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
         <v>8</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
         <v>8</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
         <v>8</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" t="s">
         <v>8</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" t="s">
         <v>8</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="9" t="s">
-        <v>10</v>
+    </row>
+    <row r="31" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="164" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="232" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="233" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="234" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="containsText" dxfId="161" priority="217" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="170" priority="235" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="218" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="169" priority="236" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="219" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="168" priority="237" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="containsText" dxfId="158" priority="220" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="167" priority="238" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="221" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="166" priority="239" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="222" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="165" priority="240" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="155" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="223" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="224" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="225" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="containsText" dxfId="152" priority="208" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="161" priority="226" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="151" priority="209" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="160" priority="227" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="210" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="159" priority="228" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="containsText" dxfId="149" priority="211" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="158" priority="229" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="212" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="157" priority="230" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="213" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="156" priority="231" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="146" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="214" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="215" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="216" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
+    <cfRule type="containsText" dxfId="152" priority="217" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="151" priority="218" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="150" priority="219" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="containsText" dxfId="149" priority="220" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="148" priority="221" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="147" priority="222" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="cellIs" dxfId="146" priority="205" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="206" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="207" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
     <cfRule type="containsText" dxfId="143" priority="199" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D17)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D18)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="142" priority="200" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D17)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D18)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="141" priority="201" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
+      <formula>NOT(ISERROR(SEARCH("Pass",D18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
     <cfRule type="containsText" dxfId="140" priority="202" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D17)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D18)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="139" priority="203" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D17)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D18)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="138" priority="204" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="137" priority="187" operator="equal">
+      <formula>NOT(ISERROR(SEARCH("Pass",D18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="containsText" dxfId="137" priority="184" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="136" priority="185" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="135" priority="186" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="containsText" dxfId="134" priority="187" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="133" priority="188" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="132" priority="189" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="containsText" dxfId="131" priority="178" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="130" priority="179" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="129" priority="180" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="containsText" dxfId="128" priority="181" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="127" priority="182" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="126" priority="183" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="125" priority="172" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="124" priority="173" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="123" priority="174" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="122" priority="175" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="121" priority="176" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="120" priority="177" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="119" priority="166" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="118" priority="167" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="117" priority="168" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="116" priority="169" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="115" priority="170" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="114" priority="171" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="containsText" dxfId="113" priority="160" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="112" priority="161" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="111" priority="162" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="containsText" dxfId="110" priority="163" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="109" priority="164" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="108" priority="165" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="cellIs" dxfId="107" priority="157" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="158" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="159" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="containsText" dxfId="134" priority="181" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="182" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="183" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="containsText" dxfId="131" priority="184" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="185" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="186" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="128" priority="166" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="167" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="168" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="125" priority="169" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="170" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="171" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="122" priority="160" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="161" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="162" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="119" priority="163" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="164" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="165" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="116" priority="154" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="155" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="156" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="113" priority="157" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="158" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="159" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="110" priority="148" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="149" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="150" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="107" priority="151" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="152" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="153" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="104" priority="142" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="143" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="144" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="101" priority="145" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="146" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="147" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" dxfId="98" priority="139" operator="equal">
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="104" priority="154" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="155" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="156" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="95" priority="136" operator="equal">
+  <conditionalFormatting sqref="E4">
+    <cfRule type="cellIs" dxfId="101" priority="151" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="152" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="153" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="92" priority="133" operator="equal">
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="98" priority="148" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="149" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="150" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="89" priority="130" operator="equal">
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="95" priority="145" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="146" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="147" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="86" priority="127" operator="equal">
+  <conditionalFormatting sqref="E19">
+    <cfRule type="cellIs" dxfId="92" priority="142" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="143" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="144" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="83" priority="124" operator="equal">
+  <conditionalFormatting sqref="D19">
+    <cfRule type="containsText" dxfId="89" priority="136" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="88" priority="137" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="87" priority="138" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="containsText" dxfId="86" priority="139" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="85" priority="140" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="84" priority="141" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="83" priority="133" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="134" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="135" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="containsText" dxfId="80" priority="118" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="119" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="120" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="containsText" dxfId="77" priority="121" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="122" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="123" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="74" priority="115" operator="equal">
+  <conditionalFormatting sqref="D20">
+    <cfRule type="containsText" dxfId="80" priority="127" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="79" priority="128" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="78" priority="129" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="containsText" dxfId="77" priority="130" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="76" priority="131" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="75" priority="132" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="cellIs" dxfId="74" priority="124" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="125" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="126" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="containsText" dxfId="71" priority="109" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="110" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="111" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="containsText" dxfId="68" priority="112" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="113" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="114" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="65" priority="106" operator="equal">
+  <conditionalFormatting sqref="D21">
+    <cfRule type="containsText" dxfId="71" priority="118" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="70" priority="119" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="69" priority="120" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="containsText" dxfId="68" priority="121" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="67" priority="122" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="66" priority="123" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="cellIs" dxfId="65" priority="115" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="116" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="117" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
-    <cfRule type="containsText" dxfId="62" priority="100" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="101" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="102" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
-    <cfRule type="containsText" dxfId="59" priority="103" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="104" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="105" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="56" priority="97" operator="equal">
+  <conditionalFormatting sqref="D22:D25 D28:D30">
+    <cfRule type="containsText" dxfId="62" priority="109" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="61" priority="110" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="60" priority="111" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:D25 D28:D30">
+    <cfRule type="containsText" dxfId="59" priority="112" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="58" priority="113" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="57" priority="114" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="cellIs" dxfId="56" priority="106" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="107" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="108" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22:D25 D28:D30">
-    <cfRule type="containsText" dxfId="53" priority="91" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="92" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="93" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D22)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22:D25 D28:D30">
-    <cfRule type="containsText" dxfId="50" priority="94" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="95" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="96" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D22)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="47" priority="88" operator="equal">
+  <conditionalFormatting sqref="E28:E30">
+    <cfRule type="cellIs" dxfId="53" priority="70" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="71" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="72" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28:E30">
-    <cfRule type="cellIs" dxfId="44" priority="52" operator="equal">
+  <conditionalFormatting sqref="E24">
+    <cfRule type="cellIs" dxfId="50" priority="61" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="62" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="63" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
+  <conditionalFormatting sqref="E25">
+    <cfRule type="cellIs" dxfId="47" priority="52" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="53" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="54" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="38" priority="34" operator="equal">
+  <conditionalFormatting sqref="E8:E14">
+    <cfRule type="cellIs" dxfId="44" priority="28" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="29" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="30" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E14">
-    <cfRule type="cellIs" dxfId="35" priority="10" operator="equal">
+  <conditionalFormatting sqref="D7">
+    <cfRule type="containsText" dxfId="41" priority="40" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="39" priority="42" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="containsText" dxfId="38" priority="43" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="44" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="45" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="35" priority="37" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="38" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="39" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="32" priority="22" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="23" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="24" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="29" priority="25" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="26" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="26" priority="19" operator="equal">
+  <conditionalFormatting sqref="D8:D14">
+    <cfRule type="containsText" dxfId="32" priority="31" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="33" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:D14">
+    <cfRule type="containsText" dxfId="29" priority="34" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="35" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="36" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:D27">
+    <cfRule type="containsText" dxfId="26" priority="22" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="23" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="24" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:D27">
+    <cfRule type="containsText" dxfId="23" priority="25" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="26" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="27" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26:E27">
+    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D14">
-    <cfRule type="containsText" dxfId="23" priority="13" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="14" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="15" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D14">
-    <cfRule type="containsText" dxfId="20" priority="16" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26:D27">
-    <cfRule type="containsText" dxfId="17" priority="4" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D26)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D26)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="6" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26:D27">
-    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D26)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D26)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26:E27">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+  <conditionalFormatting sqref="D31">
+    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
+    <dataValidation showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C30">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C32" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E32" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"High,Low"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3777,7 +3979,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMK3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3794,85 +3996,85 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>18</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
         <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>27</v>
-      </c>
-      <c r="I3" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Navatar_Projects\einstein-code-version-2-pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CA5350-807A-4C85-9CFC-86EA8FA314D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E19245C-07EF-4022-A733-A4607D9DE60B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Modules" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="73">
   <si>
     <t>Module_Name</t>
   </si>
@@ -155,12 +155,6 @@
     <t>PE</t>
   </si>
   <si>
-    <t>navatariptesting+91877@gmail.com</t>
-  </si>
-  <si>
-    <t>User99341</t>
-  </si>
-  <si>
     <t>ToggleTc006_CreateNewCustomSDG</t>
   </si>
   <si>
@@ -228,6 +222,31 @@
   </si>
   <si>
     <t>FieldSet</t>
+  </si>
+  <si>
+    <t>FSTc007_1_removeObjectPermissionFromObject</t>
+  </si>
+  <si>
+    <t>FSTc007_2_verifyRemoveObjectImpactFromPEUser</t>
+  </si>
+  <si>
+    <t>navatariptesting+60616@gmail.com</t>
+  </si>
+  <si>
+    <t>User7708</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>FSTc008_1_giveObjectPermissionFromObject</t>
+  </si>
+  <si>
+    <t>Fail: The following asserts failed:
+	Email Object is not displaying : navatariptesting+27971@gmail.com 	Screenshot Name: FSTc007_2_verifyGiveObjectImpactFromPEUser2021_01_04_07_23_18.png	 did not expect to find [true] but found [false]</t>
+  </si>
+  <si>
+    <t>FSTc008_2_verifyGiveObjectImpactFromPEUser</t>
   </si>
 </sst>
 </file>
@@ -459,7 +478,403 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
-  <dxfs count="178">
+  <dxfs count="214">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2724,8 +3139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2746,10 +3161,10 @@
     </row>
     <row r="2" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H2" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2770,22 +3185,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2:I3">
-    <cfRule type="cellIs" dxfId="177" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="6" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I3">
-    <cfRule type="cellIs" dxfId="176" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="7" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="175" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="174" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2802,10 +3217,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2911,7 +3326,7 @@
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="3" t="s">
@@ -2926,7 +3341,7 @@
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="3" t="s">
@@ -2941,7 +3356,7 @@
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="3" t="s">
@@ -2956,7 +3371,7 @@
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="3" t="s">
@@ -2971,7 +3386,7 @@
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="3" t="s">
@@ -2986,7 +3401,7 @@
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="3" t="s">
@@ -3001,7 +3416,7 @@
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="3" t="s">
@@ -3016,7 +3431,7 @@
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="3" t="s">
@@ -3099,7 +3514,7 @@
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B19" s="8">
         <v>1</v>
@@ -3116,7 +3531,7 @@
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B20" s="8">
         <v>1</v>
@@ -3133,7 +3548,7 @@
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B21" s="8">
         <v>1</v>
@@ -3150,7 +3565,7 @@
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B22" s="8">
         <v>1</v>
@@ -3167,7 +3582,7 @@
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B23" s="8">
         <v>1</v>
@@ -3184,7 +3599,7 @@
     </row>
     <row r="24" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B24" s="8">
         <v>1</v>
@@ -3201,7 +3616,7 @@
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B25" s="8">
         <v>1</v>
@@ -3218,7 +3633,7 @@
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="3" t="s">
@@ -3233,7 +3648,7 @@
     </row>
     <row r="27" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="3" t="s">
@@ -3248,7 +3663,7 @@
     </row>
     <row r="28" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="14" t="s">
@@ -3263,7 +3678,7 @@
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="14" t="s">
@@ -3278,7 +3693,7 @@
     </row>
     <row r="30" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="14" t="s">
@@ -3293,7 +3708,7 @@
     </row>
     <row r="31" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="14" t="s">
@@ -3308,7 +3723,7 @@
     </row>
     <row r="32" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="14" t="s">
@@ -3321,272 +3736,464 @@
         <v>9</v>
       </c>
     </row>
+    <row r="33" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="173" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="268" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="269" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="270" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="containsText" dxfId="170" priority="235" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="206" priority="271" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="169" priority="236" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="205" priority="272" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="237" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="204" priority="273" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="containsText" dxfId="167" priority="238" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="203" priority="274" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="239" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="202" priority="275" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="240" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="201" priority="276" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="164" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="259" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="260" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="225" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="261" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="containsText" dxfId="161" priority="226" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="197" priority="262" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="227" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="196" priority="263" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="228" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="195" priority="264" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="containsText" dxfId="158" priority="229" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="194" priority="265" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="230" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="193" priority="266" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="231" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="192" priority="267" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="155" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="250" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="251" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="252" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsText" dxfId="152" priority="217" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="188" priority="253" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="151" priority="218" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="187" priority="254" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="219" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="186" priority="255" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsText" dxfId="149" priority="220" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="185" priority="256" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="221" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="184" priority="257" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="222" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="183" priority="258" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="146" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="241" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="242" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="243" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="containsText" dxfId="143" priority="199" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="179" priority="235" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="200" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="178" priority="236" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="201" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="177" priority="237" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="containsText" dxfId="140" priority="202" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="176" priority="238" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="139" priority="203" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="175" priority="239" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="204" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="174" priority="240" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="137" priority="184" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="173" priority="220" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="185" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="172" priority="221" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="186" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="171" priority="222" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="134" priority="187" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="170" priority="223" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="188" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="169" priority="224" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="189" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="168" priority="225" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="131" priority="178" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="167" priority="214" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="179" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="166" priority="215" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="180" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="165" priority="216" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="128" priority="181" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="164" priority="217" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="182" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="163" priority="218" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="183" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="162" priority="219" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="161" priority="208" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="160" priority="209" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="159" priority="210" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="158" priority="211" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="157" priority="212" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="156" priority="213" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="155" priority="202" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="154" priority="203" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="153" priority="204" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="152" priority="205" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="151" priority="206" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="150" priority="207" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="containsText" dxfId="149" priority="196" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="148" priority="197" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="147" priority="198" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="containsText" dxfId="146" priority="199" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="145" priority="200" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="144" priority="201" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="cellIs" dxfId="143" priority="193" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="194" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="195" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="140" priority="190" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="139" priority="191" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="192" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="cellIs" dxfId="137" priority="187" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="188" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="135" priority="189" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="134" priority="184" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="185" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="186" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="131" priority="181" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="182" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="129" priority="183" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="cellIs" dxfId="128" priority="178" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="127" priority="179" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="180" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
     <cfRule type="containsText" dxfId="125" priority="172" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D19)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="124" priority="173" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D19)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="123" priority="174" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+      <formula>NOT(ISERROR(SEARCH("Pass",D19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
     <cfRule type="containsText" dxfId="122" priority="175" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D19)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="121" priority="176" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D19)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="120" priority="177" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="119" priority="166" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="167" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="168" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="116" priority="169" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="170" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="171" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="113" priority="160" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="161" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="162" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="110" priority="163" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="164" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="165" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" dxfId="107" priority="157" operator="equal">
+      <formula>NOT(ISERROR(SEARCH("Pass",D19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="119" priority="169" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="170" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="171" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="104" priority="154" operator="equal">
+  <conditionalFormatting sqref="D20">
+    <cfRule type="containsText" dxfId="116" priority="163" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="115" priority="164" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="114" priority="165" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="containsText" dxfId="113" priority="166" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="112" priority="167" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="111" priority="168" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="cellIs" dxfId="110" priority="160" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="161" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="162" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="D21">
+    <cfRule type="containsText" dxfId="107" priority="154" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="106" priority="155" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="105" priority="156" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="containsText" dxfId="104" priority="157" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="103" priority="158" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="102" priority="159" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
     <cfRule type="cellIs" dxfId="101" priority="151" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -3597,29 +4204,29 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="98" priority="148" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="149" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="150" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="95" priority="145" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="146" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="147" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
+  <conditionalFormatting sqref="D22:D25 D28:D30">
+    <cfRule type="containsText" dxfId="98" priority="145" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="97" priority="146" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="96" priority="147" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:D25 D28:D30">
+    <cfRule type="containsText" dxfId="95" priority="148" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="94" priority="149" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="93" priority="150" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
     <cfRule type="cellIs" dxfId="92" priority="142" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -3630,260 +4237,260 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="containsText" dxfId="89" priority="136" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="137" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="138" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="containsText" dxfId="86" priority="139" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="140" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="141" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="83" priority="133" operator="equal">
+  <conditionalFormatting sqref="E28:E30">
+    <cfRule type="cellIs" dxfId="89" priority="106" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="107" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="108" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="containsText" dxfId="80" priority="127" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="128" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="129" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="containsText" dxfId="77" priority="130" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="131" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="132" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="74" priority="124" operator="equal">
+  <conditionalFormatting sqref="E24">
+    <cfRule type="cellIs" dxfId="86" priority="97" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="98" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="99" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
-    <cfRule type="containsText" dxfId="71" priority="118" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="119" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="120" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
-    <cfRule type="containsText" dxfId="68" priority="121" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="122" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="123" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="65" priority="115" operator="equal">
+  <conditionalFormatting sqref="E25">
+    <cfRule type="cellIs" dxfId="83" priority="88" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="89" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="90" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22:D25 D28:D30">
-    <cfRule type="containsText" dxfId="62" priority="109" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="110" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="111" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D22)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22:D25 D28:D30">
-    <cfRule type="containsText" dxfId="59" priority="112" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="113" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="114" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D22)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="56" priority="106" operator="equal">
+  <conditionalFormatting sqref="E8:E14">
+    <cfRule type="cellIs" dxfId="80" priority="64" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="65" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="66" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28:E30">
-    <cfRule type="cellIs" dxfId="53" priority="70" operator="equal">
+  <conditionalFormatting sqref="D7">
+    <cfRule type="containsText" dxfId="77" priority="76" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="76" priority="77" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="75" priority="78" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="containsText" dxfId="74" priority="79" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="73" priority="80" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="72" priority="81" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="71" priority="73" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="74" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="75" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="50" priority="61" operator="equal">
+  <conditionalFormatting sqref="D8:D14">
+    <cfRule type="containsText" dxfId="68" priority="67" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="67" priority="68" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="66" priority="69" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:D14">
+    <cfRule type="containsText" dxfId="65" priority="70" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="64" priority="71" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="63" priority="72" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:D27">
+    <cfRule type="containsText" dxfId="62" priority="58" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="61" priority="59" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="60" priority="60" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:D27">
+    <cfRule type="containsText" dxfId="59" priority="61" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="58" priority="62" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="57" priority="63" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26:E27">
+    <cfRule type="cellIs" dxfId="56" priority="55" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="56" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="57" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="47" priority="52" operator="equal">
+  <conditionalFormatting sqref="D31">
+    <cfRule type="containsText" dxfId="53" priority="49" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="50" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="51" priority="51" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="containsText" dxfId="50" priority="52" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="53" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="54" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="48" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E14">
-    <cfRule type="cellIs" dxfId="44" priority="28" operator="equal">
+  <conditionalFormatting sqref="D32">
+    <cfRule type="containsText" dxfId="44" priority="40" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="43" priority="41" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="42" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="containsText" dxfId="41" priority="43" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="44" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="39" priority="45" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="39" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="41" priority="40" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="42" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="38" priority="43" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="44" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="45" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="35" priority="37" operator="equal">
+  <conditionalFormatting sqref="D33">
+    <cfRule type="containsText" dxfId="35" priority="31" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D33)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="32" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D33)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="33" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D33)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="35" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D33)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="36" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D14">
-    <cfRule type="containsText" dxfId="32" priority="31" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="33" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D14">
-    <cfRule type="containsText" dxfId="29" priority="34" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="35" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="36" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26:D27">
+  <conditionalFormatting sqref="D34">
     <cfRule type="containsText" dxfId="26" priority="22" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D26)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D34)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="25" priority="23" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D26)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D34)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="24" priority="24" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26:D27">
+      <formula>NOT(ISERROR(SEARCH("Pass",D34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
     <cfRule type="containsText" dxfId="23" priority="25" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D26)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D34)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="22" priority="26" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D26)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D34)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="21" priority="27" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26:E27">
+      <formula>NOT(ISERROR(SEARCH("Pass",D34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
     <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -3894,29 +4501,29 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="D35">
     <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D31)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D35)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D31)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D35)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+      <formula>NOT(ISERROR(SEARCH("Pass",D35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
     <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D31)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D35)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D31)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D35)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
+      <formula>NOT(ISERROR(SEARCH("Pass",D35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -3927,29 +4534,29 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+  <conditionalFormatting sqref="D36">
     <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D32)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D36)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D32)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D36)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+      <formula>NOT(ISERROR(SEARCH("Pass",D36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
     <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D32)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D36)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D32)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D36)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
+      <formula>NOT(ISERROR(SEARCH("Pass",D36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -3965,11 +4572,11 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C32" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C36" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E32" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E36" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"High,Low"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4054,10 +4661,10 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -4074,9 +4681,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId1" display="javascript:srcUp(%27%2F0054x000001Z8z4%3Fnoredirect%3D1%26isUserEntityOverride%3D1%26isdtp%3Dp1%27);" xr:uid="{B90EC40D-7451-41E9-8B2E-CC1DDED80C77}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Navatar_Projects\einstein-code-version-2-pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E19245C-07EF-4022-A733-A4607D9DE60B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BC41F9-EFE5-48EE-B1CD-B6A2600E44D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="73">
   <si>
     <t>Module_Name</t>
   </si>
@@ -242,11 +242,10 @@
     <t>FSTc008_1_giveObjectPermissionFromObject</t>
   </si>
   <si>
-    <t>Fail: The following asserts failed:
-	Email Object is not displaying : navatariptesting+27971@gmail.com 	Screenshot Name: FSTc007_2_verifyGiveObjectImpactFromPEUser2021_01_04_07_23_18.png	 did not expect to find [true] but found [false]</t>
-  </si>
-  <si>
     <t>FSTc008_2_verifyGiveObjectImpactFromPEUser</t>
+  </si>
+  <si>
+    <t>FSTc009_changeTheFieldPositionAndCheckImpact</t>
   </si>
 </sst>
 </file>
@@ -478,7 +477,106 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
-  <dxfs count="214">
+  <dxfs count="223">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3185,22 +3283,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2:I3">
-    <cfRule type="cellIs" dxfId="213" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="6" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I3">
-    <cfRule type="cellIs" dxfId="212" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="7" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="211" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="210" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3217,10 +3315,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34:C36"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3775,7 +3873,7 @@
         <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>9</v>
@@ -3783,21 +3881,69 @@
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="14" t="s">
         <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="E36" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="9" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E15">
+    <cfRule type="cellIs" dxfId="218" priority="277" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="217" priority="278" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="216" priority="279" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="containsText" dxfId="215" priority="280" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="214" priority="281" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="213" priority="282" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="containsText" dxfId="212" priority="283" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="211" priority="284" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="210" priority="285" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
     <cfRule type="cellIs" dxfId="209" priority="268" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -3808,29 +3954,29 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
+  <conditionalFormatting sqref="D16">
     <cfRule type="containsText" dxfId="206" priority="271" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D15)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D16)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="205" priority="272" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D15)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D16)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="204" priority="273" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
+      <formula>NOT(ISERROR(SEARCH("Pass",D16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
     <cfRule type="containsText" dxfId="203" priority="274" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D15)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D16)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="202" priority="275" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D15)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D16)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="201" priority="276" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
+      <formula>NOT(ISERROR(SEARCH("Pass",D16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
     <cfRule type="cellIs" dxfId="200" priority="259" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -3841,29 +3987,29 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
+  <conditionalFormatting sqref="D17">
     <cfRule type="containsText" dxfId="197" priority="262" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D16)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D17)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="196" priority="263" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D16)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D17)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="195" priority="264" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
+      <formula>NOT(ISERROR(SEARCH("Pass",D17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
     <cfRule type="containsText" dxfId="194" priority="265" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D16)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D17)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="193" priority="266" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D16)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D17)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="192" priority="267" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
+      <formula>NOT(ISERROR(SEARCH("Pass",D17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
     <cfRule type="cellIs" dxfId="191" priority="250" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -3874,172 +4020,172 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="containsText" dxfId="188" priority="253" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="187" priority="254" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="255" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="containsText" dxfId="185" priority="256" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="184" priority="257" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="183" priority="258" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="182" priority="241" operator="equal">
+  <conditionalFormatting sqref="D18">
+    <cfRule type="containsText" dxfId="188" priority="244" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="187" priority="245" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="186" priority="246" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="containsText" dxfId="185" priority="247" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="184" priority="248" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="183" priority="249" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="containsText" dxfId="182" priority="229" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="181" priority="230" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="180" priority="231" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="containsText" dxfId="179" priority="232" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="178" priority="233" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="177" priority="234" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="containsText" dxfId="176" priority="223" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="175" priority="224" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="174" priority="225" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="containsText" dxfId="173" priority="226" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="172" priority="227" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="171" priority="228" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="170" priority="217" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="169" priority="218" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="168" priority="219" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="167" priority="220" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="166" priority="221" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="165" priority="222" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="164" priority="211" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="163" priority="212" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="162" priority="213" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="161" priority="214" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="160" priority="215" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="159" priority="216" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="containsText" dxfId="158" priority="205" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="157" priority="206" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="156" priority="207" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="containsText" dxfId="155" priority="208" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="154" priority="209" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="153" priority="210" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="cellIs" dxfId="152" priority="202" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="242" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="203" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="243" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="204" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="containsText" dxfId="179" priority="235" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="236" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="177" priority="237" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="containsText" dxfId="176" priority="238" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="175" priority="239" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="240" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="173" priority="220" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="221" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="222" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="170" priority="223" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="169" priority="224" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="225" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="167" priority="214" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="215" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="216" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="164" priority="217" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="163" priority="218" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="219" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="161" priority="208" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="209" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="210" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="158" priority="211" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="212" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="213" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="155" priority="202" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="203" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="204" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="152" priority="205" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="151" priority="206" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="207" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="149" priority="196" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="197" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="198" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="146" priority="199" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="145" priority="200" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="201" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="149" priority="199" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="200" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="147" priority="201" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="cellIs" dxfId="146" priority="196" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="197" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="198" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
     <cfRule type="cellIs" dxfId="143" priority="193" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -4050,7 +4196,7 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="cellIs" dxfId="140" priority="190" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -4061,7 +4207,7 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E19">
     <cfRule type="cellIs" dxfId="137" priority="187" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -4072,29 +4218,29 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="134" priority="184" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="185" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="186" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="131" priority="181" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="182" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="183" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
+  <conditionalFormatting sqref="D19">
+    <cfRule type="containsText" dxfId="134" priority="181" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="133" priority="182" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="132" priority="183" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="containsText" dxfId="131" priority="184" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="130" priority="185" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="129" priority="186" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
     <cfRule type="cellIs" dxfId="128" priority="178" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -4105,29 +4251,29 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
+  <conditionalFormatting sqref="D20">
     <cfRule type="containsText" dxfId="125" priority="172" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D19)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D20)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="124" priority="173" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D19)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D20)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="123" priority="174" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
+      <formula>NOT(ISERROR(SEARCH("Pass",D20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
     <cfRule type="containsText" dxfId="122" priority="175" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D19)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D20)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="121" priority="176" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D19)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D20)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="120" priority="177" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
+      <formula>NOT(ISERROR(SEARCH("Pass",D20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
     <cfRule type="cellIs" dxfId="119" priority="169" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -4138,29 +4284,29 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
+  <conditionalFormatting sqref="D21">
     <cfRule type="containsText" dxfId="116" priority="163" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D20)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D21)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="115" priority="164" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D20)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D21)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="114" priority="165" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
+      <formula>NOT(ISERROR(SEARCH("Pass",D21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
     <cfRule type="containsText" dxfId="113" priority="166" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D20)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D21)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="112" priority="167" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D20)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D21)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="111" priority="168" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
+      <formula>NOT(ISERROR(SEARCH("Pass",D21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
     <cfRule type="cellIs" dxfId="110" priority="160" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -4171,29 +4317,29 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
+  <conditionalFormatting sqref="D22:D25 D28:D30">
     <cfRule type="containsText" dxfId="107" priority="154" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D21)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D22)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="106" priority="155" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D21)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D22)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="105" priority="156" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
+      <formula>NOT(ISERROR(SEARCH("Pass",D22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:D25 D28:D30">
     <cfRule type="containsText" dxfId="104" priority="157" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D21)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D22)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="103" priority="158" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D21)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D22)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="102" priority="159" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
+      <formula>NOT(ISERROR(SEARCH("Pass",D22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
     <cfRule type="cellIs" dxfId="101" priority="151" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -4204,161 +4350,161 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22:D25 D28:D30">
-    <cfRule type="containsText" dxfId="98" priority="145" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="146" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="147" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D22)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22:D25 D28:D30">
-    <cfRule type="containsText" dxfId="95" priority="148" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="149" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="150" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D22)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="92" priority="142" operator="equal">
+  <conditionalFormatting sqref="E28:E30">
+    <cfRule type="cellIs" dxfId="98" priority="115" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="116" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="117" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28:E30">
-    <cfRule type="cellIs" dxfId="89" priority="106" operator="equal">
+  <conditionalFormatting sqref="E24">
+    <cfRule type="cellIs" dxfId="95" priority="106" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="107" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="108" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="86" priority="97" operator="equal">
+  <conditionalFormatting sqref="E25">
+    <cfRule type="cellIs" dxfId="92" priority="97" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="98" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="99" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="83" priority="88" operator="equal">
+  <conditionalFormatting sqref="E8:E14">
+    <cfRule type="cellIs" dxfId="89" priority="73" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="74" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="75" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E14">
-    <cfRule type="cellIs" dxfId="80" priority="64" operator="equal">
+  <conditionalFormatting sqref="D7">
+    <cfRule type="containsText" dxfId="86" priority="85" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="85" priority="86" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="84" priority="87" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="containsText" dxfId="83" priority="88" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="82" priority="89" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="81" priority="90" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="80" priority="82" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="83" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="84" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
+  <conditionalFormatting sqref="D8:D14">
     <cfRule type="containsText" dxfId="77" priority="76" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="76" priority="77" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="75" priority="78" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
+      <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:D14">
     <cfRule type="containsText" dxfId="74" priority="79" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="73" priority="80" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="72" priority="81" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="71" priority="73" operator="equal">
+      <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:D27">
+    <cfRule type="containsText" dxfId="71" priority="67" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="70" priority="68" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="69" priority="69" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:D27">
+    <cfRule type="containsText" dxfId="68" priority="70" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="67" priority="71" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="66" priority="72" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26:E27">
+    <cfRule type="cellIs" dxfId="65" priority="64" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="65" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="66" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D14">
-    <cfRule type="containsText" dxfId="68" priority="67" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="68" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="69" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D14">
-    <cfRule type="containsText" dxfId="65" priority="70" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="71" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="72" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26:D27">
+  <conditionalFormatting sqref="D31">
     <cfRule type="containsText" dxfId="62" priority="58" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D26)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D31)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="61" priority="59" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D26)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D31)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="60" priority="60" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26:D27">
+      <formula>NOT(ISERROR(SEARCH("Pass",D31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
     <cfRule type="containsText" dxfId="59" priority="61" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D26)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D31)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="58" priority="62" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D26)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D31)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="57" priority="63" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26:E27">
+      <formula>NOT(ISERROR(SEARCH("Pass",D31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
     <cfRule type="cellIs" dxfId="56" priority="55" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -4369,29 +4515,29 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="D32">
     <cfRule type="containsText" dxfId="53" priority="49" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D31)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D32)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="52" priority="50" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D31)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D32)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="51" priority="51" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+      <formula>NOT(ISERROR(SEARCH("Pass",D32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
     <cfRule type="containsText" dxfId="50" priority="52" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D31)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D32)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="49" priority="53" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D31)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D32)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="48" priority="54" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
+      <formula>NOT(ISERROR(SEARCH("Pass",D32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
     <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -4402,29 +4548,29 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+  <conditionalFormatting sqref="D33">
     <cfRule type="containsText" dxfId="44" priority="40" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D32)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D33)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="43" priority="41" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D32)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D33)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="42" priority="42" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+      <formula>NOT(ISERROR(SEARCH("Pass",D33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
     <cfRule type="containsText" dxfId="41" priority="43" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D32)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D33)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="40" priority="44" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D32)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D33)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="39" priority="45" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
+      <formula>NOT(ISERROR(SEARCH("Pass",D33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
     <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -4435,29 +4581,29 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
+  <conditionalFormatting sqref="D34">
     <cfRule type="containsText" dxfId="35" priority="31" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D33)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D34)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="34" priority="32" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D33)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D34)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="33" priority="33" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
+      <formula>NOT(ISERROR(SEARCH("Pass",D34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
     <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D33)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D34)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="31" priority="35" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D33)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D34)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="30" priority="36" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
+      <formula>NOT(ISERROR(SEARCH("Pass",D34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
     <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -4468,29 +4614,29 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
+  <conditionalFormatting sqref="D35">
     <cfRule type="containsText" dxfId="26" priority="22" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D34)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D35)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="25" priority="23" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D34)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D35)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="24" priority="24" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
+      <formula>NOT(ISERROR(SEARCH("Pass",D35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
     <cfRule type="containsText" dxfId="23" priority="25" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D34)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D35)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="22" priority="26" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D34)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D35)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="21" priority="27" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
+      <formula>NOT(ISERROR(SEARCH("Pass",D35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
     <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -4501,29 +4647,29 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
+  <conditionalFormatting sqref="D36">
     <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D35)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D36)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D35)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D36)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
+      <formula>NOT(ISERROR(SEARCH("Pass",D36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
     <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D35)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D36)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D35)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D36)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
+      <formula>NOT(ISERROR(SEARCH("Pass",D36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -4534,29 +4680,29 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
+  <conditionalFormatting sqref="D37">
     <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D36)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D37)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D36)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D37)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
+      <formula>NOT(ISERROR(SEARCH("Pass",D37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
     <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D36)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D37)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D36)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D37)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
+      <formula>NOT(ISERROR(SEARCH("Pass",D37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -4572,11 +4718,11 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C36" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C37" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E36" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E37" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"High,Low"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Navatar_Projects\einstein-code-version-2-pe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akul Bhutani\git\einstein-code-version-2-pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BC41F9-EFE5-48EE-B1CD-B6A2600E44D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" tabRatio="500" windowHeight="11160" windowWidth="20730" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Modules" sheetId="1" r:id="rId1"/>
-    <sheet name="TestCases" sheetId="10" r:id="rId2"/>
-    <sheet name="Users" sheetId="3" r:id="rId3"/>
+    <sheet name="Modules" r:id="rId1" sheetId="1"/>
+    <sheet name="TestCases" r:id="rId2" sheetId="10"/>
+    <sheet name="Users" r:id="rId3" sheetId="3"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="85">
   <si>
     <t>Module_Name</t>
   </si>
@@ -246,12 +245,49 @@
   </si>
   <si>
     <t>FSTc009_changeTheFieldPositionAndCheckImpact</t>
+  </si>
+  <si>
+    <t>TWtc012_AddContactFromWatchlistContactAndVerifyImpact</t>
+  </si>
+  <si>
+    <t>TWtc013_AddContactFromWatchlistContactAndVerifyImpact</t>
+  </si>
+  <si>
+    <t>TWtc014_SetStatusAsWatchlistAndVerifyImpact</t>
+  </si>
+  <si>
+    <t>TWtc015_SaveTaskAgainAndVerifyImpact</t>
+  </si>
+  <si>
+    <t>TWtc016_CreateNewTaskWithWatchlistAndVerifyImpact</t>
+  </si>
+  <si>
+    <t>TWtc017_AddWatchlistContactInStandardTask</t>
+  </si>
+  <si>
+    <t>TWtc018_EnableContactTransfer</t>
+  </si>
+  <si>
+    <t>TWtc019_TransferContact_Action</t>
+  </si>
+  <si>
+    <t>TWtc019_TransferContact_Impact</t>
+  </si>
+  <si>
+    <t>TWtc020_1_UpdateWatchlistLabels_Action</t>
+  </si>
+  <si>
+    <t>TWtc020_2_UpdateWatchlistLabels_Action</t>
+  </si>
+  <si>
+    <t>TWtc021_DeleteContactAndVerifyImpact</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -424,60 +460,96 @@
     </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyBorder="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyBorder="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="3" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="6" fillId="3" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="4" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle name="Hyperlink 2" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal 2" xfId="3"/>
   </cellStyles>
-  <dxfs count="223">
+  <dxfs count="229">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -506,6 +578,33 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2892,7 +2991,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -2977,10 +3076,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -3015,7 +3114,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3050,7 +3149,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3144,21 +3243,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -3175,7 +3274,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -3227,29 +3326,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="H1:J4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="8.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="8.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="1025" width="8.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="7" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="10" max="1025" customWidth="true" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="8:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="1" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3257,23 +3356,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="2" spans="8:9" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H2" s="2" t="s">
         <v>64</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row ht="15.75" r="3" spans="8:9" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row ht="15.75" r="4" spans="8:9" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H4" s="2" t="s">
         <v>30</v>
       </c>
@@ -3283,54 +3382,54 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2:I3">
-    <cfRule type="cellIs" dxfId="222" priority="6" operator="equal">
+    <cfRule dxfId="228" operator="equal" priority="6" type="cellIs">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I3">
-    <cfRule type="cellIs" dxfId="221" priority="7" operator="equal">
+    <cfRule dxfId="227" operator="equal" priority="7" type="cellIs">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="220" priority="1" operator="equal">
+    <cfRule dxfId="226" operator="equal" priority="1" type="cellIs">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="219" priority="2" operator="equal">
+    <cfRule dxfId="225" operator="equal" priority="2" type="cellIs">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2:I4" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="I2:I4" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C4:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="87.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="87.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="18" r="1" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -3347,7 +3446,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="2" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>36</v>
       </c>
@@ -3362,7 +3461,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="3" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>37</v>
       </c>
@@ -3377,7 +3476,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="4" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>38</v>
       </c>
@@ -3392,7 +3491,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="5" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>39</v>
       </c>
@@ -3407,7 +3506,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="6" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>40</v>
       </c>
@@ -3422,7 +3521,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="7" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>52</v>
       </c>
@@ -3437,7 +3536,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="8" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>53</v>
       </c>
@@ -3452,7 +3551,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="9" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>54</v>
       </c>
@@ -3467,7 +3566,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="10" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>55</v>
       </c>
@@ -3482,7 +3581,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="11" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>56</v>
       </c>
@@ -3497,7 +3596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="12" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>57</v>
       </c>
@@ -3512,7 +3611,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="13" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>58</v>
       </c>
@@ -3527,7 +3626,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="14" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>59</v>
       </c>
@@ -3542,13 +3641,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="8">
-        <v>1</v>
-      </c>
+    <row ht="15.75" r="15" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="8"/>
       <c r="C15" s="3" t="s">
         <v>7</v>
       </c>
@@ -3559,13 +3656,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="16" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="8">
-        <v>1</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B16" s="8"/>
       <c r="C16" s="3" t="s">
         <v>7</v>
       </c>
@@ -3576,13 +3671,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="17" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="8">
-        <v>1</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="B17" s="8"/>
       <c r="C17" s="3" t="s">
         <v>7</v>
       </c>
@@ -3593,13 +3686,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="18" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="8">
-        <v>1</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="B18" s="8"/>
       <c r="C18" s="3" t="s">
         <v>7</v>
       </c>
@@ -3610,13 +3701,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="19" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="8">
-        <v>1</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="B19" s="8"/>
       <c r="C19" s="3" t="s">
         <v>7</v>
       </c>
@@ -3627,13 +3716,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="20" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="8">
-        <v>1</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="B20" s="8"/>
       <c r="C20" s="3" t="s">
         <v>7</v>
       </c>
@@ -3644,13 +3731,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="21" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="8">
-        <v>1</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B21" s="8"/>
       <c r="C21" s="3" t="s">
         <v>7</v>
       </c>
@@ -3661,15 +3746,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="22" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="8">
-        <v>1</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B22" s="8"/>
       <c r="C22" s="3" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="D22" t="s">
         <v>8</v>
@@ -3678,13 +3761,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="23" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="8">
-        <v>1</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B23" s="8"/>
       <c r="C23" s="3" t="s">
         <v>7</v>
       </c>
@@ -3695,13 +3776,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="24" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="8">
-        <v>1</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="B24" s="8"/>
       <c r="C24" s="3" t="s">
         <v>7</v>
       </c>
@@ -3712,13 +3791,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="25" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="8">
-        <v>1</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="B25" s="8"/>
       <c r="C25" s="3" t="s">
         <v>7</v>
       </c>
@@ -3729,9 +3806,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="26" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="3" t="s">
@@ -3744,11 +3821,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="8"/>
+    <row ht="15.75" r="27" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="8">
+        <v>1</v>
+      </c>
       <c r="C27" s="3" t="s">
         <v>7</v>
       </c>
@@ -3759,12 +3838,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="14" t="s">
+    <row ht="15.75" r="28" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="8">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D28" t="s">
@@ -3774,12 +3855,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="29" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="8">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D29" t="s">
@@ -3789,12 +3872,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="30" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="8">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D30" t="s">
@@ -3804,12 +3889,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="31" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="8">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D31" t="s">
@@ -3819,12 +3906,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="32" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="8">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D32" t="s">
@@ -3834,12 +3923,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="33" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="8">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D33" t="s">
@@ -3849,13 +3940,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="34" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="14" t="s">
-        <v>7</v>
+        <v>45</v>
+      </c>
+      <c r="B34" s="8">
+        <v>1</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
@@ -3864,12 +3957,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="35" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="8">
+        <v>1</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D35" t="s">
@@ -3879,12 +3974,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="36" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="8">
+        <v>1</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D36" t="s">
@@ -3894,857 +3991,1006 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="37" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="8">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>9</v>
       </c>
     </row>
+    <row customHeight="1" ht="15" r="38" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="39" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="40" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="41" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="42" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="43" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="8"/>
+      <c r="C43" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="44" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="45" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="46" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" s="8"/>
+      <c r="C46" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="47" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" s="8"/>
+      <c r="C47" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="48" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" s="8"/>
+      <c r="C48" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="49" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="218" priority="277" operator="equal">
+  <conditionalFormatting sqref="E28">
+    <cfRule dxfId="215" operator="equal" priority="268" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="278" operator="equal">
+    <cfRule dxfId="214" operator="equal" priority="269" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="279" operator="equal">
+    <cfRule dxfId="213" operator="equal" priority="270" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="containsText" dxfId="215" priority="280" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="214" priority="281" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="213" priority="282" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="containsText" dxfId="212" priority="283" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="211" priority="284" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="210" priority="285" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="209" priority="268" operator="equal">
+  <conditionalFormatting sqref="D28">
+    <cfRule dxfId="212" operator="containsText" priority="271" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D28)))</formula>
+    </cfRule>
+    <cfRule dxfId="211" operator="containsText" priority="272" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D28)))</formula>
+    </cfRule>
+    <cfRule dxfId="210" operator="containsText" priority="273" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
+    <cfRule dxfId="209" operator="containsText" priority="274" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D28)))</formula>
+    </cfRule>
+    <cfRule dxfId="208" operator="containsText" priority="275" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D28)))</formula>
+    </cfRule>
+    <cfRule dxfId="207" operator="containsText" priority="276" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule dxfId="206" operator="equal" priority="259" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="269" operator="equal">
+    <cfRule dxfId="205" operator="equal" priority="260" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="270" operator="equal">
+    <cfRule dxfId="204" operator="equal" priority="261" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="containsText" dxfId="206" priority="271" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="205" priority="272" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="204" priority="273" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="containsText" dxfId="203" priority="274" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="202" priority="275" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="276" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="200" priority="259" operator="equal">
+  <conditionalFormatting sqref="D29">
+    <cfRule dxfId="203" operator="containsText" priority="262" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D29)))</formula>
+    </cfRule>
+    <cfRule dxfId="202" operator="containsText" priority="263" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D29)))</formula>
+    </cfRule>
+    <cfRule dxfId="201" operator="containsText" priority="264" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule dxfId="200" operator="containsText" priority="265" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D29)))</formula>
+    </cfRule>
+    <cfRule dxfId="199" operator="containsText" priority="266" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D29)))</formula>
+    </cfRule>
+    <cfRule dxfId="198" operator="containsText" priority="267" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule dxfId="197" operator="equal" priority="250" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="260" operator="equal">
+    <cfRule dxfId="196" operator="equal" priority="251" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="261" operator="equal">
+    <cfRule dxfId="195" operator="equal" priority="252" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="containsText" dxfId="197" priority="262" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="196" priority="263" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="195" priority="264" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="containsText" dxfId="194" priority="265" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="193" priority="266" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="192" priority="267" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="191" priority="250" operator="equal">
+  <conditionalFormatting sqref="D30">
+    <cfRule dxfId="194" operator="containsText" priority="244" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D30)))</formula>
+    </cfRule>
+    <cfRule dxfId="193" operator="containsText" priority="245" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D30)))</formula>
+    </cfRule>
+    <cfRule dxfId="192" operator="containsText" priority="246" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule dxfId="191" operator="containsText" priority="247" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D30)))</formula>
+    </cfRule>
+    <cfRule dxfId="190" operator="containsText" priority="248" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D30)))</formula>
+    </cfRule>
+    <cfRule dxfId="189" operator="containsText" priority="249" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule dxfId="188" operator="containsText" priority="229" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
+    </cfRule>
+    <cfRule dxfId="187" operator="containsText" priority="230" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
+    </cfRule>
+    <cfRule dxfId="186" operator="containsText" priority="231" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule dxfId="185" operator="containsText" priority="232" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
+    </cfRule>
+    <cfRule dxfId="184" operator="containsText" priority="233" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
+    </cfRule>
+    <cfRule dxfId="183" operator="containsText" priority="234" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule dxfId="182" operator="containsText" priority="223" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
+    </cfRule>
+    <cfRule dxfId="181" operator="containsText" priority="224" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
+    </cfRule>
+    <cfRule dxfId="180" operator="containsText" priority="225" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule dxfId="179" operator="containsText" priority="226" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
+    </cfRule>
+    <cfRule dxfId="178" operator="containsText" priority="227" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
+    </cfRule>
+    <cfRule dxfId="177" operator="containsText" priority="228" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule dxfId="176" operator="containsText" priority="217" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
+    </cfRule>
+    <cfRule dxfId="175" operator="containsText" priority="218" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
+    </cfRule>
+    <cfRule dxfId="174" operator="containsText" priority="219" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule dxfId="173" operator="containsText" priority="220" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
+    </cfRule>
+    <cfRule dxfId="172" operator="containsText" priority="221" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
+    </cfRule>
+    <cfRule dxfId="171" operator="containsText" priority="222" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule dxfId="170" operator="containsText" priority="211" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
+    </cfRule>
+    <cfRule dxfId="169" operator="containsText" priority="212" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
+    </cfRule>
+    <cfRule dxfId="168" operator="containsText" priority="213" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule dxfId="167" operator="containsText" priority="214" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
+    </cfRule>
+    <cfRule dxfId="166" operator="containsText" priority="215" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
+    </cfRule>
+    <cfRule dxfId="165" operator="containsText" priority="216" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule dxfId="164" operator="containsText" priority="205" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
+    </cfRule>
+    <cfRule dxfId="163" operator="containsText" priority="206" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
+    </cfRule>
+    <cfRule dxfId="162" operator="containsText" priority="207" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule dxfId="161" operator="containsText" priority="208" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
+    </cfRule>
+    <cfRule dxfId="160" operator="containsText" priority="209" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
+    </cfRule>
+    <cfRule dxfId="159" operator="containsText" priority="210" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule dxfId="158" operator="equal" priority="202" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="251" operator="equal">
+    <cfRule dxfId="157" operator="equal" priority="203" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="252" operator="equal">
+    <cfRule dxfId="156" operator="equal" priority="204" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="containsText" dxfId="188" priority="244" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="187" priority="245" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="246" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="containsText" dxfId="185" priority="247" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="184" priority="248" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="183" priority="249" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="182" priority="229" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="181" priority="230" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="180" priority="231" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="179" priority="232" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="233" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="177" priority="234" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="176" priority="223" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="175" priority="224" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="225" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="173" priority="226" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="227" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="228" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="170" priority="217" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="169" priority="218" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="219" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="167" priority="220" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="221" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="222" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="164" priority="211" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="163" priority="212" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="213" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="161" priority="214" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="215" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="216" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="158" priority="205" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="206" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="207" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="155" priority="208" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="209" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="210" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" dxfId="152" priority="202" operator="equal">
+  <conditionalFormatting sqref="E3">
+    <cfRule dxfId="155" operator="equal" priority="199" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="203" operator="equal">
+    <cfRule dxfId="154" operator="equal" priority="200" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="204" operator="equal">
+    <cfRule dxfId="153" operator="equal" priority="201" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="149" priority="199" operator="equal">
+  <conditionalFormatting sqref="E4">
+    <cfRule dxfId="152" operator="equal" priority="196" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="200" operator="equal">
+    <cfRule dxfId="151" operator="equal" priority="197" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="201" operator="equal">
+    <cfRule dxfId="150" operator="equal" priority="198" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="146" priority="196" operator="equal">
+  <conditionalFormatting sqref="E5">
+    <cfRule dxfId="149" operator="equal" priority="193" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="197" operator="equal">
+    <cfRule dxfId="148" operator="equal" priority="194" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="198" operator="equal">
+    <cfRule dxfId="147" operator="equal" priority="195" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="143" priority="193" operator="equal">
+  <conditionalFormatting sqref="E6">
+    <cfRule dxfId="146" operator="equal" priority="190" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="194" operator="equal">
+    <cfRule dxfId="145" operator="equal" priority="191" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="195" operator="equal">
+    <cfRule dxfId="144" operator="equal" priority="192" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="140" priority="190" operator="equal">
+  <conditionalFormatting sqref="E31">
+    <cfRule dxfId="143" operator="equal" priority="187" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="191" operator="equal">
+    <cfRule dxfId="142" operator="equal" priority="188" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="192" operator="equal">
+    <cfRule dxfId="141" operator="equal" priority="189" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="137" priority="187" operator="equal">
+  <conditionalFormatting sqref="D31">
+    <cfRule dxfId="140" operator="containsText" priority="181" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D31)))</formula>
+    </cfRule>
+    <cfRule dxfId="139" operator="containsText" priority="182" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D31)))</formula>
+    </cfRule>
+    <cfRule dxfId="138" operator="containsText" priority="183" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule dxfId="137" operator="containsText" priority="184" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D31)))</formula>
+    </cfRule>
+    <cfRule dxfId="136" operator="containsText" priority="185" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D31)))</formula>
+    </cfRule>
+    <cfRule dxfId="135" operator="containsText" priority="186" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule dxfId="134" operator="equal" priority="178" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="188" operator="equal">
+    <cfRule dxfId="133" operator="equal" priority="179" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="189" operator="equal">
+    <cfRule dxfId="132" operator="equal" priority="180" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="containsText" dxfId="134" priority="181" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="182" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="183" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="containsText" dxfId="131" priority="184" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="185" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="186" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="128" priority="178" operator="equal">
+  <conditionalFormatting sqref="D32">
+    <cfRule dxfId="131" operator="containsText" priority="172" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D32)))</formula>
+    </cfRule>
+    <cfRule dxfId="130" operator="containsText" priority="173" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D32)))</formula>
+    </cfRule>
+    <cfRule dxfId="129" operator="containsText" priority="174" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule dxfId="128" operator="containsText" priority="175" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D32)))</formula>
+    </cfRule>
+    <cfRule dxfId="127" operator="containsText" priority="176" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D32)))</formula>
+    </cfRule>
+    <cfRule dxfId="126" operator="containsText" priority="177" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule dxfId="125" operator="equal" priority="169" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="179" operator="equal">
+    <cfRule dxfId="124" operator="equal" priority="170" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="180" operator="equal">
+    <cfRule dxfId="123" operator="equal" priority="171" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="containsText" dxfId="125" priority="172" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="173" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="174" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="containsText" dxfId="122" priority="175" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="176" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="177" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="119" priority="169" operator="equal">
+  <conditionalFormatting sqref="D33">
+    <cfRule dxfId="122" operator="containsText" priority="163" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D33)))</formula>
+    </cfRule>
+    <cfRule dxfId="121" operator="containsText" priority="164" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D33)))</formula>
+    </cfRule>
+    <cfRule dxfId="120" operator="containsText" priority="165" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule dxfId="119" operator="containsText" priority="166" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D33)))</formula>
+    </cfRule>
+    <cfRule dxfId="118" operator="containsText" priority="167" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D33)))</formula>
+    </cfRule>
+    <cfRule dxfId="117" operator="containsText" priority="168" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule dxfId="116" operator="equal" priority="160" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="170" operator="equal">
+    <cfRule dxfId="115" operator="equal" priority="161" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="171" operator="equal">
+    <cfRule dxfId="114" operator="equal" priority="162" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
-    <cfRule type="containsText" dxfId="116" priority="163" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="164" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="165" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
-    <cfRule type="containsText" dxfId="113" priority="166" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="167" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="168" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="110" priority="160" operator="equal">
+  <conditionalFormatting sqref="D34:D37 D40:D42">
+    <cfRule dxfId="113" operator="containsText" priority="154" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D34)))</formula>
+    </cfRule>
+    <cfRule dxfId="112" operator="containsText" priority="155" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D34)))</formula>
+    </cfRule>
+    <cfRule dxfId="111" operator="containsText" priority="156" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34:D37 D40:D42">
+    <cfRule dxfId="110" operator="containsText" priority="157" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D34)))</formula>
+    </cfRule>
+    <cfRule dxfId="109" operator="containsText" priority="158" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D34)))</formula>
+    </cfRule>
+    <cfRule dxfId="108" operator="containsText" priority="159" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule dxfId="107" operator="equal" priority="151" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="161" operator="equal">
+    <cfRule dxfId="106" operator="equal" priority="152" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="162" operator="equal">
+    <cfRule dxfId="105" operator="equal" priority="153" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22:D25 D28:D30">
-    <cfRule type="containsText" dxfId="107" priority="154" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="155" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="156" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D22)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22:D25 D28:D30">
-    <cfRule type="containsText" dxfId="104" priority="157" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="158" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="159" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D22)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="101" priority="151" operator="equal">
+  <conditionalFormatting sqref="E40:E42">
+    <cfRule dxfId="104" operator="equal" priority="115" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="152" operator="equal">
+    <cfRule dxfId="103" operator="equal" priority="116" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="153" operator="equal">
+    <cfRule dxfId="102" operator="equal" priority="117" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28:E30">
-    <cfRule type="cellIs" dxfId="98" priority="115" operator="equal">
+  <conditionalFormatting sqref="E36">
+    <cfRule dxfId="101" operator="equal" priority="106" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="116" operator="equal">
+    <cfRule dxfId="100" operator="equal" priority="107" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="117" operator="equal">
+    <cfRule dxfId="99" operator="equal" priority="108" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="95" priority="106" operator="equal">
+  <conditionalFormatting sqref="E37">
+    <cfRule dxfId="98" operator="equal" priority="97" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="107" operator="equal">
+    <cfRule dxfId="97" operator="equal" priority="98" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="108" operator="equal">
+    <cfRule dxfId="96" operator="equal" priority="99" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="92" priority="97" operator="equal">
+  <conditionalFormatting sqref="E8:E27">
+    <cfRule dxfId="95" operator="equal" priority="73" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="98" operator="equal">
+    <cfRule dxfId="94" operator="equal" priority="74" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="99" operator="equal">
+    <cfRule dxfId="93" operator="equal" priority="75" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E14">
-    <cfRule type="cellIs" dxfId="89" priority="73" operator="equal">
+  <conditionalFormatting sqref="D7">
+    <cfRule dxfId="92" operator="containsText" priority="85" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
+    </cfRule>
+    <cfRule dxfId="91" operator="containsText" priority="86" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
+    </cfRule>
+    <cfRule dxfId="90" operator="containsText" priority="87" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule dxfId="89" operator="containsText" priority="88" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
+    </cfRule>
+    <cfRule dxfId="88" operator="containsText" priority="89" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
+    </cfRule>
+    <cfRule dxfId="87" operator="containsText" priority="90" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule dxfId="86" operator="equal" priority="82" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="74" operator="equal">
+    <cfRule dxfId="85" operator="equal" priority="83" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="75" operator="equal">
+    <cfRule dxfId="84" operator="equal" priority="84" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="86" priority="85" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="86" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="87" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="83" priority="88" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="89" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="90" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="80" priority="82" operator="equal">
+  <conditionalFormatting sqref="D8:D27">
+    <cfRule dxfId="83" operator="containsText" priority="76" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
+    </cfRule>
+    <cfRule dxfId="82" operator="containsText" priority="77" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
+    </cfRule>
+    <cfRule dxfId="81" operator="containsText" priority="78" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:D27">
+    <cfRule dxfId="80" operator="containsText" priority="79" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
+    </cfRule>
+    <cfRule dxfId="79" operator="containsText" priority="80" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
+    </cfRule>
+    <cfRule dxfId="78" operator="containsText" priority="81" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38:D39">
+    <cfRule dxfId="77" operator="containsText" priority="67" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D38)))</formula>
+    </cfRule>
+    <cfRule dxfId="76" operator="containsText" priority="68" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D38)))</formula>
+    </cfRule>
+    <cfRule dxfId="75" operator="containsText" priority="69" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38:D39">
+    <cfRule dxfId="74" operator="containsText" priority="70" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D38)))</formula>
+    </cfRule>
+    <cfRule dxfId="73" operator="containsText" priority="71" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D38)))</formula>
+    </cfRule>
+    <cfRule dxfId="72" operator="containsText" priority="72" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38:E39">
+    <cfRule dxfId="71" operator="equal" priority="64" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="83" operator="equal">
+    <cfRule dxfId="70" operator="equal" priority="65" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="84" operator="equal">
+    <cfRule dxfId="69" operator="equal" priority="66" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D14">
-    <cfRule type="containsText" dxfId="77" priority="76" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="77" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="78" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D14">
-    <cfRule type="containsText" dxfId="74" priority="79" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="80" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="81" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26:D27">
-    <cfRule type="containsText" dxfId="71" priority="67" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D26)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="68" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D26)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="69" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26:D27">
-    <cfRule type="containsText" dxfId="68" priority="70" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D26)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="71" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D26)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="72" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26:E27">
-    <cfRule type="cellIs" dxfId="65" priority="64" operator="equal">
+  <conditionalFormatting sqref="D43">
+    <cfRule dxfId="68" operator="containsText" priority="58" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D43)))</formula>
+    </cfRule>
+    <cfRule dxfId="67" operator="containsText" priority="59" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D43)))</formula>
+    </cfRule>
+    <cfRule dxfId="66" operator="containsText" priority="60" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D43)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43">
+    <cfRule dxfId="65" operator="containsText" priority="61" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D43)))</formula>
+    </cfRule>
+    <cfRule dxfId="64" operator="containsText" priority="62" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D43)))</formula>
+    </cfRule>
+    <cfRule dxfId="63" operator="containsText" priority="63" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D43)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule dxfId="62" operator="equal" priority="55" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="65" operator="equal">
+    <cfRule dxfId="61" operator="equal" priority="56" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="66" operator="equal">
+    <cfRule dxfId="60" operator="equal" priority="57" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="containsText" dxfId="62" priority="58" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D31)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="59" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D31)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="60" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="containsText" dxfId="59" priority="61" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D31)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="62" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D31)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="63" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="56" priority="55" operator="equal">
+  <conditionalFormatting sqref="D44">
+    <cfRule dxfId="59" operator="containsText" priority="49" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D44)))</formula>
+    </cfRule>
+    <cfRule dxfId="58" operator="containsText" priority="50" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D44)))</formula>
+    </cfRule>
+    <cfRule dxfId="57" operator="containsText" priority="51" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D44)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44">
+    <cfRule dxfId="56" operator="containsText" priority="52" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D44)))</formula>
+    </cfRule>
+    <cfRule dxfId="55" operator="containsText" priority="53" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D44)))</formula>
+    </cfRule>
+    <cfRule dxfId="54" operator="containsText" priority="54" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D44)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule dxfId="53" operator="equal" priority="46" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="56" operator="equal">
+    <cfRule dxfId="52" operator="equal" priority="47" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="57" operator="equal">
+    <cfRule dxfId="51" operator="equal" priority="48" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="containsText" dxfId="53" priority="49" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="50" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="51" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="containsText" dxfId="50" priority="52" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="53" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="54" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
+  <conditionalFormatting sqref="D45">
+    <cfRule dxfId="50" operator="containsText" priority="40" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D45)))</formula>
+    </cfRule>
+    <cfRule dxfId="49" operator="containsText" priority="41" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D45)))</formula>
+    </cfRule>
+    <cfRule dxfId="48" operator="containsText" priority="42" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D45)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45">
+    <cfRule dxfId="47" operator="containsText" priority="43" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D45)))</formula>
+    </cfRule>
+    <cfRule dxfId="46" operator="containsText" priority="44" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D45)))</formula>
+    </cfRule>
+    <cfRule dxfId="45" operator="containsText" priority="45" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D45)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule dxfId="44" operator="equal" priority="37" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
+    <cfRule dxfId="43" operator="equal" priority="38" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="48" operator="equal">
+    <cfRule dxfId="42" operator="equal" priority="39" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="containsText" dxfId="44" priority="40" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D33)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="41" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D33)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="42" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="containsText" dxfId="41" priority="43" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D33)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="44" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D33)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="45" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
+  <conditionalFormatting sqref="D46">
+    <cfRule dxfId="41" operator="containsText" priority="31" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D46)))</formula>
+    </cfRule>
+    <cfRule dxfId="40" operator="containsText" priority="32" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D46)))</formula>
+    </cfRule>
+    <cfRule dxfId="39" operator="containsText" priority="33" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46">
+    <cfRule dxfId="38" operator="containsText" priority="34" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D46)))</formula>
+    </cfRule>
+    <cfRule dxfId="37" operator="containsText" priority="35" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D46)))</formula>
+    </cfRule>
+    <cfRule dxfId="36" operator="containsText" priority="36" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule dxfId="35" operator="equal" priority="28" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
+    <cfRule dxfId="34" operator="equal" priority="29" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="39" operator="equal">
+    <cfRule dxfId="33" operator="equal" priority="30" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="containsText" dxfId="35" priority="31" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="32" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="33" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="35" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="36" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
+  <conditionalFormatting sqref="D47">
+    <cfRule dxfId="32" operator="containsText" priority="22" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D47)))</formula>
+    </cfRule>
+    <cfRule dxfId="31" operator="containsText" priority="23" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D47)))</formula>
+    </cfRule>
+    <cfRule dxfId="30" operator="containsText" priority="24" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D47)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule dxfId="29" operator="containsText" priority="25" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D47)))</formula>
+    </cfRule>
+    <cfRule dxfId="28" operator="containsText" priority="26" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D47)))</formula>
+    </cfRule>
+    <cfRule dxfId="27" operator="containsText" priority="27" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D47)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule dxfId="26" operator="equal" priority="19" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+    <cfRule dxfId="25" operator="equal" priority="20" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
+    <cfRule dxfId="24" operator="equal" priority="21" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="containsText" dxfId="26" priority="22" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="23" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="24" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="containsText" dxfId="23" priority="25" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="26" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="27" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
+  <conditionalFormatting sqref="D48">
+    <cfRule dxfId="23" operator="containsText" priority="13" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D48)))</formula>
+    </cfRule>
+    <cfRule dxfId="22" operator="containsText" priority="14" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D48)))</formula>
+    </cfRule>
+    <cfRule dxfId="21" operator="containsText" priority="15" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48">
+    <cfRule dxfId="20" operator="containsText" priority="16" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D48)))</formula>
+    </cfRule>
+    <cfRule dxfId="19" operator="containsText" priority="17" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D48)))</formula>
+    </cfRule>
+    <cfRule dxfId="18" operator="containsText" priority="18" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule dxfId="17" operator="equal" priority="10" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+    <cfRule dxfId="16" operator="equal" priority="11" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
+    <cfRule dxfId="15" operator="equal" priority="12" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+  <conditionalFormatting sqref="D49">
+    <cfRule dxfId="14" operator="containsText" priority="4" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D49)))</formula>
+    </cfRule>
+    <cfRule dxfId="13" operator="containsText" priority="5" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D49)))</formula>
+    </cfRule>
+    <cfRule dxfId="12" operator="containsText" priority="6" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
+    <cfRule dxfId="11" operator="containsText" priority="7" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D49)))</formula>
+    </cfRule>
+    <cfRule dxfId="10" operator="containsText" priority="8" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D49)))</formula>
+    </cfRule>
+    <cfRule dxfId="9" operator="containsText" priority="9" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule dxfId="8" operator="equal" priority="1" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule dxfId="7" operator="equal" priority="2" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+    <cfRule dxfId="6" operator="equal" priority="3" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation showDropDown="1" showErrorMessage="1" showInputMessage="1" sqref="C1">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C37" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="C2:C49" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E37" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="E2:E49" type="list">
       <formula1>"High,Low"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AMK3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="D3" pane="bottomLeft" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="19" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="37.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="1025" width="19" customWidth="1" collapsed="1"/>
+    <col min="1" max="4" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="37.42578125" collapsed="true"/>
+    <col min="6" max="1025" customWidth="true" width="19.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -4827,9 +5073,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" display="javascript:srcUp(%27%2F0054x000001Z8z4%3Fnoredirect%3D1%26isUserEntityOverride%3D1%26isdtp%3Dp1%27);" xr:uid="{B90EC40D-7451-41E9-8B2E-CC1DDED80C77}"/>
+    <hyperlink display="javascript:srcUp(%27%2F0054x000001Z8z4%3Fnoredirect%3D1%26isUserEntityOverride%3D1%26isdtp%3Dp1%27);" r:id="rId1" ref="E3"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" r:id="rId2" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akul Bhutani\git\einstein-code-version-2-pe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Navatar_Projects\einstein-code-version-2-pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE92BF62-5761-4D48-9496-85DBB9B04611}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="11160" windowWidth="20730" xWindow="-120" yWindow="-120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Modules" r:id="rId1" sheetId="1"/>
-    <sheet name="TestCases" r:id="rId2" sheetId="10"/>
-    <sheet name="Users" r:id="rId3" sheetId="3"/>
+    <sheet name="Modules" sheetId="1" r:id="rId1"/>
+    <sheet name="TestCases" sheetId="10" r:id="rId2"/>
+    <sheet name="Users" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="88">
   <si>
     <t>Module_Name</t>
   </si>
@@ -235,9 +236,6 @@
     <t>User7708</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t>FSTc008_1_giveObjectPermissionFromObject</t>
   </si>
   <si>
@@ -281,13 +279,24 @@
   </si>
   <si>
     <t>TWtc021_DeleteContactAndVerifyImpact</t>
+  </si>
+  <si>
+    <t>FSTc010_createNewFieldWithMaxCharacterAndAddOnContactProfileComponent</t>
+  </si>
+  <si>
+    <t>FSTc011_AddingFiftyFieldsInCreatedFieldSet</t>
+  </si>
+  <si>
+    <t>FSTc012_CreatePreconditionDataForUploadImage</t>
+  </si>
+  <si>
+    <t>FSTc013_createFieldsForStandardObject</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -460,60 +469,87 @@
     </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyBorder="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyBorder="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="3" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="6" fillId="3" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="4" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle name="Hyperlink 2" xfId="2"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
-  <dxfs count="229">
+  <dxfs count="250">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -551,6 +587,42 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -578,6 +650,78 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -1370,6 +1514,33 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1541,6 +1712,78 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -1568,6 +1811,78 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -1676,6 +1991,33 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2864,105 +3206,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFABAB"/>
@@ -2991,7 +3234,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -3076,10 +3319,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -3114,7 +3357,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3149,7 +3392,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3243,21 +3486,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -3274,7 +3517,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -3326,29 +3569,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="H1:J4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMK4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="8.5703125" collapsed="true"/>
-    <col min="10" max="1025" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="1" max="7" width="8.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="8.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="1025" width="8.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15.75" r="1" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="8:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3356,7 +3599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row ht="15.75" r="2" spans="8:9" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H2" s="2" t="s">
         <v>64</v>
       </c>
@@ -3364,7 +3607,7 @@
         <v>7</v>
       </c>
     </row>
-    <row ht="15.75" r="3" spans="8:9" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H3" s="2" t="s">
         <v>29</v>
       </c>
@@ -3372,7 +3615,7 @@
         <v>35</v>
       </c>
     </row>
-    <row ht="15.75" r="4" spans="8:9" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H4" s="2" t="s">
         <v>30</v>
       </c>
@@ -3382,54 +3625,54 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2:I3">
-    <cfRule dxfId="228" operator="equal" priority="6" type="cellIs">
+    <cfRule type="cellIs" dxfId="249" priority="6" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I3">
-    <cfRule dxfId="227" operator="equal" priority="7" type="cellIs">
+    <cfRule type="cellIs" dxfId="248" priority="7" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule dxfId="226" operator="equal" priority="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="247" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule dxfId="225" operator="equal" priority="2" type="cellIs">
+    <cfRule type="cellIs" dxfId="246" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="I2:I4" type="list">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2:I4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C4:C5"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="87.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" width="87.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="18" r="1" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -3446,7 +3689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row ht="15.75" r="2" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>36</v>
       </c>
@@ -3461,7 +3704,7 @@
         <v>9</v>
       </c>
     </row>
-    <row ht="15.75" r="3" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>37</v>
       </c>
@@ -3476,7 +3719,7 @@
         <v>9</v>
       </c>
     </row>
-    <row ht="15.75" r="4" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>38</v>
       </c>
@@ -3491,7 +3734,7 @@
         <v>9</v>
       </c>
     </row>
-    <row ht="15.75" r="5" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>39</v>
       </c>
@@ -3506,7 +3749,7 @@
         <v>9</v>
       </c>
     </row>
-    <row ht="15.75" r="6" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>40</v>
       </c>
@@ -3521,7 +3764,7 @@
         <v>9</v>
       </c>
     </row>
-    <row ht="15.75" r="7" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>52</v>
       </c>
@@ -3536,7 +3779,7 @@
         <v>9</v>
       </c>
     </row>
-    <row ht="15.75" r="8" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>53</v>
       </c>
@@ -3551,7 +3794,7 @@
         <v>9</v>
       </c>
     </row>
-    <row ht="15.75" r="9" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>54</v>
       </c>
@@ -3566,7 +3809,7 @@
         <v>9</v>
       </c>
     </row>
-    <row ht="15.75" r="10" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>55</v>
       </c>
@@ -3581,7 +3824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row ht="15.75" r="11" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>56</v>
       </c>
@@ -3596,7 +3839,7 @@
         <v>9</v>
       </c>
     </row>
-    <row ht="15.75" r="12" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>57</v>
       </c>
@@ -3611,7 +3854,7 @@
         <v>9</v>
       </c>
     </row>
-    <row ht="15.75" r="13" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>58</v>
       </c>
@@ -3626,7 +3869,7 @@
         <v>9</v>
       </c>
     </row>
-    <row ht="15.75" r="14" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>59</v>
       </c>
@@ -3641,9 +3884,9 @@
         <v>9</v>
       </c>
     </row>
-    <row ht="15.75" r="15" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="3" t="s">
@@ -3656,9 +3899,9 @@
         <v>9</v>
       </c>
     </row>
-    <row ht="15.75" r="16" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="3" t="s">
@@ -3671,9 +3914,9 @@
         <v>9</v>
       </c>
     </row>
-    <row ht="15.75" r="17" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="3" t="s">
@@ -3686,9 +3929,9 @@
         <v>9</v>
       </c>
     </row>
-    <row ht="15.75" r="18" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="3" t="s">
@@ -3701,9 +3944,9 @@
         <v>9</v>
       </c>
     </row>
-    <row ht="15.75" r="19" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="3" t="s">
@@ -3716,9 +3959,9 @@
         <v>9</v>
       </c>
     </row>
-    <row ht="15.75" r="20" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="3" t="s">
@@ -3731,9 +3974,9 @@
         <v>9</v>
       </c>
     </row>
-    <row ht="15.75" r="21" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="3" t="s">
@@ -3746,9 +3989,9 @@
         <v>9</v>
       </c>
     </row>
-    <row ht="15.75" r="22" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="3" t="s">
@@ -3761,9 +4004,9 @@
         <v>9</v>
       </c>
     </row>
-    <row ht="15.75" r="23" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="3" t="s">
@@ -3776,9 +4019,9 @@
         <v>9</v>
       </c>
     </row>
-    <row ht="15.75" r="24" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="3" t="s">
@@ -3791,9 +4034,9 @@
         <v>9</v>
       </c>
     </row>
-    <row ht="15.75" r="25" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="3" t="s">
@@ -3806,9 +4049,9 @@
         <v>9</v>
       </c>
     </row>
-    <row ht="15.75" r="26" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="3" t="s">
@@ -3821,7 +4064,7 @@
         <v>9</v>
       </c>
     </row>
-    <row ht="15.75" r="27" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
         <v>31</v>
       </c>
@@ -3838,7 +4081,7 @@
         <v>9</v>
       </c>
     </row>
-    <row ht="15.75" r="28" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>32</v>
       </c>
@@ -3855,7 +4098,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="29" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>33</v>
       </c>
@@ -3872,7 +4115,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="30" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>34</v>
       </c>
@@ -3889,7 +4132,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="31" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>43</v>
       </c>
@@ -3906,7 +4149,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="32" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>44</v>
       </c>
@@ -3923,7 +4166,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="33" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>42</v>
       </c>
@@ -3940,7 +4183,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="34" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>45</v>
       </c>
@@ -3957,7 +4200,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="35" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>46</v>
       </c>
@@ -3974,7 +4217,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="36" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>50</v>
       </c>
@@ -3991,7 +4234,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="37" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>51</v>
       </c>
@@ -4008,7 +4251,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="38" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>60</v>
       </c>
@@ -4023,7 +4266,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="39" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>61</v>
       </c>
@@ -4038,7 +4281,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="40" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
         <v>47</v>
       </c>
@@ -4053,7 +4296,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="41" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>48</v>
       </c>
@@ -4068,7 +4311,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="42" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>49</v>
       </c>
@@ -4083,7 +4326,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="43" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>62</v>
       </c>
@@ -4098,7 +4341,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="44" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>63</v>
       </c>
@@ -4113,7 +4356,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="45" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>65</v>
       </c>
@@ -4128,7 +4371,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="46" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>66</v>
       </c>
@@ -4143,9 +4386,9 @@
         <v>9</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="47" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="14" t="s">
@@ -4158,9 +4401,9 @@
         <v>9</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="48" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B48" s="8"/>
       <c r="C48" s="14" t="s">
@@ -4173,9 +4416,9 @@
         <v>9</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="49" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B49" s="8"/>
       <c r="C49" s="14" t="s">
@@ -4188,809 +4431,1001 @@
         <v>9</v>
       </c>
     </row>
+    <row r="50" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50" s="8"/>
+      <c r="C50" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B51" s="8"/>
+      <c r="C51" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B52" s="8"/>
+      <c r="C52" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B53" s="8"/>
+      <c r="C53" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="E28">
-    <cfRule dxfId="215" operator="equal" priority="268" type="cellIs">
+    <cfRule type="cellIs" dxfId="245" priority="304" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule dxfId="214" operator="equal" priority="269" type="cellIs">
+    <cfRule type="cellIs" dxfId="244" priority="305" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule dxfId="213" operator="equal" priority="270" type="cellIs">
+    <cfRule type="cellIs" dxfId="243" priority="306" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule dxfId="212" operator="containsText" priority="271" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="242" priority="307" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D28)))</formula>
     </cfRule>
-    <cfRule dxfId="211" operator="containsText" priority="272" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="241" priority="308" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D28)))</formula>
     </cfRule>
-    <cfRule dxfId="210" operator="containsText" priority="273" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="240" priority="309" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule dxfId="209" operator="containsText" priority="274" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="239" priority="310" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D28)))</formula>
     </cfRule>
-    <cfRule dxfId="208" operator="containsText" priority="275" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="238" priority="311" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D28)))</formula>
     </cfRule>
-    <cfRule dxfId="207" operator="containsText" priority="276" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="237" priority="312" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule dxfId="206" operator="equal" priority="259" type="cellIs">
+    <cfRule type="cellIs" dxfId="236" priority="295" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule dxfId="205" operator="equal" priority="260" type="cellIs">
+    <cfRule type="cellIs" dxfId="235" priority="296" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule dxfId="204" operator="equal" priority="261" type="cellIs">
+    <cfRule type="cellIs" dxfId="234" priority="297" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule dxfId="203" operator="containsText" priority="262" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="233" priority="298" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D29)))</formula>
     </cfRule>
-    <cfRule dxfId="202" operator="containsText" priority="263" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="232" priority="299" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D29)))</formula>
     </cfRule>
-    <cfRule dxfId="201" operator="containsText" priority="264" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="231" priority="300" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule dxfId="200" operator="containsText" priority="265" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="230" priority="301" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D29)))</formula>
     </cfRule>
-    <cfRule dxfId="199" operator="containsText" priority="266" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="229" priority="302" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D29)))</formula>
     </cfRule>
-    <cfRule dxfId="198" operator="containsText" priority="267" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="228" priority="303" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule dxfId="197" operator="equal" priority="250" type="cellIs">
+    <cfRule type="cellIs" dxfId="227" priority="286" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule dxfId="196" operator="equal" priority="251" type="cellIs">
+    <cfRule type="cellIs" dxfId="226" priority="287" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule dxfId="195" operator="equal" priority="252" type="cellIs">
+    <cfRule type="cellIs" dxfId="225" priority="288" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule dxfId="194" operator="containsText" priority="244" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="224" priority="280" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D30)))</formula>
     </cfRule>
-    <cfRule dxfId="193" operator="containsText" priority="245" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="223" priority="281" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D30)))</formula>
     </cfRule>
-    <cfRule dxfId="192" operator="containsText" priority="246" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="222" priority="282" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule dxfId="191" operator="containsText" priority="247" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="221" priority="283" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D30)))</formula>
     </cfRule>
-    <cfRule dxfId="190" operator="containsText" priority="248" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="220" priority="284" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D30)))</formula>
     </cfRule>
-    <cfRule dxfId="189" operator="containsText" priority="249" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="219" priority="285" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule dxfId="188" operator="containsText" priority="229" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="218" priority="265" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
     </cfRule>
-    <cfRule dxfId="187" operator="containsText" priority="230" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="217" priority="266" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
     </cfRule>
-    <cfRule dxfId="186" operator="containsText" priority="231" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="216" priority="267" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule dxfId="185" operator="containsText" priority="232" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="215" priority="268" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
     </cfRule>
-    <cfRule dxfId="184" operator="containsText" priority="233" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="214" priority="269" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
     </cfRule>
-    <cfRule dxfId="183" operator="containsText" priority="234" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="213" priority="270" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule dxfId="182" operator="containsText" priority="223" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="212" priority="259" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
     </cfRule>
-    <cfRule dxfId="181" operator="containsText" priority="224" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="211" priority="260" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
     </cfRule>
-    <cfRule dxfId="180" operator="containsText" priority="225" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="210" priority="261" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule dxfId="179" operator="containsText" priority="226" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="209" priority="262" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
     </cfRule>
-    <cfRule dxfId="178" operator="containsText" priority="227" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="208" priority="263" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
     </cfRule>
-    <cfRule dxfId="177" operator="containsText" priority="228" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="207" priority="264" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule dxfId="176" operator="containsText" priority="217" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="206" priority="253" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
     </cfRule>
-    <cfRule dxfId="175" operator="containsText" priority="218" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="205" priority="254" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
     </cfRule>
-    <cfRule dxfId="174" operator="containsText" priority="219" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="204" priority="255" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule dxfId="173" operator="containsText" priority="220" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="203" priority="256" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
     </cfRule>
-    <cfRule dxfId="172" operator="containsText" priority="221" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="202" priority="257" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
     </cfRule>
-    <cfRule dxfId="171" operator="containsText" priority="222" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="201" priority="258" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule dxfId="170" operator="containsText" priority="211" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="200" priority="247" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
     </cfRule>
-    <cfRule dxfId="169" operator="containsText" priority="212" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="199" priority="248" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
     </cfRule>
-    <cfRule dxfId="168" operator="containsText" priority="213" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="198" priority="249" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule dxfId="167" operator="containsText" priority="214" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="197" priority="250" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
     </cfRule>
-    <cfRule dxfId="166" operator="containsText" priority="215" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="196" priority="251" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
     </cfRule>
-    <cfRule dxfId="165" operator="containsText" priority="216" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="195" priority="252" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule dxfId="164" operator="containsText" priority="205" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="194" priority="241" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
     </cfRule>
-    <cfRule dxfId="163" operator="containsText" priority="206" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="193" priority="242" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
     </cfRule>
-    <cfRule dxfId="162" operator="containsText" priority="207" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="192" priority="243" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule dxfId="161" operator="containsText" priority="208" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="191" priority="244" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
     </cfRule>
-    <cfRule dxfId="160" operator="containsText" priority="209" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="190" priority="245" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
     </cfRule>
-    <cfRule dxfId="159" operator="containsText" priority="210" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="189" priority="246" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule dxfId="158" operator="equal" priority="202" type="cellIs">
+    <cfRule type="cellIs" dxfId="188" priority="238" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule dxfId="157" operator="equal" priority="203" type="cellIs">
+    <cfRule type="cellIs" dxfId="187" priority="239" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule dxfId="156" operator="equal" priority="204" type="cellIs">
+    <cfRule type="cellIs" dxfId="186" priority="240" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule dxfId="155" operator="equal" priority="199" type="cellIs">
+    <cfRule type="cellIs" dxfId="185" priority="235" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule dxfId="154" operator="equal" priority="200" type="cellIs">
+    <cfRule type="cellIs" dxfId="184" priority="236" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule dxfId="153" operator="equal" priority="201" type="cellIs">
+    <cfRule type="cellIs" dxfId="183" priority="237" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule dxfId="152" operator="equal" priority="196" type="cellIs">
+    <cfRule type="cellIs" dxfId="182" priority="232" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule dxfId="151" operator="equal" priority="197" type="cellIs">
+    <cfRule type="cellIs" dxfId="181" priority="233" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule dxfId="150" operator="equal" priority="198" type="cellIs">
+    <cfRule type="cellIs" dxfId="180" priority="234" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule dxfId="149" operator="equal" priority="193" type="cellIs">
+    <cfRule type="cellIs" dxfId="179" priority="229" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule dxfId="148" operator="equal" priority="194" type="cellIs">
+    <cfRule type="cellIs" dxfId="178" priority="230" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule dxfId="147" operator="equal" priority="195" type="cellIs">
+    <cfRule type="cellIs" dxfId="177" priority="231" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule dxfId="146" operator="equal" priority="190" type="cellIs">
+    <cfRule type="cellIs" dxfId="176" priority="226" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule dxfId="145" operator="equal" priority="191" type="cellIs">
+    <cfRule type="cellIs" dxfId="175" priority="227" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule dxfId="144" operator="equal" priority="192" type="cellIs">
+    <cfRule type="cellIs" dxfId="174" priority="228" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule dxfId="143" operator="equal" priority="187" type="cellIs">
+    <cfRule type="cellIs" dxfId="173" priority="223" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule dxfId="142" operator="equal" priority="188" type="cellIs">
+    <cfRule type="cellIs" dxfId="172" priority="224" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule dxfId="141" operator="equal" priority="189" type="cellIs">
+    <cfRule type="cellIs" dxfId="171" priority="225" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule dxfId="140" operator="containsText" priority="181" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="170" priority="217" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D31)))</formula>
     </cfRule>
-    <cfRule dxfId="139" operator="containsText" priority="182" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="169" priority="218" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D31)))</formula>
     </cfRule>
-    <cfRule dxfId="138" operator="containsText" priority="183" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="168" priority="219" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule dxfId="137" operator="containsText" priority="184" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="167" priority="220" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D31)))</formula>
     </cfRule>
-    <cfRule dxfId="136" operator="containsText" priority="185" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="166" priority="221" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D31)))</formula>
     </cfRule>
-    <cfRule dxfId="135" operator="containsText" priority="186" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="165" priority="222" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule dxfId="134" operator="equal" priority="178" type="cellIs">
+    <cfRule type="cellIs" dxfId="164" priority="214" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule dxfId="133" operator="equal" priority="179" type="cellIs">
+    <cfRule type="cellIs" dxfId="163" priority="215" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule dxfId="132" operator="equal" priority="180" type="cellIs">
+    <cfRule type="cellIs" dxfId="162" priority="216" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule dxfId="131" operator="containsText" priority="172" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="161" priority="208" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D32)))</formula>
     </cfRule>
-    <cfRule dxfId="130" operator="containsText" priority="173" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="160" priority="209" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D32)))</formula>
     </cfRule>
-    <cfRule dxfId="129" operator="containsText" priority="174" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="159" priority="210" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule dxfId="128" operator="containsText" priority="175" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="158" priority="211" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D32)))</formula>
     </cfRule>
-    <cfRule dxfId="127" operator="containsText" priority="176" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="157" priority="212" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D32)))</formula>
     </cfRule>
-    <cfRule dxfId="126" operator="containsText" priority="177" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="156" priority="213" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule dxfId="125" operator="equal" priority="169" type="cellIs">
+    <cfRule type="cellIs" dxfId="155" priority="205" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule dxfId="124" operator="equal" priority="170" type="cellIs">
+    <cfRule type="cellIs" dxfId="154" priority="206" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule dxfId="123" operator="equal" priority="171" type="cellIs">
+    <cfRule type="cellIs" dxfId="153" priority="207" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule dxfId="122" operator="containsText" priority="163" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="152" priority="199" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D33)))</formula>
     </cfRule>
-    <cfRule dxfId="121" operator="containsText" priority="164" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="151" priority="200" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D33)))</formula>
     </cfRule>
-    <cfRule dxfId="120" operator="containsText" priority="165" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="150" priority="201" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule dxfId="119" operator="containsText" priority="166" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="149" priority="202" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D33)))</formula>
     </cfRule>
-    <cfRule dxfId="118" operator="containsText" priority="167" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="148" priority="203" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D33)))</formula>
     </cfRule>
-    <cfRule dxfId="117" operator="containsText" priority="168" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="147" priority="204" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule dxfId="116" operator="equal" priority="160" type="cellIs">
+    <cfRule type="cellIs" dxfId="146" priority="196" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule dxfId="115" operator="equal" priority="161" type="cellIs">
+    <cfRule type="cellIs" dxfId="145" priority="197" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule dxfId="114" operator="equal" priority="162" type="cellIs">
+    <cfRule type="cellIs" dxfId="144" priority="198" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:D37 D40:D42">
-    <cfRule dxfId="113" operator="containsText" priority="154" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="143" priority="190" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D34)))</formula>
     </cfRule>
-    <cfRule dxfId="112" operator="containsText" priority="155" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="142" priority="191" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D34)))</formula>
     </cfRule>
-    <cfRule dxfId="111" operator="containsText" priority="156" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="141" priority="192" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:D37 D40:D42">
-    <cfRule dxfId="110" operator="containsText" priority="157" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="140" priority="193" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D34)))</formula>
     </cfRule>
-    <cfRule dxfId="109" operator="containsText" priority="158" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="139" priority="194" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D34)))</formula>
     </cfRule>
-    <cfRule dxfId="108" operator="containsText" priority="159" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="138" priority="195" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule dxfId="107" operator="equal" priority="151" type="cellIs">
+    <cfRule type="cellIs" dxfId="137" priority="187" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule dxfId="106" operator="equal" priority="152" type="cellIs">
+    <cfRule type="cellIs" dxfId="136" priority="188" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule dxfId="105" operator="equal" priority="153" type="cellIs">
+    <cfRule type="cellIs" dxfId="135" priority="189" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:E42">
-    <cfRule dxfId="104" operator="equal" priority="115" type="cellIs">
+    <cfRule type="cellIs" dxfId="134" priority="151" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule dxfId="103" operator="equal" priority="116" type="cellIs">
+    <cfRule type="cellIs" dxfId="133" priority="152" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule dxfId="102" operator="equal" priority="117" type="cellIs">
+    <cfRule type="cellIs" dxfId="132" priority="153" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule dxfId="101" operator="equal" priority="106" type="cellIs">
+    <cfRule type="cellIs" dxfId="131" priority="142" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule dxfId="100" operator="equal" priority="107" type="cellIs">
+    <cfRule type="cellIs" dxfId="130" priority="143" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule dxfId="99" operator="equal" priority="108" type="cellIs">
+    <cfRule type="cellIs" dxfId="129" priority="144" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule dxfId="98" operator="equal" priority="97" type="cellIs">
+    <cfRule type="cellIs" dxfId="128" priority="133" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule dxfId="97" operator="equal" priority="98" type="cellIs">
+    <cfRule type="cellIs" dxfId="127" priority="134" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule dxfId="96" operator="equal" priority="99" type="cellIs">
+    <cfRule type="cellIs" dxfId="126" priority="135" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:E27">
-    <cfRule dxfId="95" operator="equal" priority="73" type="cellIs">
+    <cfRule type="cellIs" dxfId="125" priority="109" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule dxfId="94" operator="equal" priority="74" type="cellIs">
+    <cfRule type="cellIs" dxfId="124" priority="110" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule dxfId="93" operator="equal" priority="75" type="cellIs">
+    <cfRule type="cellIs" dxfId="123" priority="111" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule dxfId="92" operator="containsText" priority="85" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="122" priority="121" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
     </cfRule>
-    <cfRule dxfId="91" operator="containsText" priority="86" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="121" priority="122" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
     </cfRule>
-    <cfRule dxfId="90" operator="containsText" priority="87" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="120" priority="123" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule dxfId="89" operator="containsText" priority="88" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="119" priority="124" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
     </cfRule>
-    <cfRule dxfId="88" operator="containsText" priority="89" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="118" priority="125" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
     </cfRule>
-    <cfRule dxfId="87" operator="containsText" priority="90" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="117" priority="126" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule dxfId="86" operator="equal" priority="82" type="cellIs">
+    <cfRule type="cellIs" dxfId="116" priority="118" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule dxfId="85" operator="equal" priority="83" type="cellIs">
+    <cfRule type="cellIs" dxfId="115" priority="119" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule dxfId="84" operator="equal" priority="84" type="cellIs">
+    <cfRule type="cellIs" dxfId="114" priority="120" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D27">
-    <cfRule dxfId="83" operator="containsText" priority="76" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="113" priority="112" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
     </cfRule>
-    <cfRule dxfId="82" operator="containsText" priority="77" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="112" priority="113" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
     </cfRule>
-    <cfRule dxfId="81" operator="containsText" priority="78" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="111" priority="114" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D27">
-    <cfRule dxfId="80" operator="containsText" priority="79" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="110" priority="115" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
     </cfRule>
-    <cfRule dxfId="79" operator="containsText" priority="80" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="109" priority="116" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
     </cfRule>
-    <cfRule dxfId="78" operator="containsText" priority="81" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="108" priority="117" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38:D39">
-    <cfRule dxfId="77" operator="containsText" priority="67" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="107" priority="103" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D38)))</formula>
     </cfRule>
-    <cfRule dxfId="76" operator="containsText" priority="68" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="106" priority="104" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D38)))</formula>
     </cfRule>
-    <cfRule dxfId="75" operator="containsText" priority="69" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="105" priority="105" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38:D39">
-    <cfRule dxfId="74" operator="containsText" priority="70" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="104" priority="106" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D38)))</formula>
     </cfRule>
-    <cfRule dxfId="73" operator="containsText" priority="71" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="103" priority="107" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D38)))</formula>
     </cfRule>
-    <cfRule dxfId="72" operator="containsText" priority="72" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="102" priority="108" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38:E39">
-    <cfRule dxfId="71" operator="equal" priority="64" type="cellIs">
+    <cfRule type="cellIs" dxfId="101" priority="100" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule dxfId="70" operator="equal" priority="65" type="cellIs">
+    <cfRule type="cellIs" dxfId="100" priority="101" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule dxfId="69" operator="equal" priority="66" type="cellIs">
+    <cfRule type="cellIs" dxfId="99" priority="102" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule dxfId="68" operator="containsText" priority="58" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="98" priority="94" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D43)))</formula>
     </cfRule>
-    <cfRule dxfId="67" operator="containsText" priority="59" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="97" priority="95" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D43)))</formula>
     </cfRule>
-    <cfRule dxfId="66" operator="containsText" priority="60" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="96" priority="96" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule dxfId="65" operator="containsText" priority="61" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="95" priority="97" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D43)))</formula>
     </cfRule>
-    <cfRule dxfId="64" operator="containsText" priority="62" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="94" priority="98" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D43)))</formula>
     </cfRule>
-    <cfRule dxfId="63" operator="containsText" priority="63" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="93" priority="99" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule dxfId="62" operator="equal" priority="55" type="cellIs">
+    <cfRule type="cellIs" dxfId="92" priority="91" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule dxfId="61" operator="equal" priority="56" type="cellIs">
+    <cfRule type="cellIs" dxfId="91" priority="92" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule dxfId="60" operator="equal" priority="57" type="cellIs">
+    <cfRule type="cellIs" dxfId="90" priority="93" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule dxfId="59" operator="containsText" priority="49" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="89" priority="85" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D44)))</formula>
     </cfRule>
-    <cfRule dxfId="58" operator="containsText" priority="50" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="88" priority="86" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D44)))</formula>
     </cfRule>
-    <cfRule dxfId="57" operator="containsText" priority="51" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="87" priority="87" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule dxfId="56" operator="containsText" priority="52" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="86" priority="88" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D44)))</formula>
     </cfRule>
-    <cfRule dxfId="55" operator="containsText" priority="53" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="85" priority="89" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D44)))</formula>
     </cfRule>
-    <cfRule dxfId="54" operator="containsText" priority="54" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="84" priority="90" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule dxfId="53" operator="equal" priority="46" type="cellIs">
+    <cfRule type="cellIs" dxfId="83" priority="82" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule dxfId="52" operator="equal" priority="47" type="cellIs">
+    <cfRule type="cellIs" dxfId="82" priority="83" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule dxfId="51" operator="equal" priority="48" type="cellIs">
+    <cfRule type="cellIs" dxfId="81" priority="84" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule dxfId="50" operator="containsText" priority="40" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="80" priority="76" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D45)))</formula>
     </cfRule>
-    <cfRule dxfId="49" operator="containsText" priority="41" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="79" priority="77" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D45)))</formula>
     </cfRule>
-    <cfRule dxfId="48" operator="containsText" priority="42" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="78" priority="78" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule dxfId="47" operator="containsText" priority="43" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="77" priority="79" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D45)))</formula>
     </cfRule>
-    <cfRule dxfId="46" operator="containsText" priority="44" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="76" priority="80" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D45)))</formula>
     </cfRule>
-    <cfRule dxfId="45" operator="containsText" priority="45" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="75" priority="81" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule dxfId="44" operator="equal" priority="37" type="cellIs">
+    <cfRule type="cellIs" dxfId="74" priority="73" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule dxfId="43" operator="equal" priority="38" type="cellIs">
+    <cfRule type="cellIs" dxfId="73" priority="74" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule dxfId="42" operator="equal" priority="39" type="cellIs">
+    <cfRule type="cellIs" dxfId="72" priority="75" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule dxfId="41" operator="containsText" priority="31" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="71" priority="67" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D46)))</formula>
     </cfRule>
-    <cfRule dxfId="40" operator="containsText" priority="32" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="70" priority="68" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D46)))</formula>
     </cfRule>
-    <cfRule dxfId="39" operator="containsText" priority="33" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="69" priority="69" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule dxfId="38" operator="containsText" priority="34" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="68" priority="70" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D46)))</formula>
     </cfRule>
-    <cfRule dxfId="37" operator="containsText" priority="35" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="67" priority="71" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D46)))</formula>
     </cfRule>
-    <cfRule dxfId="36" operator="containsText" priority="36" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="66" priority="72" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule dxfId="35" operator="equal" priority="28" type="cellIs">
+    <cfRule type="cellIs" dxfId="65" priority="64" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule dxfId="34" operator="equal" priority="29" type="cellIs">
+    <cfRule type="cellIs" dxfId="64" priority="65" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule dxfId="33" operator="equal" priority="30" type="cellIs">
+    <cfRule type="cellIs" dxfId="63" priority="66" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule dxfId="32" operator="containsText" priority="22" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="62" priority="58" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D47)))</formula>
     </cfRule>
-    <cfRule dxfId="31" operator="containsText" priority="23" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="61" priority="59" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D47)))</formula>
     </cfRule>
-    <cfRule dxfId="30" operator="containsText" priority="24" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="60" priority="60" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule dxfId="29" operator="containsText" priority="25" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="59" priority="61" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D47)))</formula>
     </cfRule>
-    <cfRule dxfId="28" operator="containsText" priority="26" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="58" priority="62" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D47)))</formula>
     </cfRule>
-    <cfRule dxfId="27" operator="containsText" priority="27" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="57" priority="63" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule dxfId="26" operator="equal" priority="19" type="cellIs">
+    <cfRule type="cellIs" dxfId="56" priority="55" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule dxfId="25" operator="equal" priority="20" type="cellIs">
+    <cfRule type="cellIs" dxfId="55" priority="56" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule dxfId="24" operator="equal" priority="21" type="cellIs">
+    <cfRule type="cellIs" dxfId="54" priority="57" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule dxfId="23" operator="containsText" priority="13" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="53" priority="49" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D48)))</formula>
     </cfRule>
-    <cfRule dxfId="22" operator="containsText" priority="14" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="52" priority="50" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D48)))</formula>
     </cfRule>
-    <cfRule dxfId="21" operator="containsText" priority="15" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="51" priority="51" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule dxfId="20" operator="containsText" priority="16" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="50" priority="52" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D48)))</formula>
     </cfRule>
-    <cfRule dxfId="19" operator="containsText" priority="17" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="49" priority="53" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D48)))</formula>
     </cfRule>
-    <cfRule dxfId="18" operator="containsText" priority="18" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="48" priority="54" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule dxfId="17" operator="equal" priority="10" type="cellIs">
+    <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule dxfId="16" operator="equal" priority="11" type="cellIs">
+    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule dxfId="15" operator="equal" priority="12" type="cellIs">
+    <cfRule type="cellIs" dxfId="45" priority="48" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule dxfId="14" operator="containsText" priority="4" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="44" priority="40" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D49)))</formula>
     </cfRule>
-    <cfRule dxfId="13" operator="containsText" priority="5" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="43" priority="41" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D49)))</formula>
     </cfRule>
-    <cfRule dxfId="12" operator="containsText" priority="6" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="42" priority="42" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule dxfId="11" operator="containsText" priority="7" text="Skip:" type="containsText">
+    <cfRule type="containsText" dxfId="41" priority="43" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D49)))</formula>
     </cfRule>
-    <cfRule dxfId="10" operator="containsText" priority="8" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="40" priority="44" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D49)))</formula>
     </cfRule>
-    <cfRule dxfId="9" operator="containsText" priority="9" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="39" priority="45" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule dxfId="8" operator="equal" priority="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule dxfId="7" operator="equal" priority="2" type="cellIs">
+    <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule dxfId="6" operator="equal" priority="3" type="cellIs">
+    <cfRule type="cellIs" dxfId="36" priority="39" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D50">
+    <cfRule type="containsText" dxfId="35" priority="31" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="32" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="33" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50">
+    <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="35" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="36" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="containsText" dxfId="26" priority="22" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="23" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="24" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D51)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="containsText" dxfId="23" priority="25" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="26" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="27" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D51)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D52)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D52)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D53)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D53)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation showDropDown="1" showErrorMessage="1" showInputMessage="1" sqref="C1">
+    <dataValidation showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="C2:C49" type="list">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C53" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="E2:E49" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E53" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"High,Low"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AMK3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="D3" pane="bottomLeft" sqref="D3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="37.42578125" collapsed="true"/>
-    <col min="6" max="1025" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="1" max="4" width="19" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="37.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="1025" width="19" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -5073,9 +5508,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="javascript:srcUp(%27%2F0054x000001Z8z4%3Fnoredirect%3D1%26isUserEntityOverride%3D1%26isdtp%3Dp1%27);" r:id="rId1" ref="E3"/>
+    <hyperlink ref="E3" r:id="rId1" display="javascript:srcUp(%27%2F0054x000001Z8z4%3Fnoredirect%3D1%26isUserEntityOverride%3D1%26isdtp%3Dp1%27);" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" r:id="rId2" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Navatar_Projects\einstein-code-version-2-pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE92BF62-5761-4D48-9496-85DBB9B04611}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6170788-31D3-4A23-8ADF-23F31D033F4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="91">
   <si>
     <t>Module_Name</t>
   </si>
@@ -291,6 +291,15 @@
   </si>
   <si>
     <t>FSTc013_createFieldsForStandardObject</t>
+  </si>
+  <si>
+    <t>FSTc015_createFieldsForPackageObject</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>FSTc014_CreatedataForPackageObject</t>
   </si>
 </sst>
 </file>
@@ -474,7 +483,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -515,6 +524,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -522,7 +534,106 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
-  <dxfs count="250">
+  <dxfs count="259">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3580,7 +3691,7 @@
   <dimension ref="A1:AMK4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3604,7 +3715,7 @@
         <v>64</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3612,7 +3723,7 @@
         <v>29</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3625,22 +3736,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2:I3">
-    <cfRule type="cellIs" dxfId="249" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="6" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I3">
-    <cfRule type="cellIs" dxfId="248" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="7" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="247" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="246" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3657,10 +3768,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4191,7 +4302,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
@@ -4491,8 +4602,71 @@
         <v>9</v>
       </c>
     </row>
+    <row r="54" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B54" s="8"/>
+      <c r="C54" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" t="s">
+        <v>89</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>88</v>
+      </c>
+      <c r="B55" s="8"/>
+      <c r="C55" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="E28">
+    <cfRule type="cellIs" dxfId="254" priority="313" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="253" priority="314" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="252" priority="315" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="containsText" dxfId="251" priority="316" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="250" priority="317" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="249" priority="318" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="containsText" dxfId="248" priority="319" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="247" priority="320" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="246" priority="321" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
     <cfRule type="cellIs" dxfId="245" priority="304" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -4503,29 +4677,29 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
+  <conditionalFormatting sqref="D29">
     <cfRule type="containsText" dxfId="242" priority="307" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D28)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D29)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="241" priority="308" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D28)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D29)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="240" priority="309" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
+      <formula>NOT(ISERROR(SEARCH("Pass",D29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
     <cfRule type="containsText" dxfId="239" priority="310" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D28)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D29)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="238" priority="311" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D28)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D29)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="237" priority="312" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
+      <formula>NOT(ISERROR(SEARCH("Pass",D29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
     <cfRule type="cellIs" dxfId="236" priority="295" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -4536,172 +4710,172 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
-    <cfRule type="containsText" dxfId="233" priority="298" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="232" priority="299" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="231" priority="300" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
-    <cfRule type="containsText" dxfId="230" priority="301" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="229" priority="302" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="228" priority="303" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="227" priority="286" operator="equal">
+  <conditionalFormatting sqref="D30">
+    <cfRule type="containsText" dxfId="233" priority="289" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="232" priority="290" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="231" priority="291" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="containsText" dxfId="230" priority="292" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="229" priority="293" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="228" priority="294" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="containsText" dxfId="227" priority="274" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="226" priority="275" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="225" priority="276" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="containsText" dxfId="224" priority="277" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="223" priority="278" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="222" priority="279" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="containsText" dxfId="221" priority="268" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="220" priority="269" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="219" priority="270" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="containsText" dxfId="218" priority="271" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="217" priority="272" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="216" priority="273" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="215" priority="262" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="214" priority="263" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="213" priority="264" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="212" priority="265" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="211" priority="266" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="210" priority="267" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="209" priority="256" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="208" priority="257" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="207" priority="258" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="206" priority="259" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="205" priority="260" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="204" priority="261" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="containsText" dxfId="203" priority="250" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="202" priority="251" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="201" priority="252" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="containsText" dxfId="200" priority="253" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="199" priority="254" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="198" priority="255" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="cellIs" dxfId="197" priority="247" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="287" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="248" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="288" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="249" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
-    <cfRule type="containsText" dxfId="224" priority="280" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="223" priority="281" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="222" priority="282" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
-    <cfRule type="containsText" dxfId="221" priority="283" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="220" priority="284" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="219" priority="285" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="218" priority="265" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="217" priority="266" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="216" priority="267" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="215" priority="268" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="214" priority="269" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="213" priority="270" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="212" priority="259" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="211" priority="260" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="210" priority="261" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="209" priority="262" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="208" priority="263" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="207" priority="264" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="206" priority="253" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="205" priority="254" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="204" priority="255" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="203" priority="256" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="202" priority="257" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="258" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="200" priority="247" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="199" priority="248" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="198" priority="249" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="197" priority="250" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="196" priority="251" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="195" priority="252" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="194" priority="241" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="193" priority="242" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="192" priority="243" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="191" priority="244" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="190" priority="245" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="189" priority="246" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="194" priority="244" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="193" priority="245" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="192" priority="246" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="cellIs" dxfId="191" priority="241" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="190" priority="242" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="189" priority="243" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
     <cfRule type="cellIs" dxfId="188" priority="238" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -4712,7 +4886,7 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
+  <conditionalFormatting sqref="E6">
     <cfRule type="cellIs" dxfId="185" priority="235" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -4723,7 +4897,7 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E31">
     <cfRule type="cellIs" dxfId="182" priority="232" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -4734,29 +4908,29 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="179" priority="229" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="230" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="231" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="176" priority="226" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="227" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="228" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
+  <conditionalFormatting sqref="D31">
+    <cfRule type="containsText" dxfId="179" priority="226" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="178" priority="227" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="177" priority="228" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="containsText" dxfId="176" priority="229" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="175" priority="230" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="174" priority="231" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
     <cfRule type="cellIs" dxfId="173" priority="223" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -4767,29 +4941,29 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="D32">
     <cfRule type="containsText" dxfId="170" priority="217" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D31)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D32)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="169" priority="218" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D31)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D32)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="168" priority="219" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+      <formula>NOT(ISERROR(SEARCH("Pass",D32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
     <cfRule type="containsText" dxfId="167" priority="220" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D31)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D32)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="166" priority="221" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D31)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D32)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="165" priority="222" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
+      <formula>NOT(ISERROR(SEARCH("Pass",D32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
     <cfRule type="cellIs" dxfId="164" priority="214" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -4800,29 +4974,29 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+  <conditionalFormatting sqref="D33">
     <cfRule type="containsText" dxfId="161" priority="208" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D32)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D33)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="160" priority="209" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D32)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D33)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="159" priority="210" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+      <formula>NOT(ISERROR(SEARCH("Pass",D33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
     <cfRule type="containsText" dxfId="158" priority="211" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D32)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D33)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="157" priority="212" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D32)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D33)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="156" priority="213" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
+      <formula>NOT(ISERROR(SEARCH("Pass",D33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
     <cfRule type="cellIs" dxfId="155" priority="205" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -4833,29 +5007,29 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
+  <conditionalFormatting sqref="D34:D37 D40:D42">
     <cfRule type="containsText" dxfId="152" priority="199" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D33)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D34)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="151" priority="200" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D33)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D34)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="150" priority="201" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
+      <formula>NOT(ISERROR(SEARCH("Pass",D34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34:D37 D40:D42">
     <cfRule type="containsText" dxfId="149" priority="202" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D33)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D34)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="148" priority="203" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D33)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D34)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="147" priority="204" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
+      <formula>NOT(ISERROR(SEARCH("Pass",D34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
     <cfRule type="cellIs" dxfId="146" priority="196" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -4866,161 +5040,161 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:D37 D40:D42">
-    <cfRule type="containsText" dxfId="143" priority="190" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="191" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="192" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34:D37 D40:D42">
-    <cfRule type="containsText" dxfId="140" priority="193" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="139" priority="194" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="195" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="137" priority="187" operator="equal">
+  <conditionalFormatting sqref="E40:E42">
+    <cfRule type="cellIs" dxfId="143" priority="160" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="161" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="162" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E40:E42">
-    <cfRule type="cellIs" dxfId="134" priority="151" operator="equal">
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="140" priority="151" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="152" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="153" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="131" priority="142" operator="equal">
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="137" priority="142" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="143" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="144" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="128" priority="133" operator="equal">
+  <conditionalFormatting sqref="E8:E27">
+    <cfRule type="cellIs" dxfId="134" priority="118" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="119" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="120" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E27">
-    <cfRule type="cellIs" dxfId="125" priority="109" operator="equal">
+  <conditionalFormatting sqref="D7">
+    <cfRule type="containsText" dxfId="131" priority="130" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="130" priority="131" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="129" priority="132" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="containsText" dxfId="128" priority="133" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="127" priority="134" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="126" priority="135" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="125" priority="127" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="128" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="129" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
+  <conditionalFormatting sqref="D8:D27">
     <cfRule type="containsText" dxfId="122" priority="121" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="121" priority="122" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="120" priority="123" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
+      <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:D27">
     <cfRule type="containsText" dxfId="119" priority="124" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="118" priority="125" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="117" priority="126" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="116" priority="118" operator="equal">
+      <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38:D39">
+    <cfRule type="containsText" dxfId="116" priority="112" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="115" priority="113" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="114" priority="114" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38:D39">
+    <cfRule type="containsText" dxfId="113" priority="115" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="112" priority="116" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="111" priority="117" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38:E39">
+    <cfRule type="cellIs" dxfId="110" priority="109" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="110" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="111" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D27">
-    <cfRule type="containsText" dxfId="113" priority="112" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="113" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="114" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D27">
-    <cfRule type="containsText" dxfId="110" priority="115" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="116" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="117" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38:D39">
+  <conditionalFormatting sqref="D43">
     <cfRule type="containsText" dxfId="107" priority="103" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D38)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D43)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="106" priority="104" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D38)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D43)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="105" priority="105" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38:D39">
+      <formula>NOT(ISERROR(SEARCH("Pass",D43)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43">
     <cfRule type="containsText" dxfId="104" priority="106" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D38)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D43)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="103" priority="107" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D38)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D43)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="102" priority="108" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38:E39">
+      <formula>NOT(ISERROR(SEARCH("Pass",D43)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
     <cfRule type="cellIs" dxfId="101" priority="100" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -5031,29 +5205,29 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
+  <conditionalFormatting sqref="D44">
     <cfRule type="containsText" dxfId="98" priority="94" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D43)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D44)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="97" priority="95" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D43)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D44)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="96" priority="96" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D43)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
+      <formula>NOT(ISERROR(SEARCH("Pass",D44)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44">
     <cfRule type="containsText" dxfId="95" priority="97" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D43)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D44)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="94" priority="98" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D43)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D44)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="93" priority="99" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D43)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
+      <formula>NOT(ISERROR(SEARCH("Pass",D44)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
     <cfRule type="cellIs" dxfId="92" priority="91" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -5064,29 +5238,29 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D45">
     <cfRule type="containsText" dxfId="89" priority="85" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D44)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D45)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="88" priority="86" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D44)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D45)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="87" priority="87" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D44)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+      <formula>NOT(ISERROR(SEARCH("Pass",D45)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45">
     <cfRule type="containsText" dxfId="86" priority="88" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D44)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D45)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="85" priority="89" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D44)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D45)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="84" priority="90" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D44)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
+      <formula>NOT(ISERROR(SEARCH("Pass",D45)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
     <cfRule type="cellIs" dxfId="83" priority="82" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -5097,29 +5271,29 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
+  <conditionalFormatting sqref="D46">
     <cfRule type="containsText" dxfId="80" priority="76" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D45)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D46)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="79" priority="77" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D45)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D46)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="78" priority="78" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D45)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
+      <formula>NOT(ISERROR(SEARCH("Pass",D46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46">
     <cfRule type="containsText" dxfId="77" priority="79" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D45)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D46)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="76" priority="80" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D45)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D46)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="75" priority="81" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D45)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
+      <formula>NOT(ISERROR(SEARCH("Pass",D46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
     <cfRule type="cellIs" dxfId="74" priority="73" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -5130,29 +5304,29 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+  <conditionalFormatting sqref="D47">
     <cfRule type="containsText" dxfId="71" priority="67" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D46)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D47)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="70" priority="68" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D46)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D47)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="69" priority="69" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
+      <formula>NOT(ISERROR(SEARCH("Pass",D47)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
     <cfRule type="containsText" dxfId="68" priority="70" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D46)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D47)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="67" priority="71" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D46)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D47)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="66" priority="72" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
+      <formula>NOT(ISERROR(SEARCH("Pass",D47)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
     <cfRule type="cellIs" dxfId="65" priority="64" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -5163,29 +5337,29 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+  <conditionalFormatting sqref="D48">
     <cfRule type="containsText" dxfId="62" priority="58" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="61" priority="59" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="60" priority="60" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+      <formula>NOT(ISERROR(SEARCH("Pass",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48">
     <cfRule type="containsText" dxfId="59" priority="61" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="58" priority="62" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="57" priority="63" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
+      <formula>NOT(ISERROR(SEARCH("Pass",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
     <cfRule type="cellIs" dxfId="56" priority="55" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -5196,29 +5370,29 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
+  <conditionalFormatting sqref="D49">
     <cfRule type="containsText" dxfId="53" priority="49" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="52" priority="50" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="51" priority="51" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
+      <formula>NOT(ISERROR(SEARCH("Pass",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
     <cfRule type="containsText" dxfId="50" priority="52" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="49" priority="53" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="48" priority="54" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
+      <formula>NOT(ISERROR(SEARCH("Pass",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
     <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -5229,29 +5403,29 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D50">
     <cfRule type="containsText" dxfId="44" priority="40" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D49)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="43" priority="41" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D49)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="42" priority="42" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D49)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+      <formula>NOT(ISERROR(SEARCH("Pass",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50">
     <cfRule type="containsText" dxfId="41" priority="43" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D49)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="40" priority="44" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D49)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="39" priority="45" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D49)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
+      <formula>NOT(ISERROR(SEARCH("Pass",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
     <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -5262,29 +5436,29 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
+  <conditionalFormatting sqref="D51">
     <cfRule type="containsText" dxfId="35" priority="31" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D50)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D51)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="34" priority="32" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D50)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D51)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="33" priority="33" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D50)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
+      <formula>NOT(ISERROR(SEARCH("Pass",D51)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
     <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D50)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D51)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="31" priority="35" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D50)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D51)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="30" priority="36" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D50)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
+      <formula>NOT(ISERROR(SEARCH("Pass",D51)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
     <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -5295,29 +5469,29 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
+  <conditionalFormatting sqref="D52">
     <cfRule type="containsText" dxfId="26" priority="22" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D51)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D52)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="25" priority="23" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D51)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D52)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="24" priority="24" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D51)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
+      <formula>NOT(ISERROR(SEARCH("Pass",D52)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
     <cfRule type="containsText" dxfId="23" priority="25" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D51)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D52)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="22" priority="26" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D51)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D52)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="21" priority="27" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D51)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
+      <formula>NOT(ISERROR(SEARCH("Pass",D52)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
     <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -5328,29 +5502,29 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
+  <conditionalFormatting sqref="D53:D54">
     <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D52)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D53)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D52)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D53)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D52)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
+      <formula>NOT(ISERROR(SEARCH("Pass",D53)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53:D54">
     <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D52)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D53)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D52)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D53)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D52)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
+      <formula>NOT(ISERROR(SEARCH("Pass",D53)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53:E54">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -5361,29 +5535,29 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
+  <conditionalFormatting sqref="D55">
     <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D53)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D55)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D53)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D55)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D53)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
+      <formula>NOT(ISERROR(SEARCH("Pass",D55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
     <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D53)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D55)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D53)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D55)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D53)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
+      <formula>NOT(ISERROR(SEARCH("Pass",D55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -5399,11 +5573,11 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C53" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C55" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E53" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E55" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"High,Low"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Navatar_Projects\einstein-code-version-2-pe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akul Bhutani\git\einstein-code-version-2-pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6170788-31D3-4A23-8ADF-23F31D033F4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Modules" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="96">
   <si>
     <t>Module_Name</t>
   </si>
@@ -300,12 +299,27 @@
   </si>
   <si>
     <t>FSTc014_CreatedataForPackageObject</t>
+  </si>
+  <si>
+    <t>ConvDatetc022_1_AddConversionDateField</t>
+  </si>
+  <si>
+    <t>ConvDatetc022_2_CreateInsCompany</t>
+  </si>
+  <si>
+    <t>ConvDatetc023_ChangeStatusOfCompanyAndCheck</t>
+  </si>
+  <si>
+    <t>ConvDatetc024_CreateNewCompanyUnderEvalThenChangeToPortfolioCompany</t>
+  </si>
+  <si>
+    <t>ConvDatetc025_CreateInsCompany</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -530,11 +544,47 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2" xfId="3"/>
   </cellStyles>
-  <dxfs count="259">
+  <dxfs count="265">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -563,6 +613,60 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1990,33 +2094,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3687,7 +3764,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3736,27 +3813,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2:I3">
-    <cfRule type="cellIs" dxfId="258" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="6" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I3">
-    <cfRule type="cellIs" dxfId="257" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="7" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="256" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="255" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2:I4" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2:I4">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3767,11 +3844,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4176,12 +4253,10 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="8">
-        <v>1</v>
-      </c>
+      <c r="A27" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="8"/>
       <c r="C27" s="3" t="s">
         <v>7</v>
       </c>
@@ -4194,11 +4269,9 @@
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="8">
-        <v>1</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="B28" s="8"/>
       <c r="C28" s="3" t="s">
         <v>7</v>
       </c>
@@ -4209,13 +4282,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="8">
-        <v>1</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B29" s="8"/>
       <c r="C29" s="3" t="s">
         <v>7</v>
       </c>
@@ -4226,13 +4297,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="8">
-        <v>1</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="B30" s="8"/>
       <c r="C30" s="3" t="s">
         <v>7</v>
       </c>
@@ -4243,13 +4312,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="8">
-        <v>1</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="B31" s="8"/>
       <c r="C31" s="3" t="s">
         <v>7</v>
       </c>
@@ -4260,9 +4327,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
-        <v>44</v>
+    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="B32" s="8">
         <v>1</v>
@@ -4277,9 +4344,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B33" s="8">
         <v>1</v>
@@ -4296,7 +4363,7 @@
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B34" s="8">
         <v>1</v>
@@ -4313,7 +4380,7 @@
     </row>
     <row r="35" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B35" s="8">
         <v>1</v>
@@ -4330,7 +4397,7 @@
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B36" s="8">
         <v>1</v>
@@ -4347,7 +4414,7 @@
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B37" s="8">
         <v>1</v>
@@ -4364,9 +4431,11 @@
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" s="8"/>
+        <v>42</v>
+      </c>
+      <c r="B38" s="8">
+        <v>1</v>
+      </c>
       <c r="C38" s="3" t="s">
         <v>7</v>
       </c>
@@ -4379,9 +4448,11 @@
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" s="8"/>
+        <v>45</v>
+      </c>
+      <c r="B39" s="8">
+        <v>1</v>
+      </c>
       <c r="C39" s="3" t="s">
         <v>7</v>
       </c>
@@ -4393,11 +4464,13 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="14" t="s">
+      <c r="A40" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="8">
+        <v>1</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D40" t="s">
@@ -4409,10 +4482,12 @@
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="8">
+        <v>1</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D41" t="s">
@@ -4424,10 +4499,12 @@
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="8">
+        <v>1</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D42" t="s">
@@ -4439,10 +4516,10 @@
     </row>
     <row r="43" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B43" s="8"/>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D43" t="s">
@@ -4454,10 +4531,10 @@
     </row>
     <row r="44" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B44" s="8"/>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D44" t="s">
@@ -4468,8 +4545,8 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="7" t="s">
-        <v>65</v>
+      <c r="A45" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="14" t="s">
@@ -4484,7 +4561,7 @@
     </row>
     <row r="46" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="14" t="s">
@@ -4499,7 +4576,7 @@
     </row>
     <row r="47" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="14" t="s">
@@ -4514,7 +4591,7 @@
     </row>
     <row r="48" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B48" s="8"/>
       <c r="C48" s="14" t="s">
@@ -4529,7 +4606,7 @@
     </row>
     <row r="49" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B49" s="8"/>
       <c r="C49" s="14" t="s">
@@ -4544,7 +4621,7 @@
     </row>
     <row r="50" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B50" s="8"/>
       <c r="C50" s="14" t="s">
@@ -4559,7 +4636,7 @@
     </row>
     <row r="51" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="14" t="s">
@@ -4574,7 +4651,7 @@
     </row>
     <row r="52" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B52" s="8"/>
       <c r="C52" s="14" t="s">
@@ -4589,7 +4666,7 @@
     </row>
     <row r="53" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="B53" s="8"/>
       <c r="C53" s="14" t="s">
@@ -4603,23 +4680,23 @@
       </c>
     </row>
     <row r="54" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="16" t="s">
-        <v>90</v>
+      <c r="A54" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="B54" s="8"/>
       <c r="C54" s="14" t="s">
         <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>88</v>
+      <c r="A55" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="B55" s="8"/>
       <c r="C55" s="14" t="s">
@@ -4632,952 +4709,1027 @@
         <v>9</v>
       </c>
     </row>
+    <row r="56" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" s="8"/>
+      <c r="C56" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B57" s="8"/>
+      <c r="C57" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B58" s="8"/>
+      <c r="C58" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B59" s="8"/>
+      <c r="C59" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" t="s">
+        <v>89</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>88</v>
+      </c>
+      <c r="B60" s="8"/>
+      <c r="C60" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="254" priority="313" operator="equal">
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="260" priority="313" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="314" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="314" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="315" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="315" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="containsText" dxfId="251" priority="316" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="250" priority="317" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="249" priority="318" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="containsText" dxfId="248" priority="319" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="247" priority="320" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="246" priority="321" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="245" priority="304" operator="equal">
+  <conditionalFormatting sqref="D33">
+    <cfRule type="containsText" dxfId="257" priority="316" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D33)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="256" priority="317" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D33)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="255" priority="318" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="containsText" dxfId="254" priority="319" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D33)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="253" priority="320" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D33)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="252" priority="321" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="251" priority="304" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="305" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="305" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="306" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="306" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
-    <cfRule type="containsText" dxfId="242" priority="307" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="241" priority="308" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="240" priority="309" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
-    <cfRule type="containsText" dxfId="239" priority="310" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="238" priority="311" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="237" priority="312" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="236" priority="295" operator="equal">
+  <conditionalFormatting sqref="D34">
+    <cfRule type="containsText" dxfId="248" priority="307" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="247" priority="308" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="246" priority="309" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="containsText" dxfId="245" priority="310" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="244" priority="311" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="243" priority="312" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="242" priority="295" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="296" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="296" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="297" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="297" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
-    <cfRule type="containsText" dxfId="233" priority="289" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="232" priority="290" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="231" priority="291" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
-    <cfRule type="containsText" dxfId="230" priority="292" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="229" priority="293" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="228" priority="294" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D30)))</formula>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="containsText" dxfId="239" priority="289" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="238" priority="290" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="237" priority="291" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="containsText" dxfId="236" priority="292" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="235" priority="293" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="234" priority="294" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="227" priority="274" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="233" priority="274" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="226" priority="275" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="232" priority="275" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="225" priority="276" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="231" priority="276" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="224" priority="277" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="230" priority="277" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="223" priority="278" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="229" priority="278" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="222" priority="279" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="228" priority="279" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="221" priority="268" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="227" priority="268" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="220" priority="269" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="226" priority="269" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="219" priority="270" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="225" priority="270" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="218" priority="271" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="224" priority="271" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="217" priority="272" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="223" priority="272" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="216" priority="273" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="222" priority="273" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="215" priority="262" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="221" priority="262" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="214" priority="263" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="220" priority="263" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="213" priority="264" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="219" priority="264" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="212" priority="265" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="218" priority="265" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="211" priority="266" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="217" priority="266" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="210" priority="267" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="216" priority="267" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="209" priority="256" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="215" priority="256" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="208" priority="257" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="214" priority="257" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="207" priority="258" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="213" priority="258" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="206" priority="259" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="212" priority="259" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="205" priority="260" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="211" priority="260" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="204" priority="261" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="210" priority="261" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="203" priority="250" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="209" priority="250" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="202" priority="251" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="208" priority="251" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="252" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="207" priority="252" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="200" priority="253" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="206" priority="253" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="199" priority="254" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="205" priority="254" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="198" priority="255" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="204" priority="255" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" dxfId="197" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="247" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="248" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="249" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="194" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="244" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="245" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="245" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="246" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="191" priority="241" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="241" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="242" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="242" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="243" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="243" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="188" priority="238" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="238" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="239" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="239" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="240" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="185" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="235" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="236" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="237" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="182" priority="232" operator="equal">
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="188" priority="232" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="233" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="234" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="containsText" dxfId="179" priority="226" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D31)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="227" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D31)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="177" priority="228" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="containsText" dxfId="176" priority="229" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D31)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="175" priority="230" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D31)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="231" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="173" priority="223" operator="equal">
+  <conditionalFormatting sqref="D36">
+    <cfRule type="containsText" dxfId="185" priority="226" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="184" priority="227" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="183" priority="228" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="containsText" dxfId="182" priority="229" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="181" priority="230" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="180" priority="231" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="179" priority="223" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="224" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="225" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="225" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="containsText" dxfId="170" priority="217" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="169" priority="218" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="219" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="containsText" dxfId="167" priority="220" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="221" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="222" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="164" priority="214" operator="equal">
+  <conditionalFormatting sqref="D37">
+    <cfRule type="containsText" dxfId="176" priority="217" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="175" priority="218" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="174" priority="219" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="containsText" dxfId="173" priority="220" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="172" priority="221" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="171" priority="222" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="cellIs" dxfId="170" priority="214" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="215" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="216" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="containsText" dxfId="161" priority="208" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D33)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="209" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D33)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="210" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="containsText" dxfId="158" priority="211" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D33)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="212" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D33)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="213" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="155" priority="205" operator="equal">
+  <conditionalFormatting sqref="D38">
+    <cfRule type="containsText" dxfId="167" priority="208" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="166" priority="209" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="165" priority="210" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="containsText" dxfId="164" priority="211" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="163" priority="212" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="162" priority="213" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="161" priority="205" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="206" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="207" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:D37 D40:D42">
-    <cfRule type="containsText" dxfId="152" priority="199" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="151" priority="200" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="201" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34:D37 D40:D42">
-    <cfRule type="containsText" dxfId="149" priority="202" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="203" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="204" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="146" priority="196" operator="equal">
+  <conditionalFormatting sqref="D39:D42 D45:D47">
+    <cfRule type="containsText" dxfId="158" priority="199" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="157" priority="200" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="156" priority="201" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39:D42 D45:D47">
+    <cfRule type="containsText" dxfId="155" priority="202" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="154" priority="203" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="153" priority="204" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="cellIs" dxfId="152" priority="196" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="197" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="198" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E40:E42">
-    <cfRule type="cellIs" dxfId="143" priority="160" operator="equal">
+  <conditionalFormatting sqref="E45:E47">
+    <cfRule type="cellIs" dxfId="149" priority="160" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="161" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="162" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="140" priority="151" operator="equal">
+  <conditionalFormatting sqref="E41">
+    <cfRule type="cellIs" dxfId="146" priority="151" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="152" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="153" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="137" priority="142" operator="equal">
+  <conditionalFormatting sqref="E42">
+    <cfRule type="cellIs" dxfId="143" priority="142" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="143" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="144" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E27">
-    <cfRule type="cellIs" dxfId="134" priority="118" operator="equal">
+  <conditionalFormatting sqref="E8:E32">
+    <cfRule type="cellIs" dxfId="8" priority="118" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="119" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="120" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="131" priority="130" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="140" priority="130" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="131" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="139" priority="131" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="132" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="138" priority="132" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="128" priority="133" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="137" priority="133" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="134" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="136" priority="134" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="135" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="135" priority="135" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="125" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="127" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="128" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="129" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D27">
-    <cfRule type="containsText" dxfId="122" priority="121" operator="containsText" text="Skip:">
+  <conditionalFormatting sqref="D8:D32">
+    <cfRule type="containsText" dxfId="131" priority="121" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="122" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="130" priority="122" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="123" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="129" priority="123" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D27">
-    <cfRule type="containsText" dxfId="119" priority="124" operator="containsText" text="Skip:">
+  <conditionalFormatting sqref="D8:D32">
+    <cfRule type="containsText" dxfId="128" priority="124" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="125" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="127" priority="125" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="126" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="126" priority="126" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38:D39">
-    <cfRule type="containsText" dxfId="116" priority="112" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="113" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="114" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38:D39">
-    <cfRule type="containsText" dxfId="113" priority="115" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="116" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="117" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38:E39">
-    <cfRule type="cellIs" dxfId="110" priority="109" operator="equal">
+  <conditionalFormatting sqref="D43:D44">
+    <cfRule type="containsText" dxfId="125" priority="112" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D43)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="124" priority="113" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D43)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="123" priority="114" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D43)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43:D44">
+    <cfRule type="containsText" dxfId="122" priority="115" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D43)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="121" priority="116" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D43)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="120" priority="117" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D43)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43:E44">
+    <cfRule type="cellIs" dxfId="119" priority="109" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="110" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="111" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
-    <cfRule type="containsText" dxfId="107" priority="103" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D43)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="104" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D43)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="105" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D43)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
-    <cfRule type="containsText" dxfId="104" priority="106" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D43)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="107" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D43)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="108" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D43)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="cellIs" dxfId="101" priority="100" operator="equal">
+  <conditionalFormatting sqref="D48">
+    <cfRule type="containsText" dxfId="116" priority="103" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="115" priority="104" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="114" priority="105" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48">
+    <cfRule type="containsText" dxfId="113" priority="106" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="112" priority="107" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="111" priority="108" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="110" priority="100" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="101" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="102" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="containsText" dxfId="98" priority="94" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D44)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="95" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D44)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="96" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D44)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="containsText" dxfId="95" priority="97" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D44)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="98" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D44)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="99" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D44)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="92" priority="91" operator="equal">
+  <conditionalFormatting sqref="D49">
+    <cfRule type="containsText" dxfId="107" priority="94" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D49)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="106" priority="95" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D49)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="105" priority="96" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
+    <cfRule type="containsText" dxfId="104" priority="97" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D49)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="103" priority="98" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D49)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="102" priority="99" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="cellIs" dxfId="101" priority="91" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="92" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="93" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
-    <cfRule type="containsText" dxfId="89" priority="85" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D45)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="86" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D45)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="87" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D45)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
-    <cfRule type="containsText" dxfId="86" priority="88" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D45)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="89" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D45)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="90" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D45)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="83" priority="82" operator="equal">
+  <conditionalFormatting sqref="D50">
+    <cfRule type="containsText" dxfId="98" priority="85" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="97" priority="86" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="96" priority="87" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50">
+    <cfRule type="containsText" dxfId="95" priority="88" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="94" priority="89" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="93" priority="90" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="cellIs" dxfId="92" priority="82" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="83" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="84" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="containsText" dxfId="80" priority="76" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="77" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="78" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="containsText" dxfId="77" priority="79" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="80" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="81" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="74" priority="73" operator="equal">
+  <conditionalFormatting sqref="D51">
+    <cfRule type="containsText" dxfId="89" priority="76" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="88" priority="77" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="87" priority="78" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D51)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="containsText" dxfId="86" priority="79" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="85" priority="80" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="84" priority="81" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D51)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="cellIs" dxfId="83" priority="73" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="74" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="75" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
-    <cfRule type="containsText" dxfId="71" priority="67" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D47)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="68" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D47)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="69" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
-    <cfRule type="containsText" dxfId="68" priority="70" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D47)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="71" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D47)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="72" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="65" priority="64" operator="equal">
+  <conditionalFormatting sqref="D52">
+    <cfRule type="containsText" dxfId="80" priority="67" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="79" priority="68" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="78" priority="69" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D52)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="containsText" dxfId="77" priority="70" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="76" priority="71" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="75" priority="72" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D52)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="cellIs" dxfId="74" priority="64" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="65" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="66" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="containsText" dxfId="62" priority="58" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="59" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="60" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="containsText" dxfId="59" priority="61" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="62" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="63" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="56" priority="55" operator="equal">
+  <conditionalFormatting sqref="D53">
+    <cfRule type="containsText" dxfId="71" priority="58" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="70" priority="59" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="69" priority="60" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D53)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="containsText" dxfId="68" priority="61" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="67" priority="62" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="66" priority="63" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D53)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="65" priority="55" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="56" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="57" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="containsText" dxfId="53" priority="49" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D49)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="50" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D49)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="51" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D49)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="containsText" dxfId="50" priority="52" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D49)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="53" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D49)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="54" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D49)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
+  <conditionalFormatting sqref="D54">
+    <cfRule type="containsText" dxfId="62" priority="49" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="61" priority="50" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="60" priority="51" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54">
+    <cfRule type="containsText" dxfId="59" priority="52" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="58" priority="53" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="57" priority="54" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="56" priority="46" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="47" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="48" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="containsText" dxfId="44" priority="40" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="41" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="42" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D50)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="containsText" dxfId="41" priority="43" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="44" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="45" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D50)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
+  <conditionalFormatting sqref="D55">
+    <cfRule type="containsText" dxfId="53" priority="40" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="41" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="51" priority="42" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="containsText" dxfId="50" priority="43" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="44" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="45" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="47" priority="37" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="38" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="39" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="containsText" dxfId="35" priority="31" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="32" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="33" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D51)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="35" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="36" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D51)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
+  <conditionalFormatting sqref="D56">
+    <cfRule type="containsText" dxfId="44" priority="31" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D56)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="43" priority="32" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D56)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="33" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D56)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="containsText" dxfId="41" priority="34" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D56)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="35" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D56)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="39" priority="36" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D56)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="38" priority="28" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="29" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="30" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="containsText" dxfId="26" priority="22" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D52)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="23" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D52)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="24" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D52)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="containsText" dxfId="23" priority="25" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D52)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="26" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D52)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="27" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D52)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
+  <conditionalFormatting sqref="D57">
+    <cfRule type="containsText" dxfId="35" priority="22" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="23" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="24" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D57)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="containsText" dxfId="32" priority="25" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="26" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="27" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D57)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="cellIs" dxfId="29" priority="19" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="20" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="21" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53:D54">
-    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D53)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53:D54">
-    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D53)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53:E54">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+  <conditionalFormatting sqref="D58:D59">
+    <cfRule type="containsText" dxfId="26" priority="13" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="14" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="15" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D58)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58:D59">
+    <cfRule type="containsText" dxfId="23" priority="16" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="17" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="18" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D58)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58:E59">
+    <cfRule type="cellIs" dxfId="20" priority="10" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="11" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="12" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D55)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D55)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="D60">
+    <cfRule type="containsText" dxfId="17" priority="4" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D60)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D60)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="6" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D60)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D60)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="8" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D60)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D60)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C55" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C60">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E55" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E60">
       <formula1>"High,Low"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5587,7 +5739,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -5682,7 +5834,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" display="javascript:srcUp(%27%2F0054x000001Z8z4%3Fnoredirect%3D1%26isUserEntityOverride%3D1%26isdtp%3Dp1%27);" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId1" display="javascript:srcUp(%27%2F0054x000001Z8z4%3Fnoredirect%3D1%26isUserEntityOverride%3D1%26isdtp%3Dp1%27);"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akul Bhutani\git\einstein-code-version-2-pe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sibaram\git\einstein-code-version-2-pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="93">
   <si>
     <t>Module_Name</t>
   </si>
@@ -157,18 +157,12 @@
     <t>ToggleTc006_CreateNewCustomSDG</t>
   </si>
   <si>
-    <t>ToggleTc004_VerifyTheToggleButtonAndFunctionalityOfToggleButtonOnInstitutionPageRecord</t>
-  </si>
-  <si>
     <t>ToggleTc005_VerifyTheRetainAndDefaultSelectionOfToggleButton</t>
   </si>
   <si>
     <t>ToggleTc007_VerifyToAddNewToggleButtonWithMaxAndSpecialCharacter</t>
   </si>
   <si>
-    <t>ToggleTc008_CreateNewToggleButtonAsADefaultButton</t>
-  </si>
-  <si>
     <t>FSTc002_verifyDefaultFieldSet</t>
   </si>
   <si>
@@ -178,12 +172,6 @@
     <t>FSTc004_CreatePreconditionData</t>
   </si>
   <si>
-    <t>ToggleTc009_VerifyTheToggleButtonAndFunctionalityOfToggleButtonOnDealPageRecord</t>
-  </si>
-  <si>
-    <t>ToggleTc010_VerifyTheRetainAndDefaultSelectionOfToggleButton</t>
-  </si>
-  <si>
     <t>TWtc004_AddWatchlistContactAndVerifyImpact</t>
   </si>
   <si>
@@ -208,12 +196,6 @@
     <t>TWtc011_RemoveContactFromWatchlistContactAndVerifyImpact</t>
   </si>
   <si>
-    <t>ToggleTc011_VerifyToAddNewToggleButtonWithMaxAndSpecialCharacter</t>
-  </si>
-  <si>
-    <t>ToggleTc012_CreateNewToggleButtonAsADefaultButton</t>
-  </si>
-  <si>
     <t>FSTc005_addAdvanceFieldSetLayoutOnContactAndDealPage</t>
   </si>
   <si>
@@ -314,6 +296,15 @@
   </si>
   <si>
     <t>ConvDatetc025_CreateInsCompany</t>
+  </si>
+  <si>
+    <t>ToggleTc004_VerifyTheToggleButtonAndFunctionalityOfToggleButtonOnPageRecord</t>
+  </si>
+  <si>
+    <t>ToggleTc008_CreateNewToggleButtonAsDefaultButton</t>
+  </si>
+  <si>
+    <t>ToggleTc009_VerifyOutSideAndInsideSdgInContainerAndEnableToggleSwitchingAndVerifySDG</t>
   </si>
 </sst>
 </file>
@@ -548,7 +539,79 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3"/>
   </cellStyles>
-  <dxfs count="265">
+  <dxfs count="418">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1360,78 +1423,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -1927,78 +1918,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -2125,6 +2044,78 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -2152,6 +2143,78 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -2179,6 +2242,78 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -2575,6 +2710,78 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -2602,6 +2809,78 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -2809,366 +3088,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -3394,6 +3313,897 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFABAB"/>
@@ -3418,6 +4228,852 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFA9D18E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3789,7 +5445,7 @@
     </row>
     <row r="2" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H2" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>35</v>
@@ -3813,22 +5469,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2:I3">
-    <cfRule type="cellIs" dxfId="264" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="6" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I3">
-    <cfRule type="cellIs" dxfId="263" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="7" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="262" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="261" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3845,10 +5501,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3954,7 +5610,7 @@
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="3" t="s">
@@ -3969,7 +5625,7 @@
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="3" t="s">
@@ -3984,7 +5640,7 @@
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="3" t="s">
@@ -3999,7 +5655,7 @@
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="3" t="s">
@@ -4014,7 +5670,7 @@
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="3" t="s">
@@ -4029,7 +5685,7 @@
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="3" t="s">
@@ -4044,7 +5700,7 @@
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="3" t="s">
@@ -4059,7 +5715,7 @@
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="3" t="s">
@@ -4074,7 +5730,7 @@
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="3" t="s">
@@ -4089,7 +5745,7 @@
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="3" t="s">
@@ -4104,7 +5760,7 @@
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="3" t="s">
@@ -4119,7 +5775,7 @@
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="3" t="s">
@@ -4134,7 +5790,7 @@
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="3" t="s">
@@ -4149,7 +5805,7 @@
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="3" t="s">
@@ -4164,7 +5820,7 @@
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="3" t="s">
@@ -4179,7 +5835,7 @@
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="3" t="s">
@@ -4194,7 +5850,7 @@
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="3" t="s">
@@ -4209,7 +5865,7 @@
     </row>
     <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="3" t="s">
@@ -4224,7 +5880,7 @@
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="3" t="s">
@@ -4239,7 +5895,7 @@
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="3" t="s">
@@ -4254,7 +5910,7 @@
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="3" t="s">
@@ -4269,7 +5925,7 @@
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="3" t="s">
@@ -4284,7 +5940,7 @@
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="3" t="s">
@@ -4299,7 +5955,7 @@
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="3" t="s">
@@ -4314,7 +5970,7 @@
     </row>
     <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="3" t="s">
@@ -4397,7 +6053,7 @@
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="B36" s="8">
         <v>1</v>
@@ -4414,7 +6070,7 @@
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37" s="8">
         <v>1</v>
@@ -4448,7 +6104,7 @@
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39" s="8">
         <v>1</v>
@@ -4465,7 +6121,7 @@
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B40" s="8">
         <v>1</v>
@@ -4482,7 +6138,7 @@
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="B41" s="8">
         <v>1</v>
@@ -4498,13 +6154,11 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B42" s="8">
-        <v>1</v>
-      </c>
-      <c r="C42" s="3" t="s">
+      <c r="A42" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="14" t="s">
         <v>7</v>
       </c>
       <c r="D42" t="s">
@@ -4516,10 +6170,10 @@
     </row>
     <row r="43" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B43" s="8"/>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="14" t="s">
         <v>7</v>
       </c>
       <c r="D43" t="s">
@@ -4531,10 +6185,10 @@
     </row>
     <row r="44" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B44" s="8"/>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="14" t="s">
         <v>7</v>
       </c>
       <c r="D44" t="s">
@@ -4545,8 +6199,8 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="15" t="s">
-        <v>47</v>
+      <c r="A45" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="14" t="s">
@@ -4561,7 +6215,7 @@
     </row>
     <row r="46" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="14" t="s">
@@ -4576,7 +6230,7 @@
     </row>
     <row r="47" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="14" t="s">
@@ -4591,7 +6245,7 @@
     </row>
     <row r="48" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B48" s="8"/>
       <c r="C48" s="14" t="s">
@@ -4621,7 +6275,7 @@
     </row>
     <row r="50" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B50" s="8"/>
       <c r="C50" s="14" t="s">
@@ -4636,7 +6290,7 @@
     </row>
     <row r="51" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="14" t="s">
@@ -4651,7 +6305,7 @@
     </row>
     <row r="52" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B52" s="8"/>
       <c r="C52" s="14" t="s">
@@ -4666,7 +6320,7 @@
     </row>
     <row r="53" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B53" s="8"/>
       <c r="C53" s="14" t="s">
@@ -4681,7 +6335,7 @@
     </row>
     <row r="54" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B54" s="8"/>
       <c r="C54" s="14" t="s">
@@ -4696,7 +6350,7 @@
     </row>
     <row r="55" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B55" s="8"/>
       <c r="C55" s="14" t="s">
@@ -4710,23 +6364,23 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="7" t="s">
-        <v>85</v>
+      <c r="A56" s="16" t="s">
+        <v>84</v>
       </c>
       <c r="B56" s="8"/>
       <c r="C56" s="14" t="s">
         <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="7" t="s">
-        <v>86</v>
+      <c r="A57" t="s">
+        <v>82</v>
       </c>
       <c r="B57" s="8"/>
       <c r="C57" s="14" t="s">
@@ -4739,977 +6393,921 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B58" s="8"/>
-      <c r="C58" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D58" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="B59" s="8"/>
-      <c r="C59" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D59" t="s">
-        <v>89</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>88</v>
-      </c>
-      <c r="B60" s="8"/>
-      <c r="C60" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D60" t="s">
-        <v>8</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="335" priority="313" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="334" priority="314" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="333" priority="315" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="containsText" dxfId="308" priority="352" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="307" priority="353" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="306" priority="354" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="containsText" dxfId="305" priority="355" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="304" priority="356" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="303" priority="357" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="containsText" dxfId="302" priority="346" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="301" priority="347" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="300" priority="348" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="containsText" dxfId="299" priority="349" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="298" priority="350" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="297" priority="351" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="296" priority="340" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="295" priority="341" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="294" priority="342" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="293" priority="343" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="292" priority="344" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="291" priority="345" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="290" priority="334" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="289" priority="335" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="288" priority="336" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="287" priority="337" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="286" priority="338" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="285" priority="339" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="containsText" dxfId="284" priority="328" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="283" priority="329" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="282" priority="330" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="containsText" dxfId="281" priority="331" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="280" priority="332" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="279" priority="333" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="cellIs" dxfId="278" priority="325" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="277" priority="326" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="276" priority="327" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="275" priority="322" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="274" priority="323" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="273" priority="324" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="cellIs" dxfId="272" priority="319" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="271" priority="320" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="270" priority="321" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="269" priority="316" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="268" priority="317" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="267" priority="318" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="containsText" dxfId="242" priority="208" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="241" priority="209" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="240" priority="210" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="containsText" dxfId="239" priority="211" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="238" priority="212" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="237" priority="213" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="236" priority="205" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="235" priority="206" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="234" priority="207" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42:D44">
+    <cfRule type="containsText" dxfId="233" priority="277" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D42)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="232" priority="278" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D42)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="231" priority="279" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D42)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42:D44">
+    <cfRule type="containsText" dxfId="230" priority="280" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D42)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="229" priority="281" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D42)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="228" priority="282" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D42)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8:E31">
+    <cfRule type="cellIs" dxfId="227" priority="196" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="226" priority="197" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="225" priority="198" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42:E44">
+    <cfRule type="cellIs" dxfId="224" priority="238" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="223" priority="239" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="222" priority="240" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="221" priority="151" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="220" priority="152" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="219" priority="153" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:D31">
+    <cfRule type="containsText" dxfId="203" priority="199" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="202" priority="200" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="201" priority="201" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:D31">
+    <cfRule type="containsText" dxfId="200" priority="202" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="199" priority="203" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="198" priority="204" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45">
+    <cfRule type="containsText" dxfId="188" priority="181" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D45)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="187" priority="182" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D45)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="186" priority="183" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D45)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45">
+    <cfRule type="containsText" dxfId="185" priority="184" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D45)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="184" priority="185" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D45)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="183" priority="186" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D45)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="cellIs" dxfId="182" priority="178" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="181" priority="179" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="180" priority="180" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46">
+    <cfRule type="containsText" dxfId="179" priority="172" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="178" priority="173" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="177" priority="174" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46">
+    <cfRule type="containsText" dxfId="176" priority="175" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="175" priority="176" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="174" priority="177" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="173" priority="169" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="172" priority="170" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="171" priority="171" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule type="containsText" dxfId="170" priority="163" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D47)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="169" priority="164" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D47)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="168" priority="165" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D47)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule type="containsText" dxfId="167" priority="166" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D47)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="166" priority="167" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D47)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="165" priority="168" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D47)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="cellIs" dxfId="164" priority="160" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="163" priority="161" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="162" priority="162" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48">
+    <cfRule type="containsText" dxfId="161" priority="154" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="160" priority="155" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="159" priority="156" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48">
+    <cfRule type="containsText" dxfId="158" priority="157" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="157" priority="158" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="156" priority="159" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
+    <cfRule type="containsText" dxfId="152" priority="145" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D49)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="151" priority="146" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D49)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="150" priority="147" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
+    <cfRule type="containsText" dxfId="149" priority="148" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D49)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="148" priority="149" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D49)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="147" priority="150" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="cellIs" dxfId="146" priority="142" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="143" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="144" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50">
+    <cfRule type="containsText" dxfId="143" priority="136" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="142" priority="137" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="141" priority="138" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50">
+    <cfRule type="containsText" dxfId="140" priority="139" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="139" priority="140" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="138" priority="141" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="cellIs" dxfId="137" priority="133" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="134" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="135" priority="135" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="containsText" dxfId="134" priority="127" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="133" priority="128" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="132" priority="129" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D51)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="containsText" dxfId="131" priority="130" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="130" priority="131" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="129" priority="132" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D51)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="cellIs" dxfId="128" priority="124" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="127" priority="125" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="126" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="containsText" dxfId="125" priority="118" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="124" priority="119" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="123" priority="120" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D52)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="containsText" dxfId="122" priority="121" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="121" priority="122" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="120" priority="123" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D52)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="cellIs" dxfId="119" priority="115" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="116" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="117" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="containsText" dxfId="116" priority="109" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="115" priority="110" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="114" priority="111" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D53)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="containsText" dxfId="113" priority="112" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="112" priority="113" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="111" priority="114" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D53)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="110" priority="106" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="107" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="108" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54">
+    <cfRule type="containsText" dxfId="107" priority="100" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="106" priority="101" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="105" priority="102" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54">
+    <cfRule type="containsText" dxfId="104" priority="103" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="103" priority="104" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="102" priority="105" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="101" priority="97" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="98" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="99" priority="99" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55:D56">
+    <cfRule type="containsText" dxfId="98" priority="91" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="97" priority="92" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="96" priority="93" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55:D56">
+    <cfRule type="containsText" dxfId="95" priority="94" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="94" priority="95" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="93" priority="96" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55:E56">
+    <cfRule type="cellIs" dxfId="92" priority="88" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="89" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="90" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="containsText" dxfId="89" priority="82" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="88" priority="83" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="87" priority="84" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D57)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="containsText" dxfId="86" priority="85" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="85" priority="86" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="84" priority="87" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D57)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="cellIs" dxfId="83" priority="79" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="80" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="81" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="260" priority="313" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="70" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="259" priority="314" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="71" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="315" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="72" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="containsText" dxfId="257" priority="316" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="77" priority="73" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="256" priority="317" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="76" priority="74" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="255" priority="318" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="75" priority="75" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="containsText" dxfId="254" priority="319" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="74" priority="76" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="253" priority="320" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="73" priority="77" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="252" priority="321" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="72" priority="78" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="251" priority="304" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="61" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="305" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="62" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="306" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="63" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="containsText" dxfId="248" priority="307" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="68" priority="64" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="247" priority="308" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="67" priority="65" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="246" priority="309" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="66" priority="66" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="containsText" dxfId="245" priority="310" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="65" priority="67" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="244" priority="311" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="64" priority="68" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="243" priority="312" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="63" priority="69" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="242" priority="295" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="58" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="296" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="59" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="297" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="60" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="containsText" dxfId="239" priority="289" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="59" priority="52" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="238" priority="290" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="58" priority="53" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="237" priority="291" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="57" priority="54" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="containsText" dxfId="236" priority="292" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="56" priority="55" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="235" priority="293" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="55" priority="56" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="234" priority="294" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="54" priority="57" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D35)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="233" priority="274" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="232" priority="275" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="231" priority="276" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="230" priority="277" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="229" priority="278" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="228" priority="279" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="227" priority="268" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="226" priority="269" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="225" priority="270" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="224" priority="271" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="223" priority="272" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="222" priority="273" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="221" priority="262" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="220" priority="263" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="219" priority="264" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="218" priority="265" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="217" priority="266" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="216" priority="267" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="215" priority="256" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="214" priority="257" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="213" priority="258" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="212" priority="259" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="211" priority="260" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="210" priority="261" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="209" priority="250" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="208" priority="251" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="207" priority="252" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="206" priority="253" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="205" priority="254" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="204" priority="255" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" dxfId="203" priority="247" operator="equal">
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="53" priority="49" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="50" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="51" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="200" priority="244" operator="equal">
+  <conditionalFormatting sqref="D36">
+    <cfRule type="containsText" dxfId="50" priority="43" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="44" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="45" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="containsText" dxfId="47" priority="46" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="47" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="48" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="44" priority="40" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="245" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="41" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="197" priority="241" operator="equal">
+  <conditionalFormatting sqref="D37">
+    <cfRule type="containsText" dxfId="41" priority="34" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="35" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="39" priority="36" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="containsText" dxfId="38" priority="37" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="39" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="cellIs" dxfId="35" priority="31" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="242" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="32" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="243" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="194" priority="238" operator="equal">
+  <conditionalFormatting sqref="D38">
+    <cfRule type="containsText" dxfId="32" priority="25" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="26" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="27" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="containsText" dxfId="29" priority="28" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="30" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="26" priority="22" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="239" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="191" priority="235" operator="equal">
+  <conditionalFormatting sqref="D39:D41">
+    <cfRule type="containsText" dxfId="23" priority="16" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="17" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="18" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39:D41">
+    <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="21" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="188" priority="232" operator="equal">
+  <conditionalFormatting sqref="E41">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="containsText" dxfId="185" priority="226" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="184" priority="227" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="183" priority="228" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="containsText" dxfId="182" priority="229" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="181" priority="230" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="180" priority="231" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="179" priority="223" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="224" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="225" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="containsText" dxfId="176" priority="217" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="175" priority="218" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="219" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="containsText" dxfId="173" priority="220" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="221" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="222" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="170" priority="214" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="215" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="216" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="containsText" dxfId="167" priority="208" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="209" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="210" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="containsText" dxfId="164" priority="211" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="163" priority="212" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="213" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="161" priority="205" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="206" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="207" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39:D42 D45:D47">
-    <cfRule type="containsText" dxfId="158" priority="199" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="200" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="201" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39:D42 D45:D47">
-    <cfRule type="containsText" dxfId="155" priority="202" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="203" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="204" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="152" priority="196" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="197" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="198" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45:E47">
-    <cfRule type="cellIs" dxfId="149" priority="160" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="161" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="162" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="146" priority="151" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="152" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="153" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="143" priority="142" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="143" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="144" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E32">
-    <cfRule type="cellIs" dxfId="8" priority="118" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="119" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="120" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="140" priority="130" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="139" priority="131" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="132" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="137" priority="133" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="134" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="135" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="134" priority="127" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="128" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="129" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D32">
-    <cfRule type="containsText" dxfId="131" priority="121" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="122" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="123" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D32">
-    <cfRule type="containsText" dxfId="128" priority="124" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="125" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="126" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43:D44">
-    <cfRule type="containsText" dxfId="125" priority="112" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D43)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="113" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D43)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="114" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D43)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43:D44">
-    <cfRule type="containsText" dxfId="122" priority="115" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D43)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="116" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D43)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="117" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D43)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43:E44">
-    <cfRule type="cellIs" dxfId="119" priority="109" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="110" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="111" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="containsText" dxfId="116" priority="103" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="104" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="105" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="containsText" dxfId="113" priority="106" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="107" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="108" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="110" priority="100" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="101" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="102" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="containsText" dxfId="107" priority="94" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D49)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="95" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D49)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="96" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D49)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="containsText" dxfId="104" priority="97" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D49)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="98" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D49)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="99" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D49)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="101" priority="91" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="92" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="93" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="containsText" dxfId="98" priority="85" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="86" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="87" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D50)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="containsText" dxfId="95" priority="88" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="89" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="90" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D50)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="92" priority="82" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="83" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="84" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="containsText" dxfId="89" priority="76" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="77" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="78" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D51)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="containsText" dxfId="86" priority="79" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="80" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="81" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D51)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="83" priority="73" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="74" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="75" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="containsText" dxfId="80" priority="67" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D52)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="68" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D52)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="69" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D52)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="containsText" dxfId="77" priority="70" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D52)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="71" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D52)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="72" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D52)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="74" priority="64" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="65" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="66" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="containsText" dxfId="71" priority="58" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="59" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="60" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D53)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="containsText" dxfId="68" priority="61" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="62" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="63" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D53)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="65" priority="55" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="56" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="57" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
-    <cfRule type="containsText" dxfId="62" priority="49" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="50" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="51" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D54)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
-    <cfRule type="containsText" dxfId="59" priority="52" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="53" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="54" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D54)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="56" priority="46" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="47" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="48" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="containsText" dxfId="53" priority="40" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="41" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="42" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D55)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="containsText" dxfId="50" priority="43" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="44" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="45" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D55)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="47" priority="37" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="38" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="39" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="containsText" dxfId="44" priority="31" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D56)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="32" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D56)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="33" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D56)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="containsText" dxfId="41" priority="34" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D56)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="35" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D56)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="36" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D56)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="38" priority="28" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="29" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="30" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
-    <cfRule type="containsText" dxfId="35" priority="22" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D57)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="23" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D57)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="24" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D57)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
-    <cfRule type="containsText" dxfId="32" priority="25" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D57)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="26" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D57)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="27" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D57)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="29" priority="19" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="20" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="21" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D58:D59">
-    <cfRule type="containsText" dxfId="26" priority="13" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D58)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="14" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D58)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="15" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D58)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D58:D59">
-    <cfRule type="containsText" dxfId="23" priority="16" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D58)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="17" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D58)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="18" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D58)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58:E59">
-    <cfRule type="cellIs" dxfId="20" priority="10" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="11" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="12" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="containsText" dxfId="17" priority="4" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D60)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D60)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="6" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D60)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D60)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="8" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D60)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D60)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
+  <conditionalFormatting sqref="E32">
     <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -5718,6 +7316,28 @@
     </cfRule>
     <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
@@ -5725,11 +7345,11 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C60">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C57">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E60">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E57">
       <formula1>"High,Low"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5814,10 +7434,10 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>

--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sibaram\git\einstein-code-version-2-pe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Navatar_Projects\einstein-code-version-2-pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8B09F1-D2A3-4634-9B78-C3E42A26629C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Modules" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="95">
   <si>
     <t>Module_Name</t>
   </si>
@@ -305,12 +306,18 @@
   </si>
   <si>
     <t>ToggleTc009_VerifyOutSideAndInsideSdgInContainerAndEnableToggleSwitchingAndVerifySDG</t>
+  </si>
+  <si>
+    <t>FSTc016_CreatedataForCustomObject</t>
+  </si>
+  <si>
+    <t>FSTc017_createFieldsForCustomObject</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -535,11 +542,38 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="2"/>
+    <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
-  <dxfs count="418">
+  <dxfs count="280">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -613,6 +647,33 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -649,6 +710,114 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -2215,6 +2384,78 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -2512,6 +2753,78 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -2539,6 +2852,60 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2710,6 +3077,114 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2782,6 +3257,294 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -2809,1401 +3572,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFABAB"/>
@@ -4228,852 +3596,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFA9D18E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5420,11 +3942,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5469,27 +3991,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2:I3">
-    <cfRule type="cellIs" dxfId="339" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="6" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I3">
-    <cfRule type="cellIs" dxfId="338" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="7" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="337" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="336" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2:I4">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2:I4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5500,11 +4022,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6372,7 +4894,7 @@
         <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>9</v>
@@ -6393,963 +4915,1059 @@
         <v>9</v>
       </c>
     </row>
+    <row r="58" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>93</v>
+      </c>
+      <c r="B58" s="8"/>
+      <c r="C58" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>94</v>
+      </c>
+      <c r="B59" s="8"/>
+      <c r="C59" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" t="s">
+        <v>83</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="335" priority="313" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="331" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="314" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="332" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="333" priority="315" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="333" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="308" priority="352" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="272" priority="370" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="307" priority="353" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="271" priority="371" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="306" priority="354" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="270" priority="372" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="305" priority="355" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="269" priority="373" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="304" priority="356" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="268" priority="374" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="303" priority="357" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="267" priority="375" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="302" priority="346" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="266" priority="364" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="301" priority="347" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="265" priority="365" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="300" priority="348" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="264" priority="366" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="299" priority="349" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="263" priority="367" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="298" priority="350" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="262" priority="368" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="297" priority="351" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="261" priority="369" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="296" priority="340" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="260" priority="358" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="295" priority="341" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="259" priority="359" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="294" priority="342" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="258" priority="360" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="293" priority="343" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="257" priority="361" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="292" priority="344" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="256" priority="362" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="291" priority="345" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="255" priority="363" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="290" priority="334" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="254" priority="352" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="289" priority="335" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="253" priority="353" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="288" priority="336" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="252" priority="354" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="287" priority="337" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="251" priority="355" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="286" priority="338" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="250" priority="356" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="285" priority="339" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="249" priority="357" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="284" priority="328" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="248" priority="346" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="283" priority="329" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="247" priority="347" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="282" priority="330" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="246" priority="348" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="281" priority="331" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="245" priority="349" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="280" priority="332" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="244" priority="350" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="279" priority="333" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="243" priority="351" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" dxfId="278" priority="325" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="343" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="326" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="344" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="327" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="345" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="275" priority="322" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="340" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="323" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="341" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="324" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="342" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="272" priority="319" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="337" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="320" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="338" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="321" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="339" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="269" priority="316" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="334" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="317" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="335" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="318" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="336" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="242" priority="208" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="230" priority="226" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="241" priority="209" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="229" priority="227" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="240" priority="210" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="228" priority="228" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="239" priority="211" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="227" priority="229" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="238" priority="212" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="226" priority="230" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="237" priority="213" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="225" priority="231" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="236" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="223" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="224" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="225" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42:D44">
-    <cfRule type="containsText" dxfId="233" priority="277" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="221" priority="295" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="232" priority="278" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="220" priority="296" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="231" priority="279" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="219" priority="297" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42:D44">
-    <cfRule type="containsText" dxfId="230" priority="280" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="218" priority="298" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="229" priority="281" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="217" priority="299" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="228" priority="282" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="216" priority="300" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:E31">
-    <cfRule type="cellIs" dxfId="227" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="214" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="215" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="216" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42:E44">
-    <cfRule type="cellIs" dxfId="224" priority="238" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="256" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="239" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="257" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="258" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="221" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="169" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="170" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="171" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D31">
-    <cfRule type="containsText" dxfId="203" priority="199" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="206" priority="217" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="202" priority="200" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="205" priority="218" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="201" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="204" priority="219" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D31">
-    <cfRule type="containsText" dxfId="200" priority="202" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="203" priority="220" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="199" priority="203" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="202" priority="221" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="198" priority="204" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="201" priority="222" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="containsText" dxfId="188" priority="181" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="200" priority="199" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="187" priority="182" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="199" priority="200" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="183" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="198" priority="201" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="containsText" dxfId="185" priority="184" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="197" priority="202" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="184" priority="185" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="196" priority="203" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="183" priority="186" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="195" priority="204" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="182" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="196" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="197" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="198" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="containsText" dxfId="179" priority="172" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="191" priority="190" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="173" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="190" priority="191" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="177" priority="174" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="189" priority="192" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="containsText" dxfId="176" priority="175" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="188" priority="193" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="175" priority="176" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="187" priority="194" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="177" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="186" priority="195" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="173" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="187" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="188" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="189" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="containsText" dxfId="170" priority="163" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="182" priority="181" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="169" priority="164" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="181" priority="182" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="165" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="180" priority="183" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="containsText" dxfId="167" priority="166" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="179" priority="184" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="167" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="178" priority="185" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="168" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="177" priority="186" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="164" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="178" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="179" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="180" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="containsText" dxfId="161" priority="154" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="173" priority="172" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="155" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="172" priority="173" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="156" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="171" priority="174" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="containsText" dxfId="158" priority="157" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="170" priority="175" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="158" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="169" priority="176" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="159" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="168" priority="177" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="containsText" dxfId="152" priority="145" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="167" priority="163" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="151" priority="146" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="166" priority="164" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="147" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="165" priority="165" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="containsText" dxfId="149" priority="148" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="164" priority="166" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="149" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="163" priority="167" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="150" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="162" priority="168" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="146" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="160" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="161" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="162" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="containsText" dxfId="143" priority="136" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="158" priority="154" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="137" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="157" priority="155" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="138" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="156" priority="156" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="containsText" dxfId="140" priority="139" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="155" priority="157" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="139" priority="140" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="154" priority="158" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="141" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="153" priority="159" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="137" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="151" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="152" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="153" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="containsText" dxfId="134" priority="127" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="149" priority="145" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="128" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="148" priority="146" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="129" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="147" priority="147" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="containsText" dxfId="131" priority="130" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="146" priority="148" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="131" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="145" priority="149" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="132" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="144" priority="150" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="128" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="142" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="143" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="144" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="containsText" dxfId="125" priority="118" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="140" priority="136" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="119" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="139" priority="137" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="120" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="138" priority="138" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="containsText" dxfId="122" priority="121" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="137" priority="139" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="122" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="136" priority="140" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="123" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="135" priority="141" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="119" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="133" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="134" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="135" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="containsText" dxfId="116" priority="109" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="131" priority="127" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="110" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="130" priority="128" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="111" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="129" priority="129" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="containsText" dxfId="113" priority="112" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="128" priority="130" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="113" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="127" priority="131" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="114" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="126" priority="132" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="110" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="124" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="125" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="126" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54">
-    <cfRule type="containsText" dxfId="107" priority="100" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="122" priority="118" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="101" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="121" priority="119" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="102" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="120" priority="120" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54">
-    <cfRule type="containsText" dxfId="104" priority="103" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="119" priority="121" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="104" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="118" priority="122" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="105" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="117" priority="123" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="101" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="115" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="116" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="117" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:D56">
-    <cfRule type="containsText" dxfId="98" priority="91" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="113" priority="109" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="92" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="112" priority="110" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="93" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="111" priority="111" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:D56">
-    <cfRule type="containsText" dxfId="95" priority="94" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="110" priority="112" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="95" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="109" priority="113" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="96" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="108" priority="114" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55:E56">
-    <cfRule type="cellIs" dxfId="92" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="106" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="107" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="108" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="containsText" dxfId="89" priority="82" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="104" priority="100" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="83" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="103" priority="101" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="84" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="102" priority="102" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="containsText" dxfId="86" priority="85" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="101" priority="103" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="86" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="100" priority="104" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="87" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="99" priority="105" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="83" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="97" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="98" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="99" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="80" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="88" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="89" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="90" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="containsText" dxfId="77" priority="73" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="92" priority="91" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="74" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="91" priority="92" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="75" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="90" priority="93" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="containsText" dxfId="74" priority="76" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="89" priority="94" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="77" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="88" priority="95" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="78" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="87" priority="96" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="71" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="79" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="80" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="81" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="containsText" dxfId="68" priority="64" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="83" priority="82" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="65" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="82" priority="83" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="66" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="81" priority="84" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="containsText" dxfId="65" priority="67" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="80" priority="85" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="68" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="79" priority="86" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="69" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="78" priority="87" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="62" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="76" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="77" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="78" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="containsText" dxfId="59" priority="52" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="74" priority="70" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="53" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="73" priority="71" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="54" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="72" priority="72" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="containsText" dxfId="56" priority="55" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="71" priority="73" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="56" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="70" priority="74" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="57" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="69" priority="75" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="53" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="67" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="68" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="69" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="containsText" dxfId="50" priority="43" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="65" priority="61" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="44" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="64" priority="62" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="45" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="63" priority="63" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="containsText" dxfId="47" priority="46" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="62" priority="64" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="47" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="61" priority="65" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="48" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="60" priority="66" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="44" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="58" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="59" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="60" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="containsText" dxfId="41" priority="34" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="56" priority="52" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="35" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="55" priority="53" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="36" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="54" priority="54" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="containsText" dxfId="38" priority="37" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="53" priority="55" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="52" priority="56" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="39" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="51" priority="57" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="35" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="49" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="50" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="51" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="containsText" dxfId="32" priority="25" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="47" priority="43" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="26" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="46" priority="44" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="27" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="45" priority="45" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="containsText" dxfId="29" priority="28" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="44" priority="46" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="43" priority="47" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="30" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="42" priority="48" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="26" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="41" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="42" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:D41">
-    <cfRule type="containsText" dxfId="23" priority="16" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="38" priority="34" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="17" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="37" priority="35" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="18" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="36" priority="36" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:D41">
-    <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="35" priority="37" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="34" priority="38" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="21" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="33" priority="39" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="33" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="19" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="20" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="21" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
+    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="containsText" dxfId="20" priority="25" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="26" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="27" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D58)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D58)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
     <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D32)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D59)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D32)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D59)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+      <formula>NOT(ISERROR(SEARCH("Pass",D59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
     <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D32)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D59)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D32)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D59)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D32)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Pass",D59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
+    <dataValidation showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C57">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C59" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E57">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E59" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"High,Low"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -7359,7 +5977,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMK3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -7454,7 +6072,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" display="javascript:srcUp(%27%2F0054x000001Z8z4%3Fnoredirect%3D1%26isUserEntityOverride%3D1%26isdtp%3Dp1%27);"/>
+    <hyperlink ref="E3" r:id="rId1" display="javascript:srcUp(%27%2F0054x000001Z8z4%3Fnoredirect%3D1%26isUserEntityOverride%3D1%26isdtp%3Dp1%27);" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Navatar_Projects\einstein-code-version-2-pe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akul Bhutani\git\einstein-code-version-2-pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8B09F1-D2A3-4634-9B78-C3E42A26629C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Modules" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="97">
   <si>
     <t>Module_Name</t>
   </si>
@@ -296,9 +295,6 @@
     <t>ConvDatetc024_CreateNewCompanyUnderEvalThenChangeToPortfolioCompany</t>
   </si>
   <si>
-    <t>ConvDatetc025_CreateInsCompany</t>
-  </si>
-  <si>
     <t>ToggleTc004_VerifyTheToggleButtonAndFunctionalityOfToggleButtonOnPageRecord</t>
   </si>
   <si>
@@ -312,12 +308,21 @@
   </si>
   <si>
     <t>FSTc017_createFieldsForCustomObject</t>
+  </si>
+  <si>
+    <t>ConvDatetc025_RenameStatusValues</t>
+  </si>
+  <si>
+    <t>ConvDatetc026_CreateInsCompany</t>
+  </si>
+  <si>
+    <t>ConvDatetc027_PostConditionRevertRenameStatusValues</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -542,11 +547,137 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2" xfId="3"/>
   </cellStyles>
-  <dxfs count="280">
+  <dxfs count="292">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3942,7 +4073,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3991,27 +4122,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2:I3">
-    <cfRule type="cellIs" dxfId="279" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="6" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I3">
-    <cfRule type="cellIs" dxfId="278" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="7" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="277" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="276" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2:I4" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2:I4">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4022,11 +4153,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4492,7 +4623,7 @@
     </row>
     <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="3" t="s">
@@ -4506,12 +4637,10 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="8">
-        <v>1</v>
-      </c>
+      <c r="A32" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="8"/>
       <c r="C32" s="3" t="s">
         <v>7</v>
       </c>
@@ -4524,11 +4653,9 @@
     </row>
     <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="8">
-        <v>1</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="B33" s="8"/>
       <c r="C33" s="3" t="s">
         <v>7</v>
       </c>
@@ -4539,9 +4666,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
-        <v>33</v>
+    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="B34" s="8">
         <v>1</v>
@@ -4556,9 +4683,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B35" s="8">
         <v>1</v>
@@ -4575,7 +4702,7 @@
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="B36" s="8">
         <v>1</v>
@@ -4592,7 +4719,7 @@
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B37" s="8">
         <v>1</v>
@@ -4609,7 +4736,7 @@
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="B38" s="8">
         <v>1</v>
@@ -4626,7 +4753,7 @@
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" s="8">
         <v>1</v>
@@ -4643,7 +4770,7 @@
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="B40" s="8">
         <v>1</v>
@@ -4660,7 +4787,7 @@
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="B41" s="8">
         <v>1</v>
@@ -4676,11 +4803,13 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="14" t="s">
+      <c r="A42" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="8">
+        <v>1</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D42" t="s">
@@ -4692,10 +4821,12 @@
     </row>
     <row r="43" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="8">
+        <v>1</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D43" t="s">
@@ -4706,8 +4837,8 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="7" t="s">
-        <v>47</v>
+      <c r="A44" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="14" t="s">
@@ -4722,7 +4853,7 @@
     </row>
     <row r="45" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="14" t="s">
@@ -4737,7 +4868,7 @@
     </row>
     <row r="46" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="14" t="s">
@@ -4752,7 +4883,7 @@
     </row>
     <row r="47" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="14" t="s">
@@ -4767,7 +4898,7 @@
     </row>
     <row r="48" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B48" s="8"/>
       <c r="C48" s="14" t="s">
@@ -4782,7 +4913,7 @@
     </row>
     <row r="49" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B49" s="8"/>
       <c r="C49" s="14" t="s">
@@ -4797,7 +4928,7 @@
     </row>
     <row r="50" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B50" s="8"/>
       <c r="C50" s="14" t="s">
@@ -4812,7 +4943,7 @@
     </row>
     <row r="51" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="14" t="s">
@@ -4827,7 +4958,7 @@
     </row>
     <row r="52" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B52" s="8"/>
       <c r="C52" s="14" t="s">
@@ -4842,7 +4973,7 @@
     </row>
     <row r="53" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="B53" s="8"/>
       <c r="C53" s="14" t="s">
@@ -4857,7 +4988,7 @@
     </row>
     <row r="54" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B54" s="8"/>
       <c r="C54" s="14" t="s">
@@ -4872,7 +5003,7 @@
     </row>
     <row r="55" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B55" s="8"/>
       <c r="C55" s="14" t="s">
@@ -4886,8 +5017,8 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="16" t="s">
-        <v>84</v>
+      <c r="A56" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="B56" s="8"/>
       <c r="C56" s="14" t="s">
@@ -4901,8 +5032,8 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>82</v>
+      <c r="A57" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="B57" s="8"/>
       <c r="C57" s="14" t="s">
@@ -4916,8 +5047,8 @@
       </c>
     </row>
     <row r="58" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>93</v>
+      <c r="A58" s="16" t="s">
+        <v>84</v>
       </c>
       <c r="B58" s="8"/>
       <c r="C58" s="14" t="s">
@@ -4932,1042 +5063,1072 @@
     </row>
     <row r="59" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B59" s="8"/>
       <c r="C59" s="14" t="s">
         <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="60" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>92</v>
+      </c>
+      <c r="B60" s="8"/>
+      <c r="C60" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>93</v>
+      </c>
+      <c r="B61" s="8"/>
+      <c r="C61" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" t="s">
+        <v>83</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="275" priority="331" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="331" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="332" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="332" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="333" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="333" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="272" priority="370" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="284" priority="370" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="271" priority="371" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="283" priority="371" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="270" priority="372" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="282" priority="372" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="269" priority="373" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="281" priority="373" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="268" priority="374" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="280" priority="374" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="267" priority="375" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="279" priority="375" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="266" priority="364" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="278" priority="364" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="265" priority="365" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="277" priority="365" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="264" priority="366" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="276" priority="366" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="263" priority="367" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="275" priority="367" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="262" priority="368" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="274" priority="368" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="261" priority="369" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="273" priority="369" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="260" priority="358" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="272" priority="358" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="259" priority="359" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="271" priority="359" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="258" priority="360" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="270" priority="360" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="257" priority="361" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="269" priority="361" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="256" priority="362" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="268" priority="362" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="255" priority="363" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="267" priority="363" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="254" priority="352" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="266" priority="352" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="253" priority="353" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="265" priority="353" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="252" priority="354" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="264" priority="354" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="251" priority="355" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="263" priority="355" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="250" priority="356" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="262" priority="356" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="249" priority="357" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="261" priority="357" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="248" priority="346" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="260" priority="346" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="247" priority="347" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="259" priority="347" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="246" priority="348" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="258" priority="348" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="245" priority="349" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="257" priority="349" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="244" priority="350" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="256" priority="350" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="243" priority="351" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="255" priority="351" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" dxfId="242" priority="343" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="343" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="344" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="344" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="345" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="345" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="239" priority="340" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="340" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="341" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="341" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="342" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="342" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="236" priority="337" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="337" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="338" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="338" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="339" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="339" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="233" priority="334" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="334" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="335" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="335" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="336" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="336" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="230" priority="226" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="242" priority="226" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="229" priority="227" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="241" priority="227" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="228" priority="228" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="240" priority="228" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="227" priority="229" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="239" priority="229" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="226" priority="230" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="238" priority="230" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="225" priority="231" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="237" priority="231" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="224" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="223" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="224" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="225" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="225" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42:D44">
-    <cfRule type="containsText" dxfId="221" priority="295" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D42)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="220" priority="296" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D42)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="219" priority="297" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D42)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D42:D44">
-    <cfRule type="containsText" dxfId="218" priority="298" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D42)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="217" priority="299" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D42)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="216" priority="300" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D42)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E31">
-    <cfRule type="cellIs" dxfId="215" priority="214" operator="equal">
+  <conditionalFormatting sqref="D44:D46">
+    <cfRule type="containsText" dxfId="233" priority="295" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D44)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="232" priority="296" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D44)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="231" priority="297" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D44)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44:D46">
+    <cfRule type="containsText" dxfId="230" priority="298" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D44)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="229" priority="299" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D44)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="228" priority="300" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D44)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8:E33">
+    <cfRule type="cellIs" dxfId="227" priority="214" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="215" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="216" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E42:E44">
-    <cfRule type="cellIs" dxfId="212" priority="256" operator="equal">
+  <conditionalFormatting sqref="E44:E46">
+    <cfRule type="cellIs" dxfId="224" priority="256" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="257" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="258" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="cellIs" dxfId="221" priority="169" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="220" priority="170" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="219" priority="171" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:D33">
+    <cfRule type="containsText" dxfId="218" priority="217" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="217" priority="218" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="216" priority="219" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:D33">
+    <cfRule type="containsText" dxfId="215" priority="220" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="214" priority="221" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="213" priority="222" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule type="containsText" dxfId="212" priority="199" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D47)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="211" priority="200" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D47)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="210" priority="201" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D47)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule type="containsText" dxfId="209" priority="202" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D47)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="208" priority="203" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D47)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="207" priority="204" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D47)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="cellIs" dxfId="206" priority="196" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="205" priority="197" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="204" priority="198" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48">
+    <cfRule type="containsText" dxfId="203" priority="190" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="202" priority="191" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="201" priority="192" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48">
+    <cfRule type="containsText" dxfId="200" priority="193" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="199" priority="194" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="198" priority="195" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="209" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="187" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="188" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="189" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D31">
-    <cfRule type="containsText" dxfId="206" priority="217" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="205" priority="218" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="204" priority="219" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D31">
-    <cfRule type="containsText" dxfId="203" priority="220" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="202" priority="221" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="222" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
-    <cfRule type="containsText" dxfId="200" priority="199" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D45)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="199" priority="200" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D45)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="198" priority="201" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D45)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
-    <cfRule type="containsText" dxfId="197" priority="202" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D45)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="196" priority="203" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D45)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="195" priority="204" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D45)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="194" priority="196" operator="equal">
+  <conditionalFormatting sqref="D49">
+    <cfRule type="containsText" dxfId="194" priority="181" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D49)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="193" priority="182" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D49)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="192" priority="183" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
+    <cfRule type="containsText" dxfId="191" priority="184" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D49)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="190" priority="185" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D49)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="189" priority="186" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="cellIs" dxfId="188" priority="178" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="179" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="180" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="containsText" dxfId="191" priority="190" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="190" priority="191" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="189" priority="192" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="containsText" dxfId="188" priority="193" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="187" priority="194" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="195" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="185" priority="187" operator="equal">
+  <conditionalFormatting sqref="D50">
+    <cfRule type="containsText" dxfId="185" priority="172" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="184" priority="173" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="183" priority="174" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50">
+    <cfRule type="containsText" dxfId="182" priority="175" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="181" priority="176" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="180" priority="177" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="containsText" dxfId="179" priority="163" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="178" priority="164" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="177" priority="165" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D51)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="containsText" dxfId="176" priority="166" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="175" priority="167" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="174" priority="168" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D51)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="cellIs" dxfId="173" priority="160" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="161" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="162" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
-    <cfRule type="containsText" dxfId="182" priority="181" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D47)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="181" priority="182" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D47)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="180" priority="183" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
-    <cfRule type="containsText" dxfId="179" priority="184" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D47)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="185" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D47)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="177" priority="186" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="176" priority="178" operator="equal">
+  <conditionalFormatting sqref="D52">
+    <cfRule type="containsText" dxfId="170" priority="154" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="169" priority="155" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="168" priority="156" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D52)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="containsText" dxfId="167" priority="157" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="166" priority="158" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="165" priority="159" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D52)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="cellIs" dxfId="164" priority="151" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="152" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="153" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="containsText" dxfId="173" priority="172" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="173" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="174" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="containsText" dxfId="170" priority="175" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="169" priority="176" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="177" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="containsText" dxfId="167" priority="163" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D49)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="164" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D49)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="165" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D49)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="containsText" dxfId="164" priority="166" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D49)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="163" priority="167" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D49)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="168" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D49)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="161" priority="160" operator="equal">
+  <conditionalFormatting sqref="D53">
+    <cfRule type="containsText" dxfId="161" priority="145" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="160" priority="146" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="159" priority="147" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D53)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="containsText" dxfId="158" priority="148" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="157" priority="149" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="156" priority="150" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D53)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="155" priority="142" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="143" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="144" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="containsText" dxfId="158" priority="154" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="155" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="156" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D50)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="containsText" dxfId="155" priority="157" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="158" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="159" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D50)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="152" priority="151" operator="equal">
+  <conditionalFormatting sqref="D54">
+    <cfRule type="containsText" dxfId="152" priority="136" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="151" priority="137" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="150" priority="138" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54">
+    <cfRule type="containsText" dxfId="149" priority="139" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="148" priority="140" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="147" priority="141" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="146" priority="133" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="134" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="135" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="containsText" dxfId="149" priority="145" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="146" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="147" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D51)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="containsText" dxfId="146" priority="148" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="145" priority="149" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="150" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D51)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="143" priority="142" operator="equal">
+  <conditionalFormatting sqref="D55">
+    <cfRule type="containsText" dxfId="143" priority="127" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="142" priority="128" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="141" priority="129" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="containsText" dxfId="140" priority="130" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="139" priority="131" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="138" priority="132" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="137" priority="124" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="125" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="126" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="containsText" dxfId="140" priority="136" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D52)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="139" priority="137" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D52)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="138" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D52)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="containsText" dxfId="137" priority="139" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D52)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="140" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D52)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="141" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D52)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="134" priority="133" operator="equal">
+  <conditionalFormatting sqref="D56">
+    <cfRule type="containsText" dxfId="134" priority="118" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D56)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="133" priority="119" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D56)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="132" priority="120" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D56)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="containsText" dxfId="131" priority="121" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D56)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="130" priority="122" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D56)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="129" priority="123" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D56)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="128" priority="115" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="116" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="117" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="containsText" dxfId="131" priority="127" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="128" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="129" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D53)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="containsText" dxfId="128" priority="130" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="131" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="132" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D53)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="125" priority="124" operator="equal">
+  <conditionalFormatting sqref="D57:D58">
+    <cfRule type="containsText" dxfId="125" priority="109" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="124" priority="110" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="123" priority="111" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D57)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57:D58">
+    <cfRule type="containsText" dxfId="122" priority="112" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="121" priority="113" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="120" priority="114" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D57)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57:E58">
+    <cfRule type="cellIs" dxfId="119" priority="106" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="107" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="108" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
-    <cfRule type="containsText" dxfId="122" priority="118" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="119" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="120" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D54)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
-    <cfRule type="containsText" dxfId="119" priority="121" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="122" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="123" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D54)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="116" priority="115" operator="equal">
+  <conditionalFormatting sqref="D59">
+    <cfRule type="containsText" dxfId="116" priority="100" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D59)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="115" priority="101" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D59)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="114" priority="102" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule type="containsText" dxfId="113" priority="103" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D59)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="112" priority="104" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D59)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="111" priority="105" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="cellIs" dxfId="110" priority="97" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="98" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="99" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D55:D56">
-    <cfRule type="containsText" dxfId="113" priority="109" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="110" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="111" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D55)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55:D56">
-    <cfRule type="containsText" dxfId="110" priority="112" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="113" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="114" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D55)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55:E56">
-    <cfRule type="cellIs" dxfId="107" priority="106" operator="equal">
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="107" priority="88" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="89" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="90" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
-    <cfRule type="containsText" dxfId="104" priority="100" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D57)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="101" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D57)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="102" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D57)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
-    <cfRule type="containsText" dxfId="101" priority="103" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D57)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="104" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D57)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="105" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D57)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="98" priority="97" operator="equal">
+  <conditionalFormatting sqref="D35">
+    <cfRule type="containsText" dxfId="104" priority="91" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="103" priority="92" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="102" priority="93" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="containsText" dxfId="101" priority="94" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="100" priority="95" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="99" priority="96" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="98" priority="79" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="80" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="81" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="95" priority="88" operator="equal">
+  <conditionalFormatting sqref="D36">
+    <cfRule type="containsText" dxfId="95" priority="82" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="94" priority="83" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="93" priority="84" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="containsText" dxfId="92" priority="85" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="91" priority="86" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="90" priority="87" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="89" priority="76" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="77" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="78" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="containsText" dxfId="92" priority="91" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D33)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="92" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D33)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="93" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="containsText" dxfId="89" priority="94" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D33)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="95" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D33)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="96" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D33)))</formula>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="containsText" dxfId="86" priority="70" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="85" priority="71" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="84" priority="72" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="containsText" dxfId="83" priority="73" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="82" priority="74" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="81" priority="75" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="cellIs" dxfId="80" priority="67" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="68" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="69" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="containsText" dxfId="77" priority="61" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="76" priority="62" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="75" priority="63" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="containsText" dxfId="74" priority="64" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="73" priority="65" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="72" priority="66" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="71" priority="58" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="59" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="60" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="containsText" dxfId="68" priority="52" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="67" priority="53" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="66" priority="54" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="containsText" dxfId="65" priority="55" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="64" priority="56" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="63" priority="57" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="cellIs" dxfId="62" priority="49" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="50" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="51" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40">
+    <cfRule type="containsText" dxfId="59" priority="43" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D40)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="58" priority="44" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D40)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="57" priority="45" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D40)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40">
+    <cfRule type="containsText" dxfId="56" priority="46" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D40)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="55" priority="47" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D40)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="54" priority="48" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D40)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="cellIs" dxfId="53" priority="40" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="41" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="42" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41:D43">
+    <cfRule type="containsText" dxfId="50" priority="34" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D41)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="35" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D41)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="36" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41:D43">
+    <cfRule type="containsText" dxfId="47" priority="37" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D41)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="38" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D41)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="39" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="cellIs" dxfId="44" priority="31" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="32" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="33" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="cellIs" dxfId="41" priority="28" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="29" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="30" operator="equal">
+      <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="86" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="19" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="20" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="21" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="containsText" dxfId="83" priority="82" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="35" priority="22" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="83" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="34" priority="23" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="84" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="33" priority="24" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="containsText" dxfId="80" priority="85" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="32" priority="25" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="86" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="31" priority="26" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="87" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="30" priority="27" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D34)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="77" priority="76" operator="equal">
+  <conditionalFormatting sqref="D60">
+    <cfRule type="containsText" dxfId="29" priority="13" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D60)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="14" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D60)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="15" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D60)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="containsText" dxfId="26" priority="16" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D60)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="17" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D60)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="18" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D60)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="11" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="12" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="containsText" dxfId="74" priority="70" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="71" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="72" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="containsText" dxfId="71" priority="73" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="74" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="75" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="68" priority="67" operator="equal">
+  <conditionalFormatting sqref="D61">
+    <cfRule type="containsText" dxfId="20" priority="4" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D61)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D61)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="6" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D61)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61">
+    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D61)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="8" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D61)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D61)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="containsText" dxfId="65" priority="61" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="62" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="63" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="containsText" dxfId="62" priority="64" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="65" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="66" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="59" priority="58" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="59" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="60" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="containsText" dxfId="56" priority="52" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="53" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="54" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="containsText" dxfId="53" priority="55" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="56" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="57" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="50" priority="49" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="50" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="51" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="containsText" dxfId="47" priority="43" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="44" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="45" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="containsText" dxfId="44" priority="46" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="47" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="48" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="41" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="42" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39:D41">
-    <cfRule type="containsText" dxfId="38" priority="34" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="35" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="36" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39:D41">
-    <cfRule type="containsText" dxfId="35" priority="37" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="38" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="39" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="33" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="26" priority="19" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="20" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="21" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="containsText" dxfId="20" priority="25" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="26" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="27" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
-    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D58)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D58)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D58)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
-    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D58)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D58)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D58)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D59)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D59)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D59)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D59)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D59)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D59)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C59" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C61">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E59" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E61">
       <formula1>"High,Low"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5977,7 +6138,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -6072,7 +6233,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" display="javascript:srcUp(%27%2F0054x000001Z8z4%3Fnoredirect%3D1%26isUserEntityOverride%3D1%26isdtp%3Dp1%27);" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId1" display="javascript:srcUp(%27%2F0054x000001Z8z4%3Fnoredirect%3D1%26isUserEntityOverride%3D1%26isdtp%3Dp1%27);"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akul Bhutani\git\einstein-code-version-2-pe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sibaram\git\einstein-code-version-2-pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="101">
   <si>
     <t>Module_Name</t>
   </si>
@@ -317,6 +317,18 @@
   </si>
   <si>
     <t>ConvDatetc027_PostConditionRevertRenameStatusValues</t>
+  </si>
+  <si>
+    <t>ToggleTc010_VerifyTheButtonToggleButtonWithUserNewSession</t>
+  </si>
+  <si>
+    <t>Module3Tc002_UploadCsvToCreateTheNavigationData</t>
+  </si>
+  <si>
+    <t>Module3Tc003_VerifyTheDefaultMenuLabelAndUpdateTheLabel</t>
+  </si>
+  <si>
+    <t>Module3Tc001_createCRMUser</t>
   </si>
 </sst>
 </file>
@@ -551,7 +563,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3"/>
   </cellStyles>
-  <dxfs count="292">
+  <dxfs count="325">
     <dxf>
       <fill>
         <patternFill>
@@ -580,6 +592,78 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -607,6 +691,60 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -778,6 +916,78 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -805,6 +1015,60 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -877,6 +1141,33 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -976,6 +1267,78 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -1003,6 +1366,78 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -1327,6 +1762,33 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1723,6 +2185,78 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -2020,6 +2554,78 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -2317,6 +2923,78 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -2344,6 +3022,60 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2515,6 +3247,114 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2587,6 +3427,294 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -2614,6 +3742,61 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFABAB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA9D18E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFABAB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA9D18E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2650,6 +3833,60 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2686,6 +3923,42 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -2713,6 +3986,33 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2781,952 +4081,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFABAB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA9D18E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFABAB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA9D18E"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4122,22 +4476,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2:I3">
-    <cfRule type="cellIs" dxfId="291" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="6" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I3">
-    <cfRule type="cellIs" dxfId="290" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="7" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="289" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="288" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4154,10 +4508,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4837,11 +5191,13 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="14" t="s">
+      <c r="A44" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" s="8">
+        <v>1</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D44" t="s">
@@ -4852,11 +5208,11 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="7" t="s">
-        <v>46</v>
+      <c r="A45" s="15" t="s">
+        <v>100</v>
       </c>
       <c r="B45" s="8"/>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D45" t="s">
@@ -4868,10 +5224,12 @@
     </row>
     <row r="46" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" s="8">
+        <v>1</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D46" t="s">
@@ -4883,10 +5241,12 @@
     </row>
     <row r="47" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" s="8">
+        <v>1</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D47" t="s">
@@ -4897,8 +5257,8 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="7" t="s">
-        <v>57</v>
+      <c r="A48" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="B48" s="8"/>
       <c r="C48" s="14" t="s">
@@ -4913,7 +5273,7 @@
     </row>
     <row r="49" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B49" s="8"/>
       <c r="C49" s="14" t="s">
@@ -4928,7 +5288,7 @@
     </row>
     <row r="50" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B50" s="8"/>
       <c r="C50" s="14" t="s">
@@ -4943,7 +5303,7 @@
     </row>
     <row r="51" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="14" t="s">
@@ -4958,7 +5318,7 @@
     </row>
     <row r="52" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B52" s="8"/>
       <c r="C52" s="14" t="s">
@@ -4973,7 +5333,7 @@
     </row>
     <row r="53" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B53" s="8"/>
       <c r="C53" s="14" t="s">
@@ -4988,7 +5348,7 @@
     </row>
     <row r="54" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="B54" s="8"/>
       <c r="C54" s="14" t="s">
@@ -5003,7 +5363,7 @@
     </row>
     <row r="55" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B55" s="8"/>
       <c r="C55" s="14" t="s">
@@ -5018,7 +5378,7 @@
     </row>
     <row r="56" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B56" s="8"/>
       <c r="C56" s="14" t="s">
@@ -5033,7 +5393,7 @@
     </row>
     <row r="57" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="B57" s="8"/>
       <c r="C57" s="14" t="s">
@@ -5047,8 +5407,8 @@
       </c>
     </row>
     <row r="58" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="16" t="s">
-        <v>84</v>
+      <c r="A58" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="B58" s="8"/>
       <c r="C58" s="14" t="s">
@@ -5062,8 +5422,8 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>82</v>
+      <c r="A59" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="B59" s="8"/>
       <c r="C59" s="14" t="s">
@@ -5077,8 +5437,8 @@
       </c>
     </row>
     <row r="60" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>92</v>
+      <c r="A60" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="B60" s="8"/>
       <c r="C60" s="14" t="s">
@@ -5092,1030 +5452,1145 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>93</v>
+      <c r="A61" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="B61" s="8"/>
       <c r="C61" s="14" t="s">
         <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="62" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B62" s="8"/>
+      <c r="C62" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>82</v>
+      </c>
+      <c r="B63" s="8"/>
+      <c r="C63" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>92</v>
+      </c>
+      <c r="B64" s="8"/>
+      <c r="C64" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>93</v>
+      </c>
+      <c r="B65" s="8"/>
+      <c r="C65" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" t="s">
+        <v>83</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="287" priority="331" operator="equal">
+  <conditionalFormatting sqref="E6 E45">
+    <cfRule type="cellIs" dxfId="290" priority="355" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="332" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="356" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="285" priority="333" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="357" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D2 D44:D45">
+    <cfRule type="containsText" dxfId="287" priority="394" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="286" priority="395" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="285" priority="396" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="284" priority="370" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="284" priority="397" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="283" priority="371" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="283" priority="398" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="282" priority="372" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="282" priority="399" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="281" priority="373" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="280" priority="374" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="279" priority="375" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="278" priority="364" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="281" priority="388" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="277" priority="365" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="280" priority="389" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="276" priority="366" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="279" priority="390" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="275" priority="367" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="278" priority="391" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="274" priority="368" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="277" priority="392" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="273" priority="369" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="276" priority="393" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="272" priority="358" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="275" priority="382" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="271" priority="359" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="274" priority="383" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="270" priority="360" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="273" priority="384" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="269" priority="361" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="272" priority="385" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="268" priority="362" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="271" priority="386" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="267" priority="363" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="270" priority="387" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="266" priority="352" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="269" priority="376" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="265" priority="353" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="268" priority="377" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="264" priority="354" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="267" priority="378" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="263" priority="355" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="266" priority="379" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="262" priority="356" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="265" priority="380" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="261" priority="357" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="264" priority="381" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="260" priority="346" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="263" priority="370" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="259" priority="347" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="262" priority="371" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="258" priority="348" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="261" priority="372" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="257" priority="349" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="260" priority="373" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="256" priority="350" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="259" priority="374" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="255" priority="351" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="258" priority="375" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" dxfId="254" priority="343" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="367" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="344" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="368" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="345" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="369" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="251" priority="340" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="364" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="341" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="365" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="342" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="366" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="248" priority="337" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="361" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="338" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="362" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="339" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="363" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="245" priority="334" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="358" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="335" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="359" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="336" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="360" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="242" priority="226" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="245" priority="250" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="241" priority="227" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="244" priority="251" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="240" priority="228" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="243" priority="252" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="239" priority="229" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="242" priority="253" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="238" priority="230" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="241" priority="254" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="237" priority="231" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="240" priority="255" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="236" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="247" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="248" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="225" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="249" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44:D46">
-    <cfRule type="containsText" dxfId="233" priority="295" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D44)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="232" priority="296" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D44)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="231" priority="297" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D44)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44:D46">
-    <cfRule type="containsText" dxfId="230" priority="298" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D44)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="229" priority="299" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D44)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="228" priority="300" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D44)))</formula>
+  <conditionalFormatting sqref="D48:D50">
+    <cfRule type="containsText" dxfId="236" priority="319" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="235" priority="320" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="234" priority="321" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:D50">
+    <cfRule type="containsText" dxfId="233" priority="322" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="232" priority="323" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="231" priority="324" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:E33">
-    <cfRule type="cellIs" dxfId="227" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="238" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="239" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="240" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E44:E46">
-    <cfRule type="cellIs" dxfId="224" priority="256" operator="equal">
+  <conditionalFormatting sqref="E48:E50">
+    <cfRule type="cellIs" dxfId="227" priority="280" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="281" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="282" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="221" priority="169" operator="equal">
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="224" priority="193" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="194" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="195" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D33">
-    <cfRule type="containsText" dxfId="218" priority="217" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="221" priority="241" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="217" priority="218" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="220" priority="242" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="216" priority="219" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="219" priority="243" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D33">
-    <cfRule type="containsText" dxfId="215" priority="220" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="218" priority="244" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="214" priority="221" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="217" priority="245" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="213" priority="222" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="216" priority="246" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
-    <cfRule type="containsText" dxfId="212" priority="199" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D47)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="211" priority="200" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D47)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="210" priority="201" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
-    <cfRule type="containsText" dxfId="209" priority="202" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D47)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="208" priority="203" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D47)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="207" priority="204" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D47)))</formula>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="containsText" dxfId="215" priority="223" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="214" priority="224" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="213" priority="225" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D51)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="containsText" dxfId="212" priority="226" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="211" priority="227" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="210" priority="228" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D51)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="cellIs" dxfId="209" priority="220" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="208" priority="221" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="207" priority="222" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="containsText" dxfId="206" priority="214" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="205" priority="215" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="204" priority="216" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D52)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="containsText" dxfId="203" priority="217" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="202" priority="218" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="201" priority="219" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D52)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="cellIs" dxfId="200" priority="211" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="199" priority="212" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="198" priority="213" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="containsText" dxfId="197" priority="205" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="196" priority="206" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="195" priority="207" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D53)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="containsText" dxfId="194" priority="208" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="193" priority="209" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="192" priority="210" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D53)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="191" priority="202" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="190" priority="203" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="189" priority="204" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54">
+    <cfRule type="containsText" dxfId="188" priority="196" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="187" priority="197" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="186" priority="198" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54">
+    <cfRule type="containsText" dxfId="185" priority="199" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="184" priority="200" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="183" priority="201" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="containsText" dxfId="182" priority="187" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="181" priority="188" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="180" priority="189" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="containsText" dxfId="179" priority="190" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="178" priority="191" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="177" priority="192" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="176" priority="184" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="175" priority="185" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="174" priority="186" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="containsText" dxfId="173" priority="178" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D56)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="172" priority="179" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D56)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="171" priority="180" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D56)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="containsText" dxfId="170" priority="181" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D56)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="169" priority="182" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D56)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="168" priority="183" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D56)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="167" priority="175" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="176" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="165" priority="177" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="containsText" dxfId="164" priority="169" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="163" priority="170" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="162" priority="171" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D57)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="containsText" dxfId="161" priority="172" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="160" priority="173" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="159" priority="174" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D57)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="cellIs" dxfId="158" priority="166" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="157" priority="167" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="156" priority="168" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="containsText" dxfId="155" priority="160" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="154" priority="161" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="153" priority="162" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D58)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="containsText" dxfId="152" priority="163" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="151" priority="164" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="150" priority="165" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D58)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="149" priority="157" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="158" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="147" priority="159" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule type="containsText" dxfId="146" priority="151" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D59)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="145" priority="152" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D59)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="144" priority="153" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule type="containsText" dxfId="143" priority="154" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D59)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="142" priority="155" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D59)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="141" priority="156" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="cellIs" dxfId="140" priority="148" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="139" priority="149" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="150" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="containsText" dxfId="137" priority="142" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D60)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="136" priority="143" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D60)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="135" priority="144" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D60)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="containsText" dxfId="134" priority="145" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D60)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="133" priority="146" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D60)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="132" priority="147" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D60)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="cellIs" dxfId="131" priority="139" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="140" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="129" priority="141" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61:D62">
+    <cfRule type="containsText" dxfId="128" priority="133" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D61)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="127" priority="134" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D61)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="126" priority="135" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D61)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61:D62">
+    <cfRule type="containsText" dxfId="125" priority="136" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D61)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="124" priority="137" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D61)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="123" priority="138" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D61)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61:E62">
+    <cfRule type="cellIs" dxfId="122" priority="130" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="131" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="132" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63">
+    <cfRule type="containsText" dxfId="119" priority="124" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D63)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="118" priority="125" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D63)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="117" priority="126" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D63)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63">
+    <cfRule type="containsText" dxfId="116" priority="127" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D63)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="115" priority="128" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D63)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="114" priority="129" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D63)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="cellIs" dxfId="113" priority="121" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="122" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="111" priority="123" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="110" priority="112" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="113" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="114" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="containsText" dxfId="107" priority="115" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="106" priority="116" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="105" priority="117" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="containsText" dxfId="104" priority="118" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="103" priority="119" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="102" priority="120" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="101" priority="103" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="104" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="99" priority="105" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="containsText" dxfId="98" priority="106" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="97" priority="107" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="96" priority="108" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="containsText" dxfId="95" priority="109" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="94" priority="110" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="93" priority="111" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="92" priority="100" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="101" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="102" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="containsText" dxfId="89" priority="94" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="88" priority="95" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="87" priority="96" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="containsText" dxfId="86" priority="97" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="85" priority="98" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="84" priority="99" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="cellIs" dxfId="83" priority="91" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="92" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="93" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="containsText" dxfId="80" priority="85" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="79" priority="86" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="78" priority="87" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="containsText" dxfId="77" priority="88" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="76" priority="89" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="75" priority="90" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="74" priority="82" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="83" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="84" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="containsText" dxfId="71" priority="76" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="70" priority="77" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="69" priority="78" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="containsText" dxfId="68" priority="79" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="67" priority="80" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="66" priority="81" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="cellIs" dxfId="65" priority="73" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="74" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="75" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40">
+    <cfRule type="containsText" dxfId="62" priority="67" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D40)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="61" priority="68" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D40)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="60" priority="69" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D40)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40">
+    <cfRule type="containsText" dxfId="59" priority="70" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D40)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="58" priority="71" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D40)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="57" priority="72" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D40)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="cellIs" dxfId="56" priority="64" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="65" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="66" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41:D43">
+    <cfRule type="containsText" dxfId="53" priority="58" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D41)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="59" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D41)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="51" priority="60" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41:D43">
+    <cfRule type="containsText" dxfId="50" priority="61" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D41)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="62" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D41)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="63" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="cellIs" dxfId="47" priority="55" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="56" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="57" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="cellIs" dxfId="44" priority="52" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="53" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="54" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="45" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="containsText" dxfId="38" priority="46" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="47" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="48" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="containsText" dxfId="35" priority="49" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="50" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="51" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D64">
+    <cfRule type="containsText" dxfId="32" priority="37" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D64)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="38" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D64)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="39" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D64)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D64">
+    <cfRule type="containsText" dxfId="29" priority="40" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D64)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="41" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D64)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="42" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D64)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="cellIs" dxfId="26" priority="34" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="35" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="36" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65">
+    <cfRule type="containsText" dxfId="23" priority="28" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D65)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="29" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D65)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="30" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D65)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65">
+    <cfRule type="containsText" dxfId="20" priority="31" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D65)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="32" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D65)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="33" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D65)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="cellIs" dxfId="17" priority="25" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="26" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="27" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="18" operator="equal">
+      <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="206" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="containsText" dxfId="203" priority="190" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="202" priority="191" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="192" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="containsText" dxfId="200" priority="193" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="199" priority="194" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="198" priority="195" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="197" priority="187" operator="equal">
+  <conditionalFormatting sqref="D46:D47">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46:D47">
+    <cfRule type="containsText" dxfId="5" priority="10" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="11" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="12" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="189" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="containsText" dxfId="194" priority="181" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D49)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="193" priority="182" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D49)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="192" priority="183" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D49)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="containsText" dxfId="191" priority="184" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D49)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="190" priority="185" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D49)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="189" priority="186" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D49)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="188" priority="178" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="179" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="180" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="containsText" dxfId="185" priority="172" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="184" priority="173" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="183" priority="174" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D50)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="containsText" dxfId="182" priority="175" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="181" priority="176" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="180" priority="177" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D50)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="containsText" dxfId="179" priority="163" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="164" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="177" priority="165" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D51)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="containsText" dxfId="176" priority="166" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="175" priority="167" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="168" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D51)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="173" priority="160" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="161" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="162" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="containsText" dxfId="170" priority="154" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D52)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="169" priority="155" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D52)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="156" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D52)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="containsText" dxfId="167" priority="157" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D52)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="158" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D52)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="159" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D52)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="164" priority="151" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="152" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="153" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="containsText" dxfId="161" priority="145" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="146" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="147" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D53)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="containsText" dxfId="158" priority="148" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="149" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="150" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D53)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="155" priority="142" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="143" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="144" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
-    <cfRule type="containsText" dxfId="152" priority="136" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="151" priority="137" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="138" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D54)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
-    <cfRule type="containsText" dxfId="149" priority="139" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="140" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="141" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D54)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="146" priority="133" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="134" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="135" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="containsText" dxfId="143" priority="127" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="128" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="129" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D55)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="containsText" dxfId="140" priority="130" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="139" priority="131" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="132" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D55)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="137" priority="124" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="125" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="126" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="containsText" dxfId="134" priority="118" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D56)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="119" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D56)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="120" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D56)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="containsText" dxfId="131" priority="121" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D56)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="122" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D56)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="123" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D56)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="128" priority="115" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="116" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="117" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57:D58">
-    <cfRule type="containsText" dxfId="125" priority="109" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D57)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="110" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D57)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="111" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D57)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57:D58">
-    <cfRule type="containsText" dxfId="122" priority="112" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D57)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="113" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D57)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="114" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D57)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57:E58">
-    <cfRule type="cellIs" dxfId="119" priority="106" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="107" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="108" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
-    <cfRule type="containsText" dxfId="116" priority="100" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D59)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="101" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D59)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="102" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D59)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
-    <cfRule type="containsText" dxfId="113" priority="103" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D59)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="104" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D59)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="105" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D59)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="110" priority="97" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="98" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="99" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="107" priority="88" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="89" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="90" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="containsText" dxfId="104" priority="91" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="92" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="93" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="containsText" dxfId="101" priority="94" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="95" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="96" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="98" priority="79" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="80" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="81" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="containsText" dxfId="95" priority="82" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="83" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="84" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="containsText" dxfId="92" priority="85" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="86" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="87" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="89" priority="76" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="77" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="78" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="containsText" dxfId="86" priority="70" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="71" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="72" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="containsText" dxfId="83" priority="73" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="74" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="75" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="80" priority="67" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="68" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="69" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="containsText" dxfId="77" priority="61" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="62" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="63" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="containsText" dxfId="74" priority="64" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="65" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="66" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="71" priority="58" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="59" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="60" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
-    <cfRule type="containsText" dxfId="68" priority="52" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="53" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="54" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
-    <cfRule type="containsText" dxfId="65" priority="55" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="56" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="57" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="62" priority="49" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="50" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="51" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
-    <cfRule type="containsText" dxfId="59" priority="43" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D40)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="44" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D40)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="45" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D40)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
-    <cfRule type="containsText" dxfId="56" priority="46" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D40)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="47" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D40)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="48" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D40)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="53" priority="40" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="41" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="42" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D41:D43">
-    <cfRule type="containsText" dxfId="50" priority="34" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D41)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="35" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D41)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="36" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D41)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D41:D43">
-    <cfRule type="containsText" dxfId="47" priority="37" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D41)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="38" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D41)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="39" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D41)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="44" priority="31" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="32" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="33" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="cellIs" dxfId="41" priority="28" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="29" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="30" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="38" priority="19" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="20" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="21" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="containsText" dxfId="35" priority="22" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="23" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="24" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="containsText" dxfId="32" priority="25" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="26" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="27" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="containsText" dxfId="29" priority="13" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D60)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="14" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D60)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="15" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D60)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="containsText" dxfId="26" priority="16" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D60)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="17" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D60)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="18" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D60)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="11" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="12" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D61">
-    <cfRule type="containsText" dxfId="20" priority="4" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D61)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D61)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="6" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D61)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D61">
-    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D61)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="8" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D61)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D61)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6124,11 +6599,11 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C61">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C65">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E61">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E65">
       <formula1>"High,Low"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sibaram\git\einstein-code-version-2-pe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Navatar_Projects\einstein-code-version-2-pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406606CD-8257-4FDC-BE48-6AC6385058D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Modules" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="103">
   <si>
     <t>Module_Name</t>
   </si>
@@ -329,12 +330,18 @@
   </si>
   <si>
     <t>Module3Tc001_createCRMUser</t>
+  </si>
+  <si>
+    <t>FSTc018_verifyFieldSetImagePath</t>
+  </si>
+  <si>
+    <t>FSTc019_addProfileImageFieldOnLayOut</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -559,11 +566,11 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="2"/>
+    <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
-  <dxfs count="325">
+  <dxfs count="313">
     <dxf>
       <fill>
         <patternFill>
@@ -691,6 +698,78 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -718,6 +797,78 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -745,6 +896,60 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -3766,321 +3971,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFA9D18E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF548235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEEBF7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4427,7 +4317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -4476,27 +4366,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2:I3">
-    <cfRule type="cellIs" dxfId="294" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="6" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I3">
-    <cfRule type="cellIs" dxfId="293" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="7" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="292" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="291" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2:I4">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2:I4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4507,11 +4397,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:XFD45"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5526,305 +5416,401 @@
         <v>9</v>
       </c>
     </row>
+    <row r="66" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>101</v>
+      </c>
+      <c r="B66" s="8"/>
+      <c r="C66" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" t="s">
+        <v>83</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>102</v>
+      </c>
+      <c r="B67" s="8"/>
+      <c r="C67" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" t="s">
+        <v>83</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="E6 E45">
-    <cfRule type="cellIs" dxfId="290" priority="355" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="373" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="356" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="374" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="357" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="375" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2 D44:D45">
+    <cfRule type="containsText" dxfId="305" priority="412" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="304" priority="413" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="303" priority="414" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="containsText" dxfId="302" priority="415" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="301" priority="416" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="300" priority="417" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="containsText" dxfId="299" priority="406" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="298" priority="407" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="297" priority="408" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="containsText" dxfId="296" priority="409" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="295" priority="410" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="294" priority="411" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="293" priority="400" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="292" priority="401" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="291" priority="402" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="290" priority="403" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="289" priority="404" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="288" priority="405" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
     <cfRule type="containsText" dxfId="287" priority="394" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="286" priority="395" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="285" priority="396" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2">
+      <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
     <cfRule type="containsText" dxfId="284" priority="397" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="283" priority="398" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="282" priority="399" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
+      <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
     <cfRule type="containsText" dxfId="281" priority="388" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="280" priority="389" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="279" priority="390" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
+      <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
     <cfRule type="containsText" dxfId="278" priority="391" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="277" priority="392" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="276" priority="393" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="275" priority="382" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="274" priority="383" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="273" priority="384" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="272" priority="385" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="271" priority="386" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="270" priority="387" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="269" priority="376" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="268" priority="377" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="267" priority="378" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="266" priority="379" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="265" priority="380" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="264" priority="381" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="263" priority="370" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="262" priority="371" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="261" priority="372" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="260" priority="373" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="259" priority="374" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="258" priority="375" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" dxfId="257" priority="367" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="385" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="368" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="386" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="255" priority="369" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="387" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="254" priority="364" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="382" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="365" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="383" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="366" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="384" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="251" priority="361" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="379" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="362" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="380" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="363" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="381" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="248" priority="358" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="376" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="359" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="377" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="360" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="378" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="245" priority="250" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="263" priority="268" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="244" priority="251" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="262" priority="269" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="243" priority="252" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="261" priority="270" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="242" priority="253" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="260" priority="271" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="241" priority="254" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="259" priority="272" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="240" priority="255" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="258" priority="273" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="239" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="265" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="266" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="267" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48:D50">
-    <cfRule type="containsText" dxfId="236" priority="319" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="254" priority="337" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="235" priority="320" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="253" priority="338" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="234" priority="321" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="252" priority="339" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48:D50">
-    <cfRule type="containsText" dxfId="233" priority="322" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="251" priority="340" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="232" priority="323" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="250" priority="341" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="231" priority="324" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="249" priority="342" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:E33">
-    <cfRule type="cellIs" dxfId="230" priority="238" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="256" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="239" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="257" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="258" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48:E50">
-    <cfRule type="cellIs" dxfId="227" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="298" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="281" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="299" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="282" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="300" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="224" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="211" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="212" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="213" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D33">
-    <cfRule type="containsText" dxfId="221" priority="241" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="239" priority="259" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="220" priority="242" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="238" priority="260" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="219" priority="243" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="237" priority="261" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D33">
-    <cfRule type="containsText" dxfId="218" priority="244" operator="containsText" text="Skip:">
+    <cfRule type="containsText" dxfId="236" priority="262" operator="containsText" text="Skip:">
       <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="217" priority="245" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="235" priority="263" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="216" priority="246" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="234" priority="264" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
+    <cfRule type="containsText" dxfId="233" priority="241" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="232" priority="242" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="231" priority="243" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D51)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="containsText" dxfId="230" priority="244" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="229" priority="245" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="228" priority="246" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D51)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="cellIs" dxfId="227" priority="238" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="226" priority="239" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="225" priority="240" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="containsText" dxfId="224" priority="232" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="223" priority="233" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="222" priority="234" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D52)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="containsText" dxfId="221" priority="235" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="220" priority="236" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="219" priority="237" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D52)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="cellIs" dxfId="218" priority="229" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="217" priority="230" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="216" priority="231" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
     <cfRule type="containsText" dxfId="215" priority="223" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D51)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D53)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="214" priority="224" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D51)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D53)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="213" priority="225" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D51)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
+      <formula>NOT(ISERROR(SEARCH("Pass",D53)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
     <cfRule type="containsText" dxfId="212" priority="226" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D51)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D53)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="211" priority="227" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D51)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D53)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="210" priority="228" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D51)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
+      <formula>NOT(ISERROR(SEARCH("Pass",D53)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
     <cfRule type="cellIs" dxfId="209" priority="220" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -5835,117 +5821,117 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
+  <conditionalFormatting sqref="D54">
     <cfRule type="containsText" dxfId="206" priority="214" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D52)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D54)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="205" priority="215" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D52)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D54)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="204" priority="216" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D52)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
+      <formula>NOT(ISERROR(SEARCH("Pass",D54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54">
     <cfRule type="containsText" dxfId="203" priority="217" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D52)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D54)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="202" priority="218" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D52)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D54)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="201" priority="219" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D52)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="200" priority="211" operator="equal">
+      <formula>NOT(ISERROR(SEARCH("Pass",D54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="containsText" dxfId="200" priority="205" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="199" priority="206" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="198" priority="207" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="containsText" dxfId="197" priority="208" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="196" priority="209" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="195" priority="210" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="194" priority="202" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="203" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="204" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="containsText" dxfId="197" priority="205" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="196" priority="206" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="195" priority="207" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D53)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="containsText" dxfId="194" priority="208" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="193" priority="209" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="192" priority="210" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D53)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="191" priority="202" operator="equal">
+  <conditionalFormatting sqref="D56">
+    <cfRule type="containsText" dxfId="191" priority="196" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D56)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="190" priority="197" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D56)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="189" priority="198" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D56)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="containsText" dxfId="188" priority="199" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D56)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="187" priority="200" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D56)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="186" priority="201" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D56)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="185" priority="193" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="194" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="195" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
-    <cfRule type="containsText" dxfId="188" priority="196" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="187" priority="197" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="198" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D54)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
-    <cfRule type="containsText" dxfId="185" priority="199" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="184" priority="200" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="183" priority="201" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D54)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
+  <conditionalFormatting sqref="D57">
     <cfRule type="containsText" dxfId="182" priority="187" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D55)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D57)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="181" priority="188" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D55)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D57)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="180" priority="189" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D55)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
+      <formula>NOT(ISERROR(SEARCH("Pass",D57)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
     <cfRule type="containsText" dxfId="179" priority="190" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D55)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D57)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="178" priority="191" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D55)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D57)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="177" priority="192" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D55)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
+      <formula>NOT(ISERROR(SEARCH("Pass",D57)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
     <cfRule type="cellIs" dxfId="176" priority="184" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -5956,29 +5942,29 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
+  <conditionalFormatting sqref="D58">
     <cfRule type="containsText" dxfId="173" priority="178" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D56)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D58)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="172" priority="179" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D56)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D58)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="171" priority="180" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D56)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
+      <formula>NOT(ISERROR(SEARCH("Pass",D58)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
     <cfRule type="containsText" dxfId="170" priority="181" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D56)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D58)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="169" priority="182" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D56)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D58)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="168" priority="183" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D56)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
+      <formula>NOT(ISERROR(SEARCH("Pass",D58)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
     <cfRule type="cellIs" dxfId="167" priority="175" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -5989,29 +5975,29 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
+  <conditionalFormatting sqref="D59">
     <cfRule type="containsText" dxfId="164" priority="169" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D57)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D59)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="163" priority="170" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D57)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D59)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="162" priority="171" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D57)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
+      <formula>NOT(ISERROR(SEARCH("Pass",D59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
     <cfRule type="containsText" dxfId="161" priority="172" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D57)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D59)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="160" priority="173" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D57)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D59)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="159" priority="174" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D57)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
+      <formula>NOT(ISERROR(SEARCH("Pass",D59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
     <cfRule type="cellIs" dxfId="158" priority="166" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -6022,29 +6008,29 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
+  <conditionalFormatting sqref="D60">
     <cfRule type="containsText" dxfId="155" priority="160" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D58)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D60)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="154" priority="161" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D58)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D60)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="153" priority="162" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D58)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
+      <formula>NOT(ISERROR(SEARCH("Pass",D60)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
     <cfRule type="containsText" dxfId="152" priority="163" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D58)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D60)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="151" priority="164" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D58)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D60)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="150" priority="165" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D58)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
+      <formula>NOT(ISERROR(SEARCH("Pass",D60)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
     <cfRule type="cellIs" dxfId="149" priority="157" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -6055,29 +6041,29 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
+  <conditionalFormatting sqref="D61:D62">
     <cfRule type="containsText" dxfId="146" priority="151" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D59)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D61)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="145" priority="152" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D59)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D61)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="144" priority="153" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D59)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
+      <formula>NOT(ISERROR(SEARCH("Pass",D61)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61:D62">
     <cfRule type="containsText" dxfId="143" priority="154" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D59)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D61)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="142" priority="155" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D59)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D61)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="141" priority="156" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D59)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
+      <formula>NOT(ISERROR(SEARCH("Pass",D61)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61:E62">
     <cfRule type="cellIs" dxfId="140" priority="148" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -6088,29 +6074,29 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
+  <conditionalFormatting sqref="D63">
     <cfRule type="containsText" dxfId="137" priority="142" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D60)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D63)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="136" priority="143" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D60)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D63)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="135" priority="144" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D60)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
+      <formula>NOT(ISERROR(SEARCH("Pass",D63)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63">
     <cfRule type="containsText" dxfId="134" priority="145" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D60)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D63)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="133" priority="146" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D60)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D63)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="132" priority="147" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D60)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
+      <formula>NOT(ISERROR(SEARCH("Pass",D63)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
     <cfRule type="cellIs" dxfId="131" priority="139" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -6121,139 +6107,139 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D61:D62">
-    <cfRule type="containsText" dxfId="128" priority="133" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D61)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="134" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D61)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="135" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D61)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D61:D62">
-    <cfRule type="containsText" dxfId="125" priority="136" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D61)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="137" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D61)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="138" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D61)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61:E62">
-    <cfRule type="cellIs" dxfId="122" priority="130" operator="equal">
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="128" priority="130" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="131" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="132" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
-    <cfRule type="containsText" dxfId="119" priority="124" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D63)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="125" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D63)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="126" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D63)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
-    <cfRule type="containsText" dxfId="116" priority="127" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D63)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="128" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D63)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="129" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D63)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="113" priority="121" operator="equal">
+  <conditionalFormatting sqref="D35">
+    <cfRule type="containsText" dxfId="125" priority="133" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="124" priority="134" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="123" priority="135" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="containsText" dxfId="122" priority="136" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="121" priority="137" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="120" priority="138" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="119" priority="121" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="122" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="123" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="110" priority="112" operator="equal">
+  <conditionalFormatting sqref="D36">
+    <cfRule type="containsText" dxfId="116" priority="124" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="115" priority="125" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="114" priority="126" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="containsText" dxfId="113" priority="127" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="112" priority="128" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="111" priority="129" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="110" priority="118" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="119" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="120" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="containsText" dxfId="107" priority="115" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="116" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="117" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="containsText" dxfId="104" priority="118" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="119" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="120" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="101" priority="103" operator="equal">
+  <conditionalFormatting sqref="D37">
+    <cfRule type="containsText" dxfId="107" priority="112" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="106" priority="113" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="105" priority="114" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="containsText" dxfId="104" priority="115" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="103" priority="116" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="102" priority="117" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="cellIs" dxfId="101" priority="109" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="110" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="111" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="containsText" dxfId="98" priority="106" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="107" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="108" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="containsText" dxfId="95" priority="109" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="110" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="111" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
+  <conditionalFormatting sqref="D38">
+    <cfRule type="containsText" dxfId="98" priority="103" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="97" priority="104" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="96" priority="105" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="containsText" dxfId="95" priority="106" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="94" priority="107" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="93" priority="108" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
     <cfRule type="cellIs" dxfId="92" priority="100" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -6264,29 +6250,29 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
+  <conditionalFormatting sqref="D39">
     <cfRule type="containsText" dxfId="89" priority="94" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D37)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D39)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="88" priority="95" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D37)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D39)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="87" priority="96" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
+      <formula>NOT(ISERROR(SEARCH("Pass",D39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
     <cfRule type="containsText" dxfId="86" priority="97" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D37)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D39)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="85" priority="98" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D37)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D39)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="84" priority="99" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
+      <formula>NOT(ISERROR(SEARCH("Pass",D39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
     <cfRule type="cellIs" dxfId="83" priority="91" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -6297,29 +6283,29 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
+  <conditionalFormatting sqref="D40">
     <cfRule type="containsText" dxfId="80" priority="85" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D38)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D40)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="79" priority="86" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D38)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D40)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="78" priority="87" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
+      <formula>NOT(ISERROR(SEARCH("Pass",D40)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40">
     <cfRule type="containsText" dxfId="77" priority="88" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D38)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D40)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="76" priority="89" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D38)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D40)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="75" priority="90" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
+      <formula>NOT(ISERROR(SEARCH("Pass",D40)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
     <cfRule type="cellIs" dxfId="74" priority="82" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -6330,29 +6316,29 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
+  <conditionalFormatting sqref="D41:D43">
     <cfRule type="containsText" dxfId="71" priority="76" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D39)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D41)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="70" priority="77" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D39)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D41)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="69" priority="78" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
+      <formula>NOT(ISERROR(SEARCH("Pass",D41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41:D43">
     <cfRule type="containsText" dxfId="68" priority="79" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D39)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D41)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="67" priority="80" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D39)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D41)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="66" priority="81" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
+      <formula>NOT(ISERROR(SEARCH("Pass",D41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
     <cfRule type="cellIs" dxfId="65" priority="73" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -6363,73 +6349,73 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
-    <cfRule type="containsText" dxfId="62" priority="67" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D40)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="68" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D40)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="69" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D40)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
-    <cfRule type="containsText" dxfId="59" priority="70" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D40)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="71" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D40)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="72" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D40)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="56" priority="64" operator="equal">
+  <conditionalFormatting sqref="E43">
+    <cfRule type="cellIs" dxfId="62" priority="70" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="71" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="72" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41:D43">
-    <cfRule type="containsText" dxfId="53" priority="58" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D41)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="59" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D41)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="60" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D41)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D41:D43">
-    <cfRule type="containsText" dxfId="50" priority="61" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D41)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="62" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D41)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="63" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D41)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="47" priority="55" operator="equal">
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="59" priority="61" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="62" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="63" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
+  <conditionalFormatting sqref="D34">
+    <cfRule type="containsText" dxfId="56" priority="64" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="55" priority="65" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="54" priority="66" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="containsText" dxfId="53" priority="67" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="68" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="51" priority="69" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D64">
+    <cfRule type="containsText" dxfId="50" priority="55" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D64)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="56" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D64)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="57" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D64)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D64">
+    <cfRule type="containsText" dxfId="47" priority="58" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D64)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="59" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D64)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="60" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D64)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
     <cfRule type="cellIs" dxfId="44" priority="52" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
@@ -6440,170 +6426,170 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
+  <conditionalFormatting sqref="D65">
+    <cfRule type="containsText" dxfId="41" priority="46" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D65)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="47" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D65)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="39" priority="48" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D65)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65">
+    <cfRule type="containsText" dxfId="38" priority="49" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D65)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="50" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D65)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="51" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D65)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="cellIs" dxfId="35" priority="43" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="44" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="45" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="containsText" dxfId="38" priority="46" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="47" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="48" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="containsText" dxfId="35" priority="49" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="50" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="51" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
-    <cfRule type="containsText" dxfId="32" priority="37" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D64)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="38" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D64)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="39" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D64)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
-    <cfRule type="containsText" dxfId="29" priority="40" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D64)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="41" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D64)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="42" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D64)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="26" priority="34" operator="equal">
+  <conditionalFormatting sqref="E44">
+    <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="35" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="36" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
+  <conditionalFormatting sqref="E47">
+    <cfRule type="cellIs" dxfId="29" priority="19" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="20" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="21" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46:D47">
+    <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="27" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46:D47">
     <cfRule type="containsText" dxfId="23" priority="28" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D65)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Skip:",D46)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="22" priority="29" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D65)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",D46)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="21" priority="30" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D65)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
-    <cfRule type="containsText" dxfId="20" priority="31" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D65)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="32" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D65)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="33" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D65)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="17" priority="25" operator="equal">
+      <formula>NOT(ISERROR(SEARCH("Pass",D46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="24" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+  <conditionalFormatting sqref="D66">
+    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D66)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D66)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D66)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D66">
+    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D66)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D66)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D66)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+  <conditionalFormatting sqref="D67">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D67)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D67)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D67)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D67">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Skip:">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D67)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",D67)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",D67)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46:D47">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46:D47">
-    <cfRule type="containsText" dxfId="5" priority="10" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="11" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="12" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
+    <dataValidation showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C65">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C67" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E65">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E67" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"High,Low"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -6613,7 +6599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMK3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -6708,7 +6694,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" display="javascript:srcUp(%27%2F0054x000001Z8z4%3Fnoredirect%3D1%26isUserEntityOverride%3D1%26isdtp%3Dp1%27);"/>
+    <hyperlink ref="E3" r:id="rId1" display="javascript:srcUp(%27%2F0054x000001Z8z4%3Fnoredirect%3D1%26isUserEntityOverride%3D1%26isdtp%3Dp1%27);" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Navatar_Projects\einstein-code-version-2-pe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sibaram\git\einstein-code-version-2-pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406606CD-8257-4FDC-BE48-6AC6385058D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" tabRatio="500" windowHeight="11160" windowWidth="20730" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Modules" sheetId="1" r:id="rId1"/>
-    <sheet name="TestCases" sheetId="10" r:id="rId2"/>
-    <sheet name="Users" sheetId="3" r:id="rId3"/>
+    <sheet name="Modules" r:id="rId1" sheetId="1"/>
+    <sheet name="TestCases" r:id="rId2" sheetId="10"/>
+    <sheet name="Users" r:id="rId3" sheetId="3"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="108">
   <si>
     <t>Module_Name</t>
   </si>
@@ -278,9 +277,6 @@
     <t>FSTc015_createFieldsForPackageObject</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t>FSTc014_CreatedataForPackageObject</t>
   </si>
   <si>
@@ -336,12 +332,38 @@
   </si>
   <si>
     <t>FSTc019_addProfileImageFieldOnLayOut</t>
+  </si>
+  <si>
+    <t>Module3</t>
+  </si>
+  <si>
+    <t>Module3Tc004_OpentheNavigationMenuAndVerifyTheMenuItems</t>
+  </si>
+  <si>
+    <t>Fail: timeout: Timed out receiving message from renderer: 10.000
+  (Session info: chrome=88.0.4324.104)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:25:53'
+System info: host: 'DESKTOP-K4MTBVJ', ip: '192.168.0.104', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_141'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 88.0.4324.104, chrome: {chromedriverVersion: 87.0.4280.20 (c99e81631faa0..., userDataDir: C:\Users\sibaram\AppData\Lo...}, goog:chromeOptions: {debuggerAddress: localhost:63888}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:virtualAuthenticators: true}
+Session ID: 1b41886e1662c3724adefb794bc06a38</t>
+  </si>
+  <si>
+    <t>Module3Tc005_VerifyTheURLNavigationFromNavigationMenu</t>
+  </si>
+  <si>
+    <t>Fail: 7</t>
+  </si>
+  <si>
+    <t>Fail: The following asserts failed:
+	Url Not Verified for : Navatar Setup Actual : https://pe4604.lightning.force.com/lightning/page/home	 Expected : /lightning/n/navmnaI__Navatar_Setup (Module3.java:434)	Screenshot Name: Module3Tc005_VerifyTheURLNavigationFromNavigationMenu2021_02_05_06_50_23.png	 did not expect to find [true] but found [false]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -514,63 +536,207 @@
     </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyBorder="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyBorder="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="3" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="6" fillId="3" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="4" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle name="Hyperlink 2" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal 2" xfId="3"/>
   </cellStyles>
-  <dxfs count="313">
+  <dxfs count="342">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -599,6 +765,33 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -698,6 +891,33 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -896,6 +1116,78 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDEEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF548235"/>
@@ -950,6 +1242,33 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF548235"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -3974,8 +4293,22 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFABAB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA9D18E"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -4060,10 +4393,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -4098,7 +4431,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4133,7 +4466,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4227,21 +4560,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -4258,7 +4591,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -4310,29 +4643,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="H1:J5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="8.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="8.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="1025" width="8.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="7" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="10" max="1025" customWidth="true" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="8:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="1" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4340,15 +4673,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="2" spans="8:9" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H2" s="2" t="s">
         <v>58</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row ht="15.75" r="3" spans="8:9" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H3" s="2" t="s">
         <v>29</v>
       </c>
@@ -4356,7 +4689,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="4" spans="8:9" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H4" s="2" t="s">
         <v>30</v>
       </c>
@@ -4364,56 +4697,74 @@
         <v>7</v>
       </c>
     </row>
+    <row ht="15.75" r="5" spans="8:9" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="I2:I3">
-    <cfRule type="cellIs" dxfId="312" priority="6" operator="equal">
+    <cfRule dxfId="341" operator="equal" priority="8" type="cellIs">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I3">
-    <cfRule type="cellIs" dxfId="311" priority="7" operator="equal">
+    <cfRule dxfId="340" operator="equal" priority="9" type="cellIs">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="310" priority="1" operator="equal">
+    <cfRule dxfId="339" operator="equal" priority="3" type="cellIs">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="309" priority="2" operator="equal">
+    <cfRule dxfId="338" operator="equal" priority="4" type="cellIs">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I5">
+    <cfRule dxfId="337" operator="equal" priority="1" type="cellIs">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5">
+    <cfRule dxfId="336" operator="equal" priority="2" type="cellIs">
+      <formula>"No"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2:I4" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="I2:I5" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="87.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="87.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="18" r="1" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -4430,7 +4781,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="2" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>36</v>
       </c>
@@ -4445,7 +4796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="3" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>37</v>
       </c>
@@ -4460,7 +4811,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="4" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>38</v>
       </c>
@@ -4475,7 +4826,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="5" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>39</v>
       </c>
@@ -4490,7 +4841,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="6" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>40</v>
       </c>
@@ -4505,7 +4856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="7" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>48</v>
       </c>
@@ -4520,7 +4871,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="8" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>49</v>
       </c>
@@ -4535,7 +4886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="9" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>50</v>
       </c>
@@ -4550,7 +4901,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="10" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>51</v>
       </c>
@@ -4565,7 +4916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="11" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>52</v>
       </c>
@@ -4580,7 +4931,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="12" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>53</v>
       </c>
@@ -4595,7 +4946,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="13" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>54</v>
       </c>
@@ -4610,7 +4961,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="14" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>55</v>
       </c>
@@ -4625,7 +4976,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="15" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>66</v>
       </c>
@@ -4640,7 +4991,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="16" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>67</v>
       </c>
@@ -4655,7 +5006,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="17" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>68</v>
       </c>
@@ -4670,7 +5021,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="18" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>69</v>
       </c>
@@ -4685,7 +5036,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="19" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>70</v>
       </c>
@@ -4700,7 +5051,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="20" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>71</v>
       </c>
@@ -4715,7 +5066,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="21" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>72</v>
       </c>
@@ -4730,7 +5081,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="22" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>73</v>
       </c>
@@ -4745,7 +5096,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="23" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>74</v>
       </c>
@@ -4760,7 +5111,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="24" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>75</v>
       </c>
@@ -4775,7 +5126,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="25" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>76</v>
       </c>
@@ -4790,7 +5141,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="26" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>77</v>
       </c>
@@ -4805,9 +5156,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="27" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="3" t="s">
@@ -4820,9 +5171,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="28" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="3" t="s">
@@ -4835,9 +5186,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="29" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="3" t="s">
@@ -4850,9 +5201,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="30" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="3" t="s">
@@ -4865,9 +5216,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="31" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="3" t="s">
@@ -4880,9 +5231,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="32" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="3" t="s">
@@ -4895,9 +5246,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="33" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="3" t="s">
@@ -4910,7 +5261,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="34" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
         <v>31</v>
       </c>
@@ -4927,7 +5278,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="35" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>32</v>
       </c>
@@ -4944,7 +5295,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="36" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>33</v>
       </c>
@@ -4961,7 +5312,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="37" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>34</v>
       </c>
@@ -4978,9 +5329,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="38" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B38" s="8">
         <v>1</v>
@@ -4995,7 +5346,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="39" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>43</v>
       </c>
@@ -5012,7 +5363,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="40" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>42</v>
       </c>
@@ -5029,7 +5380,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="41" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>44</v>
       </c>
@@ -5046,9 +5397,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="42" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B42" s="8">
         <v>1</v>
@@ -5063,9 +5414,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="43" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B43" s="8">
         <v>1</v>
@@ -5080,9 +5431,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="44" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B44" s="8">
         <v>1</v>
@@ -5097,11 +5448,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="45" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="B45" s="8"/>
+        <v>99</v>
+      </c>
+      <c r="B45" s="8">
+        <v>1</v>
+      </c>
       <c r="C45" s="3" t="s">
         <v>7</v>
       </c>
@@ -5112,12 +5465,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="46" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B46" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>7</v>
@@ -5129,12 +5482,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="47" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B47" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>7</v>
@@ -5146,12 +5499,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="14" t="s">
+    <row customHeight="1" ht="15" r="48" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B48" s="8">
+        <v>4</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D48" t="s">
@@ -5161,24 +5516,26 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="49" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="14" t="s">
-        <v>7</v>
+        <v>105</v>
+      </c>
+      <c r="B49" s="8">
+        <v>4</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="D49" t="s">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="7" t="s">
-        <v>47</v>
+    <row customHeight="1" ht="15" r="50" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="B50" s="8"/>
       <c r="C50" s="14" t="s">
@@ -5191,9 +5548,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="51" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="14" t="s">
@@ -5206,9 +5563,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="52" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B52" s="8"/>
       <c r="C52" s="14" t="s">
@@ -5221,9 +5578,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="53" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B53" s="8"/>
       <c r="C53" s="14" t="s">
@@ -5236,9 +5593,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="54" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B54" s="8"/>
       <c r="C54" s="14" t="s">
@@ -5251,9 +5608,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="55" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B55" s="8"/>
       <c r="C55" s="14" t="s">
@@ -5266,9 +5623,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="56" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B56" s="8"/>
       <c r="C56" s="14" t="s">
@@ -5281,9 +5638,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="57" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B57" s="8"/>
       <c r="C57" s="14" t="s">
@@ -5296,9 +5653,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="58" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B58" s="8"/>
       <c r="C58" s="14" t="s">
@@ -5311,9 +5668,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="59" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="B59" s="8"/>
       <c r="C59" s="14" t="s">
@@ -5326,9 +5683,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="60" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B60" s="8"/>
       <c r="C60" s="14" t="s">
@@ -5341,9 +5698,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="61" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B61" s="8"/>
       <c r="C61" s="14" t="s">
@@ -5356,9 +5713,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="16" t="s">
-        <v>84</v>
+    <row customHeight="1" ht="15" r="62" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="B62" s="8"/>
       <c r="C62" s="14" t="s">
@@ -5371,9 +5728,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>82</v>
+    <row customHeight="1" ht="15" r="63" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="B63" s="8"/>
       <c r="C63" s="14" t="s">
@@ -5386,9 +5743,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>92</v>
+    <row customHeight="1" ht="15" r="64" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="16" t="s">
+        <v>83</v>
       </c>
       <c r="B64" s="8"/>
       <c r="C64" s="14" t="s">
@@ -5401,1217 +5758,1313 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="65" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B65" s="8"/>
       <c r="C65" s="14" t="s">
         <v>7</v>
       </c>
       <c r="D65" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="66" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B66" s="8"/>
       <c r="C66" s="14" t="s">
         <v>7</v>
       </c>
       <c r="D66" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="E66" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="67" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B67" s="8"/>
       <c r="C67" s="14" t="s">
         <v>7</v>
       </c>
       <c r="D67" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>9</v>
       </c>
     </row>
+    <row customHeight="1" ht="15" r="68" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>100</v>
+      </c>
+      <c r="B68" s="8"/>
+      <c r="C68" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="69" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>101</v>
+      </c>
+      <c r="B69" s="8"/>
+      <c r="C69" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="E6 E45">
-    <cfRule type="cellIs" dxfId="308" priority="373" operator="equal">
+    <cfRule dxfId="335" operator="equal" priority="397" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="307" priority="374" operator="equal">
+    <cfRule dxfId="334" operator="equal" priority="398" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="375" operator="equal">
+    <cfRule dxfId="333" operator="equal" priority="399" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2 D44:D45">
-    <cfRule type="containsText" dxfId="305" priority="412" operator="containsText" text="Skip:">
+    <cfRule dxfId="332" operator="containsText" priority="436" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="304" priority="413" operator="containsText" text="Fail">
+    <cfRule dxfId="331" operator="containsText" priority="437" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="303" priority="414" operator="containsText" text="Pass">
+    <cfRule dxfId="330" operator="containsText" priority="438" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="302" priority="415" operator="containsText" text="Skip:">
+    <cfRule dxfId="329" operator="containsText" priority="439" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="301" priority="416" operator="containsText" text="Fail">
+    <cfRule dxfId="328" operator="containsText" priority="440" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="300" priority="417" operator="containsText" text="Pass">
+    <cfRule dxfId="327" operator="containsText" priority="441" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="299" priority="406" operator="containsText" text="Skip:">
+    <cfRule dxfId="326" operator="containsText" priority="430" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="298" priority="407" operator="containsText" text="Fail">
+    <cfRule dxfId="325" operator="containsText" priority="431" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="297" priority="408" operator="containsText" text="Pass">
+    <cfRule dxfId="324" operator="containsText" priority="432" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="296" priority="409" operator="containsText" text="Skip:">
+    <cfRule dxfId="323" operator="containsText" priority="433" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="295" priority="410" operator="containsText" text="Fail">
+    <cfRule dxfId="322" operator="containsText" priority="434" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="294" priority="411" operator="containsText" text="Pass">
+    <cfRule dxfId="321" operator="containsText" priority="435" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="293" priority="400" operator="containsText" text="Skip:">
+    <cfRule dxfId="320" operator="containsText" priority="424" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="292" priority="401" operator="containsText" text="Fail">
+    <cfRule dxfId="319" operator="containsText" priority="425" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="291" priority="402" operator="containsText" text="Pass">
+    <cfRule dxfId="318" operator="containsText" priority="426" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="290" priority="403" operator="containsText" text="Skip:">
+    <cfRule dxfId="317" operator="containsText" priority="427" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="289" priority="404" operator="containsText" text="Fail">
+    <cfRule dxfId="316" operator="containsText" priority="428" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="288" priority="405" operator="containsText" text="Pass">
+    <cfRule dxfId="315" operator="containsText" priority="429" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="287" priority="394" operator="containsText" text="Skip:">
+    <cfRule dxfId="314" operator="containsText" priority="418" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="286" priority="395" operator="containsText" text="Fail">
+    <cfRule dxfId="313" operator="containsText" priority="419" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="285" priority="396" operator="containsText" text="Pass">
+    <cfRule dxfId="312" operator="containsText" priority="420" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="284" priority="397" operator="containsText" text="Skip:">
+    <cfRule dxfId="311" operator="containsText" priority="421" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="283" priority="398" operator="containsText" text="Fail">
+    <cfRule dxfId="310" operator="containsText" priority="422" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="282" priority="399" operator="containsText" text="Pass">
+    <cfRule dxfId="309" operator="containsText" priority="423" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="281" priority="388" operator="containsText" text="Skip:">
+    <cfRule dxfId="308" operator="containsText" priority="412" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="280" priority="389" operator="containsText" text="Fail">
+    <cfRule dxfId="307" operator="containsText" priority="413" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="279" priority="390" operator="containsText" text="Pass">
+    <cfRule dxfId="306" operator="containsText" priority="414" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="278" priority="391" operator="containsText" text="Skip:">
+    <cfRule dxfId="305" operator="containsText" priority="415" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="277" priority="392" operator="containsText" text="Fail">
+    <cfRule dxfId="304" operator="containsText" priority="416" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="276" priority="393" operator="containsText" text="Pass">
+    <cfRule dxfId="303" operator="containsText" priority="417" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" dxfId="275" priority="385" operator="equal">
+    <cfRule dxfId="302" operator="equal" priority="409" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="386" operator="equal">
+    <cfRule dxfId="301" operator="equal" priority="410" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="387" operator="equal">
+    <cfRule dxfId="300" operator="equal" priority="411" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="272" priority="382" operator="equal">
+    <cfRule dxfId="299" operator="equal" priority="406" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="383" operator="equal">
+    <cfRule dxfId="298" operator="equal" priority="407" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="384" operator="equal">
+    <cfRule dxfId="297" operator="equal" priority="408" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="269" priority="379" operator="equal">
+    <cfRule dxfId="296" operator="equal" priority="403" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="380" operator="equal">
+    <cfRule dxfId="295" operator="equal" priority="404" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="381" operator="equal">
+    <cfRule dxfId="294" operator="equal" priority="405" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="266" priority="376" operator="equal">
+    <cfRule dxfId="293" operator="equal" priority="400" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="377" operator="equal">
+    <cfRule dxfId="292" operator="equal" priority="401" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="378" operator="equal">
+    <cfRule dxfId="291" operator="equal" priority="402" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="263" priority="268" operator="containsText" text="Skip:">
+    <cfRule dxfId="290" operator="containsText" priority="292" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="262" priority="269" operator="containsText" text="Fail">
+    <cfRule dxfId="289" operator="containsText" priority="293" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="261" priority="270" operator="containsText" text="Pass">
+    <cfRule dxfId="288" operator="containsText" priority="294" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="260" priority="271" operator="containsText" text="Skip:">
+    <cfRule dxfId="287" operator="containsText" priority="295" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="259" priority="272" operator="containsText" text="Fail">
+    <cfRule dxfId="286" operator="containsText" priority="296" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="258" priority="273" operator="containsText" text="Pass">
+    <cfRule dxfId="285" operator="containsText" priority="297" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="257" priority="265" operator="equal">
+    <cfRule dxfId="284" operator="equal" priority="289" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="266" operator="equal">
+    <cfRule dxfId="283" operator="equal" priority="290" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="255" priority="267" operator="equal">
+    <cfRule dxfId="282" operator="equal" priority="291" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D50">
-    <cfRule type="containsText" dxfId="254" priority="337" operator="containsText" text="Skip:">
+  <conditionalFormatting sqref="D50:D52">
+    <cfRule dxfId="281" operator="containsText" priority="361" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D50)))</formula>
+    </cfRule>
+    <cfRule dxfId="280" operator="containsText" priority="362" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D50)))</formula>
+    </cfRule>
+    <cfRule dxfId="279" operator="containsText" priority="363" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:D52">
+    <cfRule dxfId="278" operator="containsText" priority="364" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D50)))</formula>
+    </cfRule>
+    <cfRule dxfId="277" operator="containsText" priority="365" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D50)))</formula>
+    </cfRule>
+    <cfRule dxfId="276" operator="containsText" priority="366" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8:E33">
+    <cfRule dxfId="275" operator="equal" priority="280" type="cellIs">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule dxfId="274" operator="equal" priority="281" type="cellIs">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule dxfId="273" operator="equal" priority="282" type="cellIs">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50:E52">
+    <cfRule dxfId="272" operator="equal" priority="322" type="cellIs">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule dxfId="271" operator="equal" priority="323" type="cellIs">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule dxfId="270" operator="equal" priority="324" type="cellIs">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule dxfId="269" operator="equal" priority="235" type="cellIs">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule dxfId="268" operator="equal" priority="236" type="cellIs">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule dxfId="267" operator="equal" priority="237" type="cellIs">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:D33">
+    <cfRule dxfId="266" operator="containsText" priority="283" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
+    </cfRule>
+    <cfRule dxfId="265" operator="containsText" priority="284" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
+    </cfRule>
+    <cfRule dxfId="264" operator="containsText" priority="285" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:D33">
+    <cfRule dxfId="263" operator="containsText" priority="286" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
+    </cfRule>
+    <cfRule dxfId="262" operator="containsText" priority="287" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
+    </cfRule>
+    <cfRule dxfId="261" operator="containsText" priority="288" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule dxfId="260" operator="containsText" priority="265" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D53)))</formula>
+    </cfRule>
+    <cfRule dxfId="259" operator="containsText" priority="266" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D53)))</formula>
+    </cfRule>
+    <cfRule dxfId="258" operator="containsText" priority="267" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D53)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule dxfId="257" operator="containsText" priority="268" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D53)))</formula>
+    </cfRule>
+    <cfRule dxfId="256" operator="containsText" priority="269" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D53)))</formula>
+    </cfRule>
+    <cfRule dxfId="255" operator="containsText" priority="270" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D53)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule dxfId="254" operator="equal" priority="262" type="cellIs">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule dxfId="253" operator="equal" priority="263" type="cellIs">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule dxfId="252" operator="equal" priority="264" type="cellIs">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54">
+    <cfRule dxfId="251" operator="containsText" priority="256" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D54)))</formula>
+    </cfRule>
+    <cfRule dxfId="250" operator="containsText" priority="257" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D54)))</formula>
+    </cfRule>
+    <cfRule dxfId="249" operator="containsText" priority="258" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54">
+    <cfRule dxfId="248" operator="containsText" priority="259" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D54)))</formula>
+    </cfRule>
+    <cfRule dxfId="247" operator="containsText" priority="260" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D54)))</formula>
+    </cfRule>
+    <cfRule dxfId="246" operator="containsText" priority="261" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule dxfId="245" operator="equal" priority="253" type="cellIs">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule dxfId="244" operator="equal" priority="254" type="cellIs">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule dxfId="243" operator="equal" priority="255" type="cellIs">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule dxfId="242" operator="containsText" priority="247" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D55)))</formula>
+    </cfRule>
+    <cfRule dxfId="241" operator="containsText" priority="248" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D55)))</formula>
+    </cfRule>
+    <cfRule dxfId="240" operator="containsText" priority="249" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule dxfId="239" operator="containsText" priority="250" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D55)))</formula>
+    </cfRule>
+    <cfRule dxfId="238" operator="containsText" priority="251" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D55)))</formula>
+    </cfRule>
+    <cfRule dxfId="237" operator="containsText" priority="252" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule dxfId="236" operator="equal" priority="244" type="cellIs">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule dxfId="235" operator="equal" priority="245" type="cellIs">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule dxfId="234" operator="equal" priority="246" type="cellIs">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56">
+    <cfRule dxfId="233" operator="containsText" priority="238" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D56)))</formula>
+    </cfRule>
+    <cfRule dxfId="232" operator="containsText" priority="239" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D56)))</formula>
+    </cfRule>
+    <cfRule dxfId="231" operator="containsText" priority="240" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D56)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56">
+    <cfRule dxfId="230" operator="containsText" priority="241" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D56)))</formula>
+    </cfRule>
+    <cfRule dxfId="229" operator="containsText" priority="242" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D56)))</formula>
+    </cfRule>
+    <cfRule dxfId="228" operator="containsText" priority="243" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D56)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
+    <cfRule dxfId="227" operator="containsText" priority="229" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D57)))</formula>
+    </cfRule>
+    <cfRule dxfId="226" operator="containsText" priority="230" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D57)))</formula>
+    </cfRule>
+    <cfRule dxfId="225" operator="containsText" priority="231" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D57)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
+    <cfRule dxfId="224" operator="containsText" priority="232" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D57)))</formula>
+    </cfRule>
+    <cfRule dxfId="223" operator="containsText" priority="233" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D57)))</formula>
+    </cfRule>
+    <cfRule dxfId="222" operator="containsText" priority="234" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D57)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule dxfId="221" operator="equal" priority="226" type="cellIs">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule dxfId="220" operator="equal" priority="227" type="cellIs">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule dxfId="219" operator="equal" priority="228" type="cellIs">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule dxfId="218" operator="containsText" priority="220" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D58)))</formula>
+    </cfRule>
+    <cfRule dxfId="217" operator="containsText" priority="221" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D58)))</formula>
+    </cfRule>
+    <cfRule dxfId="216" operator="containsText" priority="222" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D58)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule dxfId="215" operator="containsText" priority="223" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D58)))</formula>
+    </cfRule>
+    <cfRule dxfId="214" operator="containsText" priority="224" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D58)))</formula>
+    </cfRule>
+    <cfRule dxfId="213" operator="containsText" priority="225" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D58)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule dxfId="212" operator="equal" priority="217" type="cellIs">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule dxfId="211" operator="equal" priority="218" type="cellIs">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule dxfId="210" operator="equal" priority="219" type="cellIs">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule dxfId="209" operator="containsText" priority="211" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D59)))</formula>
+    </cfRule>
+    <cfRule dxfId="208" operator="containsText" priority="212" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D59)))</formula>
+    </cfRule>
+    <cfRule dxfId="207" operator="containsText" priority="213" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule dxfId="206" operator="containsText" priority="214" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D59)))</formula>
+    </cfRule>
+    <cfRule dxfId="205" operator="containsText" priority="215" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D59)))</formula>
+    </cfRule>
+    <cfRule dxfId="204" operator="containsText" priority="216" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule dxfId="203" operator="equal" priority="208" type="cellIs">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule dxfId="202" operator="equal" priority="209" type="cellIs">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule dxfId="201" operator="equal" priority="210" type="cellIs">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule dxfId="200" operator="containsText" priority="202" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D60)))</formula>
+    </cfRule>
+    <cfRule dxfId="199" operator="containsText" priority="203" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D60)))</formula>
+    </cfRule>
+    <cfRule dxfId="198" operator="containsText" priority="204" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D60)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule dxfId="197" operator="containsText" priority="205" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D60)))</formula>
+    </cfRule>
+    <cfRule dxfId="196" operator="containsText" priority="206" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D60)))</formula>
+    </cfRule>
+    <cfRule dxfId="195" operator="containsText" priority="207" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D60)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule dxfId="194" operator="equal" priority="199" type="cellIs">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule dxfId="193" operator="equal" priority="200" type="cellIs">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule dxfId="192" operator="equal" priority="201" type="cellIs">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61">
+    <cfRule dxfId="191" operator="containsText" priority="193" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D61)))</formula>
+    </cfRule>
+    <cfRule dxfId="190" operator="containsText" priority="194" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D61)))</formula>
+    </cfRule>
+    <cfRule dxfId="189" operator="containsText" priority="195" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D61)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61">
+    <cfRule dxfId="188" operator="containsText" priority="196" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D61)))</formula>
+    </cfRule>
+    <cfRule dxfId="187" operator="containsText" priority="197" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D61)))</formula>
+    </cfRule>
+    <cfRule dxfId="186" operator="containsText" priority="198" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D61)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule dxfId="185" operator="equal" priority="190" type="cellIs">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule dxfId="184" operator="equal" priority="191" type="cellIs">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule dxfId="183" operator="equal" priority="192" type="cellIs">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
+    <cfRule dxfId="182" operator="containsText" priority="184" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D62)))</formula>
+    </cfRule>
+    <cfRule dxfId="181" operator="containsText" priority="185" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D62)))</formula>
+    </cfRule>
+    <cfRule dxfId="180" operator="containsText" priority="186" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D62)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
+    <cfRule dxfId="179" operator="containsText" priority="187" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D62)))</formula>
+    </cfRule>
+    <cfRule dxfId="178" operator="containsText" priority="188" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D62)))</formula>
+    </cfRule>
+    <cfRule dxfId="177" operator="containsText" priority="189" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D62)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule dxfId="176" operator="equal" priority="181" type="cellIs">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule dxfId="175" operator="equal" priority="182" type="cellIs">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule dxfId="174" operator="equal" priority="183" type="cellIs">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63:D64">
+    <cfRule dxfId="173" operator="containsText" priority="175" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D63)))</formula>
+    </cfRule>
+    <cfRule dxfId="172" operator="containsText" priority="176" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D63)))</formula>
+    </cfRule>
+    <cfRule dxfId="171" operator="containsText" priority="177" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D63)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63:D64">
+    <cfRule dxfId="170" operator="containsText" priority="178" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D63)))</formula>
+    </cfRule>
+    <cfRule dxfId="169" operator="containsText" priority="179" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D63)))</formula>
+    </cfRule>
+    <cfRule dxfId="168" operator="containsText" priority="180" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D63)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63:E64">
+    <cfRule dxfId="167" operator="equal" priority="172" type="cellIs">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule dxfId="166" operator="equal" priority="173" type="cellIs">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule dxfId="165" operator="equal" priority="174" type="cellIs">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65">
+    <cfRule dxfId="164" operator="containsText" priority="166" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D65)))</formula>
+    </cfRule>
+    <cfRule dxfId="163" operator="containsText" priority="167" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D65)))</formula>
+    </cfRule>
+    <cfRule dxfId="162" operator="containsText" priority="168" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D65)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65">
+    <cfRule dxfId="161" operator="containsText" priority="169" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D65)))</formula>
+    </cfRule>
+    <cfRule dxfId="160" operator="containsText" priority="170" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D65)))</formula>
+    </cfRule>
+    <cfRule dxfId="159" operator="containsText" priority="171" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D65)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule dxfId="158" operator="equal" priority="163" type="cellIs">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule dxfId="157" operator="equal" priority="164" type="cellIs">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule dxfId="156" operator="equal" priority="165" type="cellIs">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule dxfId="155" operator="equal" priority="154" type="cellIs">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule dxfId="154" operator="equal" priority="155" type="cellIs">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule dxfId="153" operator="equal" priority="156" type="cellIs">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule dxfId="152" operator="containsText" priority="157" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D35)))</formula>
+    </cfRule>
+    <cfRule dxfId="151" operator="containsText" priority="158" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D35)))</formula>
+    </cfRule>
+    <cfRule dxfId="150" operator="containsText" priority="159" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule dxfId="149" operator="containsText" priority="160" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D35)))</formula>
+    </cfRule>
+    <cfRule dxfId="148" operator="containsText" priority="161" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D35)))</formula>
+    </cfRule>
+    <cfRule dxfId="147" operator="containsText" priority="162" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule dxfId="146" operator="equal" priority="145" type="cellIs">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule dxfId="145" operator="equal" priority="146" type="cellIs">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule dxfId="144" operator="equal" priority="147" type="cellIs">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule dxfId="143" operator="containsText" priority="148" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D36)))</formula>
+    </cfRule>
+    <cfRule dxfId="142" operator="containsText" priority="149" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D36)))</formula>
+    </cfRule>
+    <cfRule dxfId="141" operator="containsText" priority="150" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule dxfId="140" operator="containsText" priority="151" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D36)))</formula>
+    </cfRule>
+    <cfRule dxfId="139" operator="containsText" priority="152" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D36)))</formula>
+    </cfRule>
+    <cfRule dxfId="138" operator="containsText" priority="153" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule dxfId="137" operator="equal" priority="142" type="cellIs">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule dxfId="136" operator="equal" priority="143" type="cellIs">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule dxfId="135" operator="equal" priority="144" type="cellIs">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule dxfId="134" operator="containsText" priority="136" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D37)))</formula>
+    </cfRule>
+    <cfRule dxfId="133" operator="containsText" priority="137" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D37)))</formula>
+    </cfRule>
+    <cfRule dxfId="132" operator="containsText" priority="138" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule dxfId="131" operator="containsText" priority="139" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D37)))</formula>
+    </cfRule>
+    <cfRule dxfId="130" operator="containsText" priority="140" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D37)))</formula>
+    </cfRule>
+    <cfRule dxfId="129" operator="containsText" priority="141" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule dxfId="128" operator="equal" priority="133" type="cellIs">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule dxfId="127" operator="equal" priority="134" type="cellIs">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule dxfId="126" operator="equal" priority="135" type="cellIs">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule dxfId="125" operator="containsText" priority="127" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D38)))</formula>
+    </cfRule>
+    <cfRule dxfId="124" operator="containsText" priority="128" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D38)))</formula>
+    </cfRule>
+    <cfRule dxfId="123" operator="containsText" priority="129" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule dxfId="122" operator="containsText" priority="130" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D38)))</formula>
+    </cfRule>
+    <cfRule dxfId="121" operator="containsText" priority="131" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D38)))</formula>
+    </cfRule>
+    <cfRule dxfId="120" operator="containsText" priority="132" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule dxfId="119" operator="equal" priority="124" type="cellIs">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule dxfId="118" operator="equal" priority="125" type="cellIs">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule dxfId="117" operator="equal" priority="126" type="cellIs">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule dxfId="116" operator="containsText" priority="118" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D39)))</formula>
+    </cfRule>
+    <cfRule dxfId="115" operator="containsText" priority="119" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D39)))</formula>
+    </cfRule>
+    <cfRule dxfId="114" operator="containsText" priority="120" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule dxfId="113" operator="containsText" priority="121" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D39)))</formula>
+    </cfRule>
+    <cfRule dxfId="112" operator="containsText" priority="122" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D39)))</formula>
+    </cfRule>
+    <cfRule dxfId="111" operator="containsText" priority="123" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule dxfId="110" operator="equal" priority="115" type="cellIs">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule dxfId="109" operator="equal" priority="116" type="cellIs">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule dxfId="108" operator="equal" priority="117" type="cellIs">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40">
+    <cfRule dxfId="107" operator="containsText" priority="109" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D40)))</formula>
+    </cfRule>
+    <cfRule dxfId="106" operator="containsText" priority="110" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D40)))</formula>
+    </cfRule>
+    <cfRule dxfId="105" operator="containsText" priority="111" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D40)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40">
+    <cfRule dxfId="104" operator="containsText" priority="112" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D40)))</formula>
+    </cfRule>
+    <cfRule dxfId="103" operator="containsText" priority="113" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D40)))</formula>
+    </cfRule>
+    <cfRule dxfId="102" operator="containsText" priority="114" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D40)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule dxfId="101" operator="equal" priority="106" type="cellIs">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule dxfId="100" operator="equal" priority="107" type="cellIs">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule dxfId="99" operator="equal" priority="108" type="cellIs">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41:D43">
+    <cfRule dxfId="98" operator="containsText" priority="100" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D41)))</formula>
+    </cfRule>
+    <cfRule dxfId="97" operator="containsText" priority="101" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D41)))</formula>
+    </cfRule>
+    <cfRule dxfId="96" operator="containsText" priority="102" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41:D43">
+    <cfRule dxfId="95" operator="containsText" priority="103" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D41)))</formula>
+    </cfRule>
+    <cfRule dxfId="94" operator="containsText" priority="104" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D41)))</formula>
+    </cfRule>
+    <cfRule dxfId="93" operator="containsText" priority="105" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule dxfId="92" operator="equal" priority="97" type="cellIs">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule dxfId="91" operator="equal" priority="98" type="cellIs">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule dxfId="90" operator="equal" priority="99" type="cellIs">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule dxfId="89" operator="equal" priority="94" type="cellIs">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule dxfId="88" operator="equal" priority="95" type="cellIs">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule dxfId="87" operator="equal" priority="96" type="cellIs">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule dxfId="86" operator="equal" priority="85" type="cellIs">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule dxfId="85" operator="equal" priority="86" type="cellIs">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule dxfId="84" operator="equal" priority="87" type="cellIs">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule dxfId="83" operator="containsText" priority="88" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D34)))</formula>
+    </cfRule>
+    <cfRule dxfId="82" operator="containsText" priority="89" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D34)))</formula>
+    </cfRule>
+    <cfRule dxfId="81" operator="containsText" priority="90" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule dxfId="80" operator="containsText" priority="91" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D34)))</formula>
+    </cfRule>
+    <cfRule dxfId="79" operator="containsText" priority="92" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D34)))</formula>
+    </cfRule>
+    <cfRule dxfId="78" operator="containsText" priority="93" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D66">
+    <cfRule dxfId="77" operator="containsText" priority="79" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D66)))</formula>
+    </cfRule>
+    <cfRule dxfId="76" operator="containsText" priority="80" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D66)))</formula>
+    </cfRule>
+    <cfRule dxfId="75" operator="containsText" priority="81" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D66)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D66">
+    <cfRule dxfId="74" operator="containsText" priority="82" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D66)))</formula>
+    </cfRule>
+    <cfRule dxfId="73" operator="containsText" priority="83" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D66)))</formula>
+    </cfRule>
+    <cfRule dxfId="72" operator="containsText" priority="84" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D66)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule dxfId="71" operator="equal" priority="76" type="cellIs">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule dxfId="70" operator="equal" priority="77" type="cellIs">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule dxfId="69" operator="equal" priority="78" type="cellIs">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D67">
+    <cfRule dxfId="68" operator="containsText" priority="70" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D67)))</formula>
+    </cfRule>
+    <cfRule dxfId="67" operator="containsText" priority="71" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D67)))</formula>
+    </cfRule>
+    <cfRule dxfId="66" operator="containsText" priority="72" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D67)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D67">
+    <cfRule dxfId="65" operator="containsText" priority="73" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D67)))</formula>
+    </cfRule>
+    <cfRule dxfId="64" operator="containsText" priority="74" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D67)))</formula>
+    </cfRule>
+    <cfRule dxfId="63" operator="containsText" priority="75" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D67)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule dxfId="62" operator="equal" priority="67" type="cellIs">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule dxfId="61" operator="equal" priority="68" type="cellIs">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule dxfId="60" operator="equal" priority="69" type="cellIs">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule dxfId="59" operator="equal" priority="58" type="cellIs">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule dxfId="58" operator="equal" priority="59" type="cellIs">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule dxfId="57" operator="equal" priority="60" type="cellIs">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule dxfId="56" operator="equal" priority="43" type="cellIs">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule dxfId="55" operator="equal" priority="44" type="cellIs">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule dxfId="54" operator="equal" priority="45" type="cellIs">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46:D47">
+    <cfRule dxfId="53" operator="containsText" priority="49" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D46)))</formula>
+    </cfRule>
+    <cfRule dxfId="52" operator="containsText" priority="50" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D46)))</formula>
+    </cfRule>
+    <cfRule dxfId="51" operator="containsText" priority="51" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46:D47">
+    <cfRule dxfId="50" operator="containsText" priority="52" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D46)))</formula>
+    </cfRule>
+    <cfRule dxfId="49" operator="containsText" priority="53" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D46)))</formula>
+    </cfRule>
+    <cfRule dxfId="48" operator="containsText" priority="54" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule dxfId="47" operator="equal" priority="46" type="cellIs">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule dxfId="46" operator="equal" priority="47" type="cellIs">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule dxfId="45" operator="equal" priority="48" type="cellIs">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D68">
+    <cfRule dxfId="44" operator="containsText" priority="37" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D68)))</formula>
+    </cfRule>
+    <cfRule dxfId="43" operator="containsText" priority="38" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D68)))</formula>
+    </cfRule>
+    <cfRule dxfId="42" operator="containsText" priority="39" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D68)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D68">
+    <cfRule dxfId="41" operator="containsText" priority="40" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D68)))</formula>
+    </cfRule>
+    <cfRule dxfId="40" operator="containsText" priority="41" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D68)))</formula>
+    </cfRule>
+    <cfRule dxfId="39" operator="containsText" priority="42" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D68)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule dxfId="38" operator="equal" priority="34" type="cellIs">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule dxfId="37" operator="equal" priority="35" type="cellIs">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule dxfId="36" operator="equal" priority="36" type="cellIs">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D69">
+    <cfRule dxfId="35" operator="containsText" priority="28" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D69)))</formula>
+    </cfRule>
+    <cfRule dxfId="34" operator="containsText" priority="29" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D69)))</formula>
+    </cfRule>
+    <cfRule dxfId="33" operator="containsText" priority="30" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D69)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D69">
+    <cfRule dxfId="32" operator="containsText" priority="31" text="Skip:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Skip:",D69)))</formula>
+    </cfRule>
+    <cfRule dxfId="31" operator="containsText" priority="32" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",D69)))</formula>
+    </cfRule>
+    <cfRule dxfId="30" operator="containsText" priority="33" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",D69)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule dxfId="29" operator="equal" priority="25" type="cellIs">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule dxfId="28" operator="equal" priority="26" type="cellIs">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule dxfId="27" operator="equal" priority="27" type="cellIs">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule dxfId="26" operator="equal" priority="16" type="cellIs">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule dxfId="25" operator="equal" priority="17" type="cellIs">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule dxfId="24" operator="equal" priority="18" type="cellIs">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48">
+    <cfRule dxfId="23" operator="containsText" priority="10" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="253" priority="338" operator="containsText" text="Fail">
+    <cfRule dxfId="22" operator="containsText" priority="11" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="252" priority="339" operator="containsText" text="Pass">
+    <cfRule dxfId="21" operator="containsText" priority="12" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D48)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D50">
-    <cfRule type="containsText" dxfId="251" priority="340" operator="containsText" text="Skip:">
+  <conditionalFormatting sqref="D48">
+    <cfRule dxfId="20" operator="containsText" priority="13" text="Skip:" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Skip:",D48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="250" priority="341" operator="containsText" text="Fail">
+    <cfRule dxfId="19" operator="containsText" priority="14" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",D48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="249" priority="342" operator="containsText" text="Pass">
+    <cfRule dxfId="18" operator="containsText" priority="15" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",D48)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E33">
-    <cfRule type="cellIs" dxfId="248" priority="256" operator="equal">
+  <conditionalFormatting sqref="E49">
+    <cfRule dxfId="17" operator="equal" priority="7" type="cellIs">
       <formula>"LOW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="257" operator="equal">
+    <cfRule dxfId="16" operator="equal" priority="8" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="258" operator="equal">
+    <cfRule dxfId="15" operator="equal" priority="9" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E48:E50">
-    <cfRule type="cellIs" dxfId="245" priority="298" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="299" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="300" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="242" priority="211" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="212" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="213" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D33">
-    <cfRule type="containsText" dxfId="239" priority="259" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="238" priority="260" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="237" priority="261" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D33">
-    <cfRule type="containsText" dxfId="236" priority="262" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="235" priority="263" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="234" priority="264" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="containsText" dxfId="233" priority="241" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="232" priority="242" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="231" priority="243" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D51)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="containsText" dxfId="230" priority="244" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="229" priority="245" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="228" priority="246" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D51)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="227" priority="238" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="239" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="240" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="containsText" dxfId="224" priority="232" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D52)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="223" priority="233" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D52)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="222" priority="234" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D52)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="containsText" dxfId="221" priority="235" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D52)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="220" priority="236" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D52)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="219" priority="237" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D52)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="218" priority="229" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="230" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="231" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="containsText" dxfId="215" priority="223" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="214" priority="224" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="213" priority="225" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D53)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="containsText" dxfId="212" priority="226" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="211" priority="227" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="210" priority="228" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D53)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="209" priority="220" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="221" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="222" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
-    <cfRule type="containsText" dxfId="206" priority="214" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="205" priority="215" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="204" priority="216" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D54)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
-    <cfRule type="containsText" dxfId="203" priority="217" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="202" priority="218" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="219" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D54)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="containsText" dxfId="200" priority="205" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="199" priority="206" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="198" priority="207" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D55)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="containsText" dxfId="197" priority="208" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="196" priority="209" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="195" priority="210" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D55)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="194" priority="202" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="203" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="204" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="containsText" dxfId="191" priority="196" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D56)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="190" priority="197" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D56)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="189" priority="198" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D56)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="containsText" dxfId="188" priority="199" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D56)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="187" priority="200" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D56)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="201" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D56)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="185" priority="193" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="194" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="195" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
-    <cfRule type="containsText" dxfId="182" priority="187" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D57)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="181" priority="188" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D57)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="180" priority="189" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D57)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
-    <cfRule type="containsText" dxfId="179" priority="190" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D57)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="191" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D57)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="177" priority="192" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D57)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="176" priority="184" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="185" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="186" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
-    <cfRule type="containsText" dxfId="173" priority="178" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D58)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="179" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D58)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="180" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D58)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
-    <cfRule type="containsText" dxfId="170" priority="181" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D58)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="169" priority="182" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D58)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="183" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D58)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="167" priority="175" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="176" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="177" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
-    <cfRule type="containsText" dxfId="164" priority="169" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D59)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="163" priority="170" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D59)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="171" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D59)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
-    <cfRule type="containsText" dxfId="161" priority="172" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D59)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="173" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D59)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="174" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D59)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="158" priority="166" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="167" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="168" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="containsText" dxfId="155" priority="160" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D60)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="161" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D60)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="162" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D60)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="containsText" dxfId="152" priority="163" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D60)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="151" priority="164" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D60)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="165" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D60)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="149" priority="157" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="158" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="159" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D61:D62">
-    <cfRule type="containsText" dxfId="146" priority="151" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D61)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="145" priority="152" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D61)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="153" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D61)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D61:D62">
-    <cfRule type="containsText" dxfId="143" priority="154" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D61)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="155" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D61)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="156" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D61)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61:E62">
-    <cfRule type="cellIs" dxfId="140" priority="148" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="149" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="150" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
-    <cfRule type="containsText" dxfId="137" priority="142" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D63)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="143" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D63)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="144" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D63)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
-    <cfRule type="containsText" dxfId="134" priority="145" operator="containsText" text="Skip:">
-      <formula>NOT(ISERROR(SEARCH("Skip:",D63)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="146" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",D63)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="147" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",D63)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="131" priority="139" operator="equal">
-      <formula>"LOW"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="140" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="141" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId=